--- a/Projects/tbh-report-catalog/reports/202501 DispatchBilling Verification Pack.xlsx
+++ b/Projects/tbh-report-catalog/reports/202501 DispatchBilling Verification Pack.xlsx
@@ -29,7 +29,7 @@
     <t>Generated</t>
   </si>
   <si>
-    <t>2026-02-16 19:15</t>
+    <t>2026-02-17 09:07</t>
   </si>
   <si>
     <t>Notes</t>

--- a/Projects/tbh-report-catalog/reports/202501 DispatchBilling Verification Pack.xlsx
+++ b/Projects/tbh-report-catalog/reports/202501 DispatchBilling Verification Pack.xlsx
@@ -29,7 +29,7 @@
     <t>Generated</t>
   </si>
   <si>
-    <t>2026-02-17 09:07</t>
+    <t>2026-02-17 10:26</t>
   </si>
   <si>
     <t>Notes</t>

--- a/Projects/tbh-report-catalog/reports/202501 DispatchBilling Verification Pack.xlsx
+++ b/Projects/tbh-report-catalog/reports/202501 DispatchBilling Verification Pack.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
   <si>
     <t>TBH Dispatch / Billing Verification Pack</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Generated</t>
   </si>
   <si>
-    <t>2026-02-17 10:26</t>
+    <t>2026-02-17 10:55</t>
   </si>
   <si>
     <t>Notes</t>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Delivered Qty</t>
+  </si>
+  <si>
+    <t>Concrete Delivered Qty</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -1279,7 +1282,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1289,8 +1292,9 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="11.93303394317627" customWidth="1"/>
     <col min="4" max="4" width="13.676064491271973" customWidth="1"/>
-    <col min="5" max="5" width="11.700636863708496" customWidth="1"/>
-    <col min="6" max="6" width="11.60714054107666" customWidth="1"/>
+    <col min="5" max="5" width="22.1929874420166" customWidth="1"/>
+    <col min="6" max="6" width="11.700636863708496" customWidth="1"/>
+    <col min="7" max="7" width="11.60714054107666" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1312,24 +1316,30 @@
       <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4">
         <v>45658</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5">
         <v>1.5</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
         <v>99</v>
       </c>
-      <c r="F2" s="0">
+      <c r="G2" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1338,18 +1348,21 @@
         <v>45659</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5">
         <v>110.5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
+        <v>108.5</v>
+      </c>
+      <c r="F3" s="6">
         <v>16701.51</v>
       </c>
-      <c r="F3" s="0">
+      <c r="G3" s="0">
         <v>16</v>
       </c>
     </row>
@@ -1358,18 +1371,21 @@
         <v>45659</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5">
         <v>71.5</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
+        <v>71.5</v>
+      </c>
+      <c r="F4" s="6">
         <v>11158.5</v>
       </c>
-      <c r="F4" s="0">
+      <c r="G4" s="0">
         <v>9</v>
       </c>
     </row>
@@ -1378,18 +1394,21 @@
         <v>45659</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5">
         <v>216.25</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
+        <v>216.25</v>
+      </c>
+      <c r="F5" s="6">
         <v>33500.51</v>
       </c>
-      <c r="F5" s="0">
+      <c r="G5" s="0">
         <v>31</v>
       </c>
     </row>
@@ -1398,18 +1417,21 @@
         <v>45659</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5">
         <v>2.5</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
         <v>100</v>
       </c>
-      <c r="F6" s="0">
+      <c r="G6" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1418,18 +1440,21 @@
         <v>45659</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5">
         <v>235</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
+        <v>235</v>
+      </c>
+      <c r="F7" s="6">
         <v>35391.27</v>
       </c>
-      <c r="F7" s="0">
+      <c r="G7" s="0">
         <v>29</v>
       </c>
     </row>
@@ -1438,18 +1463,21 @@
         <v>45660</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5">
         <v>124</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
+        <v>124</v>
+      </c>
+      <c r="F8" s="6">
         <v>19397.77</v>
       </c>
-      <c r="F8" s="0">
+      <c r="G8" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1458,18 +1486,21 @@
         <v>45660</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5">
         <v>183.25</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
+        <v>183.25</v>
+      </c>
+      <c r="F9" s="6">
         <v>27815.75</v>
       </c>
-      <c r="F9" s="0">
+      <c r="G9" s="0">
         <v>24</v>
       </c>
     </row>
@@ -1478,18 +1509,21 @@
         <v>45660</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5">
         <v>436.75</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
+        <v>436.75</v>
+      </c>
+      <c r="F10" s="6">
         <v>67835.69</v>
       </c>
-      <c r="F10" s="0">
+      <c r="G10" s="0">
         <v>56</v>
       </c>
     </row>
@@ -1498,18 +1532,21 @@
         <v>45660</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5">
         <v>18</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
         <v>495</v>
       </c>
-      <c r="F11" s="0">
+      <c r="G11" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1518,18 +1555,21 @@
         <v>45660</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5">
         <v>19.65</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
         <v>648.45</v>
       </c>
-      <c r="F12" s="0">
+      <c r="G12" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1538,18 +1578,21 @@
         <v>45660</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5">
         <v>10</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
         <v>600</v>
       </c>
-      <c r="F13" s="0">
+      <c r="G13" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1558,18 +1601,21 @@
         <v>45660</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="5">
         <v>409.25</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
+        <v>409.25</v>
+      </c>
+      <c r="F14" s="6">
         <v>60660.9</v>
       </c>
-      <c r="F14" s="0">
+      <c r="G14" s="0">
         <v>55</v>
       </c>
     </row>
@@ -1578,18 +1624,21 @@
         <v>45661</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="5">
         <v>66.5</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
+        <v>56.5</v>
+      </c>
+      <c r="F15" s="6">
         <v>12335.26</v>
       </c>
-      <c r="F15" s="0">
+      <c r="G15" s="0">
         <v>8</v>
       </c>
     </row>
@@ -1598,18 +1647,21 @@
         <v>45665</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="5">
         <v>9</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
+        <v>9</v>
+      </c>
+      <c r="F16" s="6">
         <v>1647</v>
       </c>
-      <c r="F16" s="0">
+      <c r="G16" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1618,18 +1670,21 @@
         <v>45665</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5">
         <v>44</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
+        <v>44</v>
+      </c>
+      <c r="F17" s="6">
         <v>7264</v>
       </c>
-      <c r="F17" s="0">
+      <c r="G17" s="0">
         <v>5</v>
       </c>
     </row>
@@ -1638,18 +1693,21 @@
         <v>45665</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5">
         <v>39</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
+        <v>39</v>
+      </c>
+      <c r="F18" s="6">
         <v>6957.5</v>
       </c>
-      <c r="F18" s="0">
+      <c r="G18" s="0">
         <v>7</v>
       </c>
     </row>
@@ -1658,18 +1716,21 @@
         <v>45666</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="5">
         <v>45.5</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
+        <v>45.5</v>
+      </c>
+      <c r="F19" s="6">
         <v>7837</v>
       </c>
-      <c r="F19" s="0">
+      <c r="G19" s="0">
         <v>7</v>
       </c>
     </row>
@@ -1678,18 +1739,21 @@
         <v>45666</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="5">
         <v>102</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
+        <v>102</v>
+      </c>
+      <c r="F20" s="6">
         <v>15643</v>
       </c>
-      <c r="F20" s="0">
+      <c r="G20" s="0">
         <v>12</v>
       </c>
     </row>
@@ -1698,18 +1762,21 @@
         <v>45666</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" s="5">
         <v>128</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
+        <v>128</v>
+      </c>
+      <c r="F21" s="6">
         <v>18905.5</v>
       </c>
-      <c r="F21" s="0">
+      <c r="G21" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1718,18 +1785,21 @@
         <v>45666</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="5">
         <v>10</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
         <v>600</v>
       </c>
-      <c r="F22" s="0">
+      <c r="G22" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1738,18 +1808,21 @@
         <v>45666</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="5">
         <v>75</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
+        <v>75</v>
+      </c>
+      <c r="F23" s="6">
         <v>12519</v>
       </c>
-      <c r="F23" s="0">
+      <c r="G23" s="0">
         <v>11</v>
       </c>
     </row>
@@ -1758,18 +1831,21 @@
         <v>45667</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="5">
         <v>105</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
+        <v>105</v>
+      </c>
+      <c r="F24" s="6">
         <v>16723.27</v>
       </c>
-      <c r="F24" s="0">
+      <c r="G24" s="0">
         <v>13</v>
       </c>
     </row>
@@ -1778,18 +1854,21 @@
         <v>45667</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="5">
         <v>226</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
+        <v>226</v>
+      </c>
+      <c r="F25" s="6">
         <v>32755.52</v>
       </c>
-      <c r="F25" s="0">
+      <c r="G25" s="0">
         <v>28</v>
       </c>
     </row>
@@ -1798,18 +1877,21 @@
         <v>45667</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" s="5">
         <v>362</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
+        <v>362</v>
+      </c>
+      <c r="F26" s="6">
         <v>54744.91</v>
       </c>
-      <c r="F26" s="0">
+      <c r="G26" s="0">
         <v>41</v>
       </c>
     </row>
@@ -1818,18 +1900,21 @@
         <v>45667</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" s="5">
         <v>2</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
         <v>61</v>
       </c>
-      <c r="F27" s="0">
+      <c r="G27" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1838,18 +1923,21 @@
         <v>45667</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="5">
         <v>344.75</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
+        <v>344.75</v>
+      </c>
+      <c r="F28" s="6">
         <v>53881.41</v>
       </c>
-      <c r="F28" s="0">
+      <c r="G28" s="0">
         <v>41</v>
       </c>
     </row>
@@ -1858,18 +1946,21 @@
         <v>45670</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" s="5">
         <v>113.5</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
+        <v>112.5</v>
+      </c>
+      <c r="F29" s="6">
         <v>18138.25</v>
       </c>
-      <c r="F29" s="0">
+      <c r="G29" s="0">
         <v>16</v>
       </c>
     </row>
@@ -1878,18 +1969,21 @@
         <v>45670</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D30" s="5">
         <v>433.25</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
+        <v>433.25</v>
+      </c>
+      <c r="F30" s="6">
         <v>62617.88</v>
       </c>
-      <c r="F30" s="0">
+      <c r="G30" s="0">
         <v>50</v>
       </c>
     </row>
@@ -1898,18 +1992,21 @@
         <v>45670</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" s="5">
         <v>657.25</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
+        <v>657.25</v>
+      </c>
+      <c r="F31" s="6">
         <v>98735.64</v>
       </c>
-      <c r="F31" s="0">
+      <c r="G31" s="0">
         <v>77</v>
       </c>
     </row>
@@ -1918,18 +2015,21 @@
         <v>45670</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32" s="5">
         <v>9</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
         <v>321</v>
       </c>
-      <c r="F32" s="0">
+      <c r="G32" s="0">
         <v>2</v>
       </c>
     </row>
@@ -1938,18 +2038,21 @@
         <v>45670</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" s="5">
         <v>282</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
+        <v>282</v>
+      </c>
+      <c r="F33" s="6">
         <v>42290.75</v>
       </c>
-      <c r="F33" s="0">
+      <c r="G33" s="0">
         <v>35</v>
       </c>
     </row>
@@ -1958,18 +2061,21 @@
         <v>45671</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" s="5">
         <v>54.5</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
+        <v>54.5</v>
+      </c>
+      <c r="F34" s="6">
         <v>8279.75</v>
       </c>
-      <c r="F34" s="0">
+      <c r="G34" s="0">
         <v>7</v>
       </c>
     </row>
@@ -1978,18 +2084,21 @@
         <v>45671</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D35" s="5">
         <v>110.5</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
+        <v>110.5</v>
+      </c>
+      <c r="F35" s="6">
         <v>15859</v>
       </c>
-      <c r="F35" s="0">
+      <c r="G35" s="0">
         <v>13</v>
       </c>
     </row>
@@ -1998,18 +2107,21 @@
         <v>45671</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36" s="5">
         <v>126.5</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
+        <v>126.5</v>
+      </c>
+      <c r="F36" s="6">
         <v>19296.76</v>
       </c>
-      <c r="F36" s="0">
+      <c r="G36" s="0">
         <v>17</v>
       </c>
     </row>
@@ -2018,18 +2130,21 @@
         <v>45671</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D37" s="5">
         <v>18</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
         <v>600</v>
       </c>
-      <c r="F37" s="0">
+      <c r="G37" s="0">
         <v>2</v>
       </c>
     </row>
@@ -2038,18 +2153,21 @@
         <v>45671</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38" s="5">
         <v>159</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
+        <v>159</v>
+      </c>
+      <c r="F38" s="6">
         <v>25177.51</v>
       </c>
-      <c r="F38" s="0">
+      <c r="G38" s="0">
         <v>23</v>
       </c>
     </row>
@@ -2058,18 +2176,21 @@
         <v>45672</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" s="5">
         <v>112.25</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
+        <v>111.25</v>
+      </c>
+      <c r="F39" s="6">
         <v>18174.26</v>
       </c>
-      <c r="F39" s="0">
+      <c r="G39" s="0">
         <v>16</v>
       </c>
     </row>
@@ -2078,18 +2199,21 @@
         <v>45672</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40" s="5">
         <v>51.5</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
+        <v>51.5</v>
+      </c>
+      <c r="F40" s="6">
         <v>7016</v>
       </c>
-      <c r="F40" s="0">
+      <c r="G40" s="0">
         <v>6</v>
       </c>
     </row>
@@ -2098,18 +2222,21 @@
         <v>45672</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D41" s="5">
         <v>280.75</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
+        <v>280.75</v>
+      </c>
+      <c r="F41" s="6">
         <v>43232</v>
       </c>
-      <c r="F41" s="0">
+      <c r="G41" s="0">
         <v>35</v>
       </c>
     </row>
@@ -2118,18 +2245,21 @@
         <v>45672</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D42" s="5">
         <v>5</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
         <v>316.5</v>
       </c>
-      <c r="F42" s="0">
+      <c r="G42" s="0">
         <v>2</v>
       </c>
     </row>
@@ -2138,18 +2268,21 @@
         <v>45672</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" s="5">
         <v>22</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
         <v>806</v>
       </c>
-      <c r="F43" s="0">
+      <c r="G43" s="0">
         <v>2</v>
       </c>
     </row>
@@ -2158,18 +2291,21 @@
         <v>45672</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D44" s="5">
         <v>191.5</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
+        <v>155.5</v>
+      </c>
+      <c r="F44" s="6">
         <v>25606.75</v>
       </c>
-      <c r="F44" s="0">
+      <c r="G44" s="0">
         <v>23</v>
       </c>
     </row>
@@ -2178,18 +2314,21 @@
         <v>45673</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45" s="5">
         <v>23</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
+        <v>23</v>
+      </c>
+      <c r="F45" s="6">
         <v>3952.5</v>
       </c>
-      <c r="F45" s="0">
+      <c r="G45" s="0">
         <v>5</v>
       </c>
     </row>
@@ -2198,18 +2337,21 @@
         <v>45673</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D46" s="5">
         <v>46.5</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
+        <v>46.5</v>
+      </c>
+      <c r="F46" s="6">
         <v>7880</v>
       </c>
-      <c r="F46" s="0">
+      <c r="G46" s="0">
         <v>7</v>
       </c>
     </row>
@@ -2218,18 +2360,21 @@
         <v>45673</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D47" s="5">
         <v>323.5</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
+        <v>323.5</v>
+      </c>
+      <c r="F47" s="6">
         <v>49572.26</v>
       </c>
-      <c r="F47" s="0">
+      <c r="G47" s="0">
         <v>41</v>
       </c>
     </row>
@@ -2238,18 +2383,21 @@
         <v>45673</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" s="5">
         <v>48.81</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
         <v>1989.66</v>
       </c>
-      <c r="F48" s="0">
+      <c r="G48" s="0">
         <v>4</v>
       </c>
     </row>
@@ -2258,18 +2406,21 @@
         <v>45673</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" s="5">
         <v>343</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
+        <v>343</v>
+      </c>
+      <c r="F49" s="6">
         <v>53579.01</v>
       </c>
-      <c r="F49" s="0">
+      <c r="G49" s="0">
         <v>41</v>
       </c>
     </row>
@@ -2278,18 +2429,21 @@
         <v>45674</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" s="5">
         <v>110.5</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
+        <v>109.5</v>
+      </c>
+      <c r="F50" s="6">
         <v>18287.5</v>
       </c>
-      <c r="F50" s="0">
+      <c r="G50" s="0">
         <v>14</v>
       </c>
     </row>
@@ -2298,18 +2452,21 @@
         <v>45674</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D51" s="5">
         <v>31.5</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
+        <v>31.5</v>
+      </c>
+      <c r="F51" s="6">
         <v>5682</v>
       </c>
-      <c r="F51" s="0">
+      <c r="G51" s="0">
         <v>4</v>
       </c>
     </row>
@@ -2318,18 +2475,21 @@
         <v>45674</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D52" s="5">
         <v>496.25</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
+        <v>496.25</v>
+      </c>
+      <c r="F52" s="6">
         <v>71187.38</v>
       </c>
-      <c r="F52" s="0">
+      <c r="G52" s="0">
         <v>55</v>
       </c>
     </row>
@@ -2338,18 +2498,21 @@
         <v>45674</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D53" s="5">
         <v>535.25</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
+        <v>535.25</v>
+      </c>
+      <c r="F53" s="6">
         <v>87467.26</v>
       </c>
-      <c r="F53" s="0">
+      <c r="G53" s="0">
         <v>67</v>
       </c>
     </row>
@@ -2360,7 +2523,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2371,13 +2534,14 @@
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="11.93303394317627" customWidth="1"/>
     <col min="5" max="5" width="13.676064491271973" customWidth="1"/>
-    <col min="6" max="6" width="12.677665710449219" customWidth="1"/>
-    <col min="7" max="7" width="11.60714054107666" customWidth="1"/>
+    <col min="6" max="6" width="22.1929874420166" customWidth="1"/>
+    <col min="7" max="7" width="12.677665710449219" customWidth="1"/>
+    <col min="8" max="8" width="11.60714054107666" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2396,6 +2560,9 @@
       </c>
       <c r="G1" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -2406,18 +2573,21 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5">
         <v>807.75</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
+        <v>802.75</v>
+      </c>
+      <c r="G2" s="6">
         <v>129138.81</v>
       </c>
-      <c r="G2" s="0">
+      <c r="H2" s="0">
         <v>112</v>
       </c>
     </row>
@@ -2429,18 +2599,21 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5">
         <v>1300</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
+        <v>1300</v>
+      </c>
+      <c r="G3" s="6">
         <v>193691.65</v>
       </c>
-      <c r="G3" s="0">
+      <c r="H3" s="0">
         <v>158</v>
       </c>
     </row>
@@ -2452,18 +2625,21 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5">
         <v>3093.75</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
+        <v>3083.75</v>
+      </c>
+      <c r="G4" s="6">
         <v>469345.91</v>
       </c>
-      <c r="G4" s="0">
+      <c r="H4" s="0">
         <v>376</v>
       </c>
     </row>
@@ -2475,18 +2651,21 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5">
         <v>54</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
         <v>1931.5</v>
       </c>
-      <c r="G5" s="0">
+      <c r="H5" s="0">
         <v>11</v>
       </c>
     </row>
@@ -2498,18 +2677,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5">
         <v>19.65</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
         <v>648.45</v>
       </c>
-      <c r="G6" s="0">
+      <c r="H6" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2521,18 +2703,21 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="5">
         <v>20</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
         <v>1200</v>
       </c>
-      <c r="G7" s="0">
+      <c r="H7" s="0">
         <v>3</v>
       </c>
     </row>
@@ -2544,18 +2729,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5">
         <v>72.81</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
         <v>2856.66</v>
       </c>
-      <c r="G8" s="0">
+      <c r="H8" s="0">
         <v>7</v>
       </c>
     </row>
@@ -2567,18 +2755,21 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5">
         <v>2613.75</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
+        <v>2577.75</v>
+      </c>
+      <c r="G9" s="6">
         <v>403531.36</v>
       </c>
-      <c r="G9" s="0">
+      <c r="H9" s="0">
         <v>332</v>
       </c>
     </row>
@@ -2603,21 +2794,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6">
         <v>1647</v>
@@ -2631,7 +2822,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6">
         <v>3825</v>
@@ -2645,7 +2836,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6">
         <v>286</v>
@@ -2659,7 +2850,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6">
         <v>3439</v>
@@ -2673,7 +2864,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="6">
         <v>2520</v>
@@ -2687,7 +2878,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="6">
         <v>3971</v>
@@ -2701,7 +2892,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="6">
         <v>180.5</v>
@@ -2715,7 +2906,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="6">
         <v>4713</v>
@@ -2729,7 +2920,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="6">
         <v>562.5</v>
@@ -2743,7 +2934,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="6">
         <v>1738.5</v>
@@ -2757,7 +2948,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="6">
         <v>425</v>
@@ -2771,7 +2962,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="6">
         <v>600</v>
@@ -2785,7 +2976,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="6">
         <v>6006</v>
@@ -2799,7 +2990,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="6">
         <v>4332</v>
@@ -2813,7 +3004,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="6">
         <v>11311</v>
@@ -2827,7 +3018,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="6">
         <v>2483</v>
@@ -2841,7 +3032,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="6">
         <v>255</v>
@@ -2855,7 +3046,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="6">
         <v>1800</v>
@@ -2869,7 +3060,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="6">
         <v>2935.5</v>
@@ -2883,7 +3074,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="6">
         <v>8791</v>
@@ -2897,7 +3088,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" s="6">
         <v>6721</v>
@@ -2911,7 +3102,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" s="6">
         <v>8078.5</v>
@@ -2925,7 +3116,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="6">
         <v>382</v>
@@ -2939,7 +3130,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="6">
         <v>803.25</v>
@@ -2953,7 +3144,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" s="6">
         <v>1715</v>
@@ -2967,7 +3158,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="6">
         <v>499.5</v>
@@ -2981,7 +3172,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" s="6">
         <v>4162.5</v>
@@ -2995,7 +3186,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" s="6">
         <v>3496.5</v>
@@ -3009,7 +3200,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" s="6">
         <v>810</v>
@@ -3023,7 +3214,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" s="6">
         <v>635.25</v>
@@ -3037,7 +3228,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" s="6">
         <v>1349</v>
@@ -3051,7 +3242,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" s="6">
         <v>145</v>
@@ -3065,7 +3256,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" s="6">
         <v>1184</v>
@@ -3079,7 +3270,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" s="6">
         <v>1396.5</v>
@@ -3093,7 +3284,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36" s="6">
         <v>2888</v>
@@ -3107,7 +3298,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B37" s="6">
         <v>2743.5</v>
@@ -3121,7 +3312,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B38" s="6">
         <v>2839</v>
@@ -3135,7 +3326,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" s="6">
         <v>41782.63</v>
@@ -3149,7 +3340,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" s="6">
         <v>3302.25</v>
@@ -3163,7 +3354,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B41" s="6">
         <v>5130</v>
@@ -3177,7 +3368,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="6">
         <v>292</v>
@@ -3191,7 +3382,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B43" s="6">
         <v>5534.25</v>
@@ -3205,7 +3396,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B44" s="6">
         <v>357</v>
@@ -3219,7 +3410,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B45" s="6">
         <v>12249</v>
@@ -3233,7 +3424,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" s="6">
         <v>2227.5</v>
@@ -3247,7 +3438,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B47" s="6">
         <v>4185.5</v>
@@ -3261,7 +3452,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="6">
         <v>11924</v>
@@ -3275,7 +3466,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" s="6">
         <v>1530</v>
@@ -3289,7 +3480,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="6">
         <v>1300.5</v>
@@ -3303,7 +3494,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="6">
         <v>55</v>
@@ -3317,7 +3508,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="6">
         <v>266</v>
@@ -3331,7 +3522,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B53" s="6">
         <v>5043.5</v>
@@ -3345,7 +3536,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B54" s="6">
         <v>1211</v>
@@ -3359,7 +3550,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B55" s="6">
         <v>3193.5</v>
@@ -3373,7 +3564,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="6">
         <v>900</v>
@@ -3387,7 +3578,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="6">
         <v>2270.75</v>
@@ -3401,7 +3592,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="6">
         <v>277.5</v>
@@ -3415,7 +3606,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B59" s="6">
         <v>3312</v>
@@ -3429,7 +3620,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B60" s="6">
         <v>450</v>
@@ -3443,7 +3634,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B61" s="6">
         <v>4094</v>
@@ -3457,7 +3648,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B62" s="6">
         <v>2118</v>
@@ -3471,7 +3662,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B63" s="6">
         <v>80</v>
@@ -3485,7 +3676,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B64" s="6">
         <v>4246.5</v>
@@ -3499,7 +3690,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B65" s="6">
         <v>2755</v>
@@ -3513,7 +3704,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B66" s="6">
         <v>4531.25</v>
@@ -3527,7 +3718,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B67" s="6">
         <v>1377.5</v>
@@ -3541,7 +3732,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B68" s="6">
         <v>2812</v>
@@ -3555,7 +3746,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B69" s="6">
         <v>1237.5</v>
@@ -3569,7 +3760,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B70" s="6">
         <v>8268</v>
@@ -3583,7 +3774,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B71" s="6">
         <v>1014</v>
@@ -3597,7 +3788,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B72" s="6">
         <v>740.25</v>
@@ -3611,7 +3802,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B73" s="6">
         <v>600.25</v>
@@ -3625,7 +3816,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B74" s="6">
         <v>1920</v>
@@ -3639,7 +3830,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B75" s="6">
         <v>328</v>
@@ -3653,7 +3844,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B76" s="6">
         <v>1586.5</v>
@@ -3667,7 +3858,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B77" s="6">
         <v>2599.26</v>
@@ -3681,7 +3872,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B78" s="6">
         <v>1684.75</v>
@@ -3695,7 +3886,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B79" s="6">
         <v>1391.75</v>
@@ -3709,7 +3900,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B80" s="6">
         <v>1444</v>
@@ -3723,7 +3914,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B81" s="6">
         <v>1368</v>
@@ -3737,7 +3928,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" s="6">
         <v>1105</v>
@@ -3751,7 +3942,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B83" s="6">
         <v>9997.5</v>
@@ -3765,7 +3956,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B84" s="6">
         <v>5637.52</v>
@@ -3779,7 +3970,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B85" s="6">
         <v>1930.5</v>
@@ -3793,7 +3984,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B86" s="6">
         <v>2600</v>
@@ -3807,7 +3998,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87" s="6">
         <v>20</v>
@@ -3821,7 +4012,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88" s="6">
         <v>6415.51</v>
@@ -3835,7 +4026,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B89" s="6">
         <v>1897.5</v>
@@ -3849,7 +4040,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B90" s="6">
         <v>1543.75</v>
@@ -3863,7 +4054,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B91" s="6">
         <v>626.5</v>
@@ -3877,7 +4068,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B92" s="6">
         <v>1233.75</v>
@@ -3891,7 +4082,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B93" s="6">
         <v>442.5</v>
@@ -3905,7 +4096,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B94" s="6">
         <v>2490.5</v>
@@ -3919,7 +4110,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B95" s="6">
         <v>3348</v>
@@ -3933,7 +4124,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B96" s="6">
         <v>848.25</v>
@@ -3947,7 +4138,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B97" s="6">
         <v>360</v>
@@ -3961,7 +4152,7 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B98" s="6">
         <v>320</v>
@@ -3975,7 +4166,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B99" s="6">
         <v>3060</v>
@@ -3989,7 +4180,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B100" s="6">
         <v>3325</v>
@@ -4003,7 +4194,7 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B101" s="6">
         <v>350</v>
@@ -4017,7 +4208,7 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B102" s="6">
         <v>2821.5</v>
@@ -4031,7 +4222,7 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B103" s="6">
         <v>3034.5</v>
@@ -4045,7 +4236,7 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B104" s="6">
         <v>365</v>
@@ -4059,7 +4250,7 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B105" s="6">
         <v>4080</v>
@@ -4073,7 +4264,7 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B106" s="6">
         <v>600</v>
@@ -4087,7 +4278,7 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B107" s="6">
         <v>648.45</v>
@@ -4101,7 +4292,7 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B108" s="6">
         <v>15504</v>
@@ -4115,7 +4306,7 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B109" s="6">
         <v>5510</v>
@@ -4129,7 +4320,7 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B110" s="6">
         <v>3377</v>
@@ -4143,7 +4334,7 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B111" s="6">
         <v>1406</v>
@@ -4157,7 +4348,7 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B112" s="6">
         <v>507.5</v>
@@ -4171,7 +4362,7 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B113" s="6">
         <v>318</v>
@@ -4185,7 +4376,7 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B114" s="6">
         <v>453</v>
@@ -4199,7 +4390,7 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B115" s="6">
         <v>660</v>
@@ -4213,7 +4404,7 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B116" s="6">
         <v>333</v>
@@ -4227,7 +4418,7 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B117" s="6">
         <v>1014</v>
@@ -4241,7 +4432,7 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B118" s="6">
         <v>1316</v>
@@ -4255,7 +4446,7 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B119" s="6">
         <v>658</v>
@@ -4269,7 +4460,7 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B120" s="6">
         <v>3633.5</v>
@@ -4283,7 +4474,7 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B121" s="6">
         <v>265.5</v>
@@ -4297,7 +4488,7 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B122" s="6">
         <v>10085.26</v>
@@ -4311,7 +4502,7 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B123" s="6">
         <v>2788</v>
@@ -4325,7 +4516,7 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B124" s="6">
         <v>410</v>
@@ -4339,7 +4530,7 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B125" s="6">
         <v>1225</v>
@@ -4353,7 +4544,7 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B126" s="6">
         <v>1264.5</v>
@@ -4367,7 +4558,7 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B127" s="6">
         <v>7947.51</v>
@@ -4381,7 +4572,7 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B128" s="6">
         <v>1334.75</v>
@@ -4395,7 +4586,7 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B129" s="6">
         <v>6884.13</v>
@@ -4409,7 +4600,7 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B130" s="6">
         <v>3969.13</v>
@@ -4423,7 +4614,7 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B131" s="6">
         <v>1444</v>
@@ -4437,7 +4628,7 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B132" s="6">
         <v>688</v>
@@ -4451,7 +4642,7 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B133" s="6">
         <v>907.5</v>
@@ -4465,7 +4656,7 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B134" s="6">
         <v>5510</v>
@@ -4479,7 +4670,7 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B135" s="6">
         <v>4981</v>
@@ -4493,7 +4684,7 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B136" s="6">
         <v>5379.38</v>
@@ -4507,7 +4698,7 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B137" s="6">
         <v>1001</v>
@@ -4521,7 +4712,7 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B138" s="6">
         <v>4812.52</v>
@@ -4535,7 +4726,7 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B139" s="6">
         <v>1287.25</v>
@@ -4549,7 +4740,7 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B140" s="6">
         <v>5946.89</v>
@@ -4563,7 +4754,7 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B141" s="6">
         <v>2431</v>
@@ -4577,7 +4768,7 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B142" s="6">
         <v>2608.5</v>
@@ -4591,7 +4782,7 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B143" s="6">
         <v>1480.5</v>
@@ -4605,7 +4796,7 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B144" s="6">
         <v>2439</v>
@@ -4619,7 +4810,7 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B145" s="6">
         <v>1642.5</v>
@@ -4633,7 +4824,7 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B146" s="6">
         <v>7172</v>
@@ -4647,7 +4838,7 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B147" s="6">
         <v>4590.63</v>
@@ -4661,7 +4852,7 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B148" s="6">
         <v>499.5</v>
@@ -4675,7 +4866,7 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B149" s="6">
         <v>3889.26</v>
@@ -4689,7 +4880,7 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B150" s="6">
         <v>783</v>
@@ -4703,7 +4894,7 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B151" s="6">
         <v>1412</v>
@@ -4717,7 +4908,7 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B152" s="6">
         <v>3278</v>
@@ -4731,7 +4922,7 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B153" s="6">
         <v>110</v>
@@ -4745,7 +4936,7 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B154" s="6">
         <v>385</v>
@@ -4759,7 +4950,7 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B155" s="6">
         <v>5310.52</v>
@@ -4773,7 +4964,7 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B156" s="6">
         <v>240</v>
@@ -4787,7 +4978,7 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B157" s="6">
         <v>535.5</v>
@@ -4801,7 +4992,7 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B158" s="6">
         <v>1539</v>
@@ -4815,7 +5006,7 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B159" s="6">
         <v>1787.5</v>
@@ -4829,7 +5020,7 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B160" s="6">
         <v>10601.51</v>
@@ -4843,7 +5034,7 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B161" s="6">
         <v>5130</v>
@@ -4857,7 +5048,7 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B162" s="6">
         <v>185</v>
@@ -4871,7 +5062,7 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B163" s="6">
         <v>3325</v>
@@ -4885,7 +5076,7 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B164" s="6">
         <v>5362.5</v>
@@ -4899,7 +5090,7 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B165" s="6">
         <v>5244</v>
@@ -4913,7 +5104,7 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B166" s="6">
         <v>2844</v>
@@ -4927,7 +5118,7 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B167" s="6">
         <v>5310.38</v>
@@ -4941,7 +5132,7 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B168" s="6">
         <v>1394.25</v>
@@ -4955,7 +5146,7 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B169" s="6">
         <v>5309.25</v>
@@ -4969,7 +5160,7 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B170" s="6">
         <v>1120</v>
@@ -4983,7 +5174,7 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B171" s="6">
         <v>2301</v>
@@ -4997,7 +5188,7 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B172" s="6">
         <v>1593</v>
@@ -5011,7 +5202,7 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B173" s="6">
         <v>885</v>
@@ -5025,7 +5216,7 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B174" s="6">
         <v>13022</v>
@@ -5039,7 +5230,7 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B175" s="6">
         <v>9369.39</v>
@@ -5053,7 +5244,7 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B176" s="6">
         <v>7012.5</v>
@@ -5067,7 +5258,7 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B177" s="6">
         <v>5293.77</v>
@@ -5081,7 +5272,7 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B178" s="6">
         <v>3387.5</v>
@@ -5095,7 +5286,7 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B179" s="6">
         <v>3184.25</v>
@@ -5109,7 +5300,7 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B180" s="6">
         <v>5843.75</v>
@@ -5123,7 +5314,7 @@
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B181" s="6">
         <v>7493.76</v>
@@ -5137,7 +5328,7 @@
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B182" s="6">
         <v>4878</v>
@@ -5151,7 +5342,7 @@
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B183" s="6">
         <v>1829.26</v>
@@ -5165,7 +5356,7 @@
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B184" s="6">
         <v>5024.26</v>
@@ -5179,7 +5370,7 @@
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B185" s="6">
         <v>4505.88</v>
@@ -5193,7 +5384,7 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B186" s="6">
         <v>510</v>
@@ -5207,7 +5398,7 @@
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B187" s="6">
         <v>736</v>
@@ -5221,7 +5412,7 @@
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B188" s="6">
         <v>2520</v>
@@ -5235,7 +5426,7 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B189" s="6">
         <v>8825.01</v>
@@ -5249,7 +5440,7 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B190" s="6">
         <v>3177</v>
@@ -5263,7 +5454,7 @@
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B191" s="6">
         <v>427.5</v>
@@ -5277,7 +5468,7 @@
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B192" s="6">
         <v>3429.5</v>
@@ -5291,7 +5482,7 @@
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B193" s="6">
         <v>7338.75</v>
@@ -5305,7 +5496,7 @@
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B194" s="6">
         <v>1629.25</v>
@@ -5319,7 +5510,7 @@
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B195" s="6">
         <v>5148</v>
@@ -5333,7 +5524,7 @@
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B196" s="6">
         <v>202.5</v>
@@ -5347,7 +5538,7 @@
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B197" s="6">
         <v>7475.02</v>
@@ -5361,7 +5552,7 @@
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B198" s="6">
         <v>972</v>
@@ -5375,7 +5566,7 @@
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B199" s="6">
         <v>11680</v>
@@ -5389,7 +5580,7 @@
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B200" s="6">
         <v>2992</v>
@@ -5403,7 +5594,7 @@
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B201" s="6">
         <v>8370.63</v>
@@ -5417,7 +5608,7 @@
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B202" s="6">
         <v>1567.5</v>
@@ -5431,7 +5622,7 @@
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B203" s="6">
         <v>1106</v>
@@ -5445,7 +5636,7 @@
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B204" s="6">
         <v>2472</v>
@@ -5459,7 +5650,7 @@
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B205" s="6">
         <v>2450.5</v>
@@ -5473,7 +5664,7 @@
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B206" s="6">
         <v>1560</v>
@@ -5487,7 +5678,7 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B207" s="6">
         <v>490.5</v>
@@ -5501,7 +5692,7 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B208" s="6">
         <v>16159</v>
@@ -5515,7 +5706,7 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B209" s="6">
         <v>4119.63</v>
@@ -5529,7 +5720,7 @@
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B210" s="6">
         <v>17004</v>
@@ -5543,7 +5734,7 @@
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B211" s="6">
         <v>4230</v>
@@ -5557,7 +5748,7 @@
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B212" s="6">
         <v>2860</v>
@@ -5571,7 +5762,7 @@
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B213" s="6">
         <v>5740.63</v>
@@ -5585,7 +5776,7 @@
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B214" s="6">
         <v>1548.5</v>
@@ -5599,7 +5790,7 @@
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B215" s="6">
         <v>652</v>
@@ -5613,7 +5804,7 @@
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B216" s="6">
         <v>9685</v>
@@ -5627,7 +5818,7 @@
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B217" s="6">
         <v>1608.75</v>
@@ -5641,7 +5832,7 @@
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B218" s="6">
         <v>990</v>
@@ -5655,7 +5846,7 @@
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B219" s="6">
         <v>328</v>
@@ -5669,7 +5860,7 @@
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B220" s="6">
         <v>504</v>
@@ -5683,7 +5874,7 @@
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B221" s="6">
         <v>960</v>
@@ -5697,7 +5888,7 @@
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B222" s="6">
         <v>5492.38</v>
@@ -5711,7 +5902,7 @@
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B223" s="6">
         <v>7567</v>
@@ -5725,7 +5916,7 @@
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B224" s="6">
         <v>1684.38</v>
@@ -5739,7 +5930,7 @@
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B225" s="6">
         <v>1358.5</v>
@@ -5753,7 +5944,7 @@
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B226" s="6">
         <v>15768</v>
@@ -5767,7 +5958,7 @@
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B227" s="6">
         <v>2231.25</v>
@@ -5781,7 +5972,7 @@
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B228" s="6">
         <v>370</v>
@@ -5795,7 +5986,7 @@
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B229" s="6">
         <v>1008</v>
@@ -5809,7 +6000,7 @@
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B230" s="6">
         <v>11304</v>
@@ -5823,7 +6014,7 @@
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B231" s="6">
         <v>3116</v>
@@ -5837,7 +6028,7 @@
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B232" s="6">
         <v>2335.5</v>
@@ -5851,7 +6042,7 @@
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B233" s="6">
         <v>2756.25</v>
@@ -5865,7 +6056,7 @@
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B234" s="6">
         <v>1197</v>
@@ -5879,7 +6070,7 @@
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B235" s="6">
         <v>3146</v>
@@ -5893,7 +6084,7 @@
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B236" s="6">
         <v>7053.75</v>
@@ -5907,7 +6098,7 @@
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B237" s="6">
         <v>510</v>
@@ -5921,7 +6112,7 @@
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B238" s="6">
         <v>716</v>
@@ -5935,7 +6126,7 @@
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B239" s="6">
         <v>4047</v>
@@ -5949,7 +6140,7 @@
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B240" s="6">
         <v>10792</v>
@@ -5963,7 +6154,7 @@
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B241" s="6">
         <v>340</v>
@@ -5977,7 +6168,7 @@
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B242" s="6">
         <v>680</v>
@@ -5991,7 +6182,7 @@
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B243" s="6">
         <v>2649</v>
@@ -6005,7 +6196,7 @@
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B244" s="6">
         <v>1656</v>
@@ -6019,7 +6210,7 @@
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B245" s="6">
         <v>1007.5</v>
@@ -6033,7 +6224,7 @@
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B246" s="6">
         <v>1306.25</v>
@@ -6047,7 +6238,7 @@
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B247" s="6">
         <v>2909.5</v>
@@ -6061,7 +6252,7 @@
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B248" s="6">
         <v>4778.13</v>
@@ -6075,7 +6266,7 @@
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B249" s="6">
         <v>2193.13</v>
@@ -6089,7 +6280,7 @@
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B250" s="6">
         <v>351</v>
@@ -6103,7 +6294,7 @@
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B251" s="6">
         <v>1620</v>
@@ -6117,7 +6308,7 @@
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B252" s="6">
         <v>6707</v>
@@ -6131,7 +6322,7 @@
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B253" s="6">
         <v>360</v>
@@ -6145,7 +6336,7 @@
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B254" s="6">
         <v>240</v>
@@ -6159,7 +6350,7 @@
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B255" s="6">
         <v>3267.01</v>
@@ -6173,7 +6364,7 @@
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B256" s="6">
         <v>4617</v>
@@ -6187,7 +6378,7 @@
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B257" s="6">
         <v>716</v>
@@ -6201,7 +6392,7 @@
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B258" s="6">
         <v>3078</v>
@@ -6215,7 +6406,7 @@
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B259" s="6">
         <v>1472</v>
@@ -6229,7 +6420,7 @@
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B260" s="6">
         <v>389.25</v>
@@ -6243,7 +6434,7 @@
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B261" s="6">
         <v>4635</v>
@@ -6257,7 +6448,7 @@
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B262" s="6">
         <v>4864</v>
@@ -6271,7 +6462,7 @@
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B263" s="6">
         <v>1444</v>
@@ -6285,7 +6476,7 @@
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B264" s="6">
         <v>708</v>
@@ -6299,7 +6490,7 @@
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B265" s="6">
         <v>2064</v>
@@ -6313,7 +6504,7 @@
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B266" s="6">
         <v>368</v>
@@ -6327,7 +6518,7 @@
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B267" s="6">
         <v>187.5</v>
@@ -6341,7 +6532,7 @@
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B268" s="6">
         <v>12780</v>
@@ -6355,7 +6546,7 @@
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B269" s="6">
         <v>3262</v>
@@ -6369,7 +6560,7 @@
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B270" s="6">
         <v>1440</v>
@@ -6383,7 +6574,7 @@
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B271" s="6">
         <v>5505.25</v>
@@ -6397,7 +6588,7 @@
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B272" s="6">
         <v>756</v>
@@ -6411,7 +6602,7 @@
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B273" s="6">
         <v>181.5</v>
@@ -6425,7 +6616,7 @@
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B274" s="6">
         <v>514.5</v>
@@ -6439,7 +6630,7 @@
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B275" s="6">
         <v>3078</v>
@@ -6453,7 +6644,7 @@
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B276" s="6">
         <v>178.5</v>
@@ -6467,7 +6658,7 @@
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B277" s="6">
         <v>306</v>
@@ -6481,7 +6672,7 @@
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B278" s="6">
         <v>1377.5</v>
@@ -6495,7 +6686,7 @@
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B279" s="6">
         <v>428.75</v>
@@ -6509,7 +6700,7 @@
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B280" s="6">
         <v>1020</v>
@@ -6523,7 +6714,7 @@
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B281" s="6">
         <v>1440</v>
@@ -6537,7 +6728,7 @@
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B282" s="6">
         <v>1593</v>
@@ -6551,7 +6742,7 @@
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B283" s="6">
         <v>1714.75</v>
@@ -6565,7 +6756,7 @@
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B284" s="6">
         <v>1358.5</v>
@@ -6579,7 +6770,7 @@
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B285" s="6">
         <v>606.13</v>
@@ -6593,7 +6784,7 @@
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B286" s="6">
         <v>852.5</v>
@@ -6607,7 +6798,7 @@
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B287" s="6">
         <v>11232</v>
@@ -6621,7 +6812,7 @@
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B288" s="6">
         <v>825</v>
@@ -6635,7 +6826,7 @@
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B289" s="6">
         <v>4716.25</v>
@@ -6649,7 +6840,7 @@
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B290" s="6">
         <v>2698</v>
@@ -6663,7 +6854,7 @@
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B291" s="6">
         <v>3755.5</v>
@@ -6677,7 +6868,7 @@
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B292" s="6">
         <v>7317</v>
@@ -6691,7 +6882,7 @@
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B293" s="6">
         <v>1980</v>
@@ -6705,7 +6896,7 @@
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B294" s="6">
         <v>4873.5</v>
@@ -6719,7 +6910,7 @@
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B295" s="6">
         <v>1790</v>
@@ -6733,7 +6924,7 @@
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B296" s="6">
         <v>1134</v>
@@ -6747,7 +6938,7 @@
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B297" s="6">
         <v>1358.5</v>
@@ -6761,7 +6952,7 @@
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B298" s="6">
         <v>7678.13</v>
@@ -6775,7 +6966,7 @@
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B299" s="6">
         <v>1335</v>
@@ -6789,7 +6980,7 @@
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B300" s="6">
         <v>660</v>
@@ -6803,7 +6994,7 @@
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B301" s="6">
         <v>328</v>
@@ -6817,7 +7008,7 @@
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B302" s="6">
         <v>6581.25</v>
@@ -6831,7 +7022,7 @@
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B303" s="6">
         <v>6320</v>
@@ -6845,7 +7036,7 @@
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B304" s="6">
         <v>574</v>
@@ -6859,7 +7050,7 @@
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B305" s="6">
         <v>1200</v>
@@ -6873,7 +7064,7 @@
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B306" s="6">
         <v>5492.38</v>
@@ -6887,7 +7078,7 @@
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B307" s="6">
         <v>3826.63</v>
@@ -6901,7 +7092,7 @@
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B308" s="6">
         <v>5415</v>
@@ -6915,7 +7106,7 @@
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B309" s="6">
         <v>3003</v>
@@ -6929,7 +7120,7 @@
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B310" s="6">
         <v>4800</v>
@@ -6943,7 +7134,7 @@
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B311" s="6">
         <v>2831</v>
@@ -6957,7 +7148,7 @@
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B312" s="6">
         <v>6006</v>
@@ -6971,7 +7162,7 @@
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B313" s="6">
         <v>1505.16</v>
@@ -6985,7 +7176,7 @@
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B314" s="6">
         <v>99</v>
@@ -6999,7 +7190,7 @@
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B315" s="6">
         <v>3543.5</v>
@@ -7013,7 +7204,7 @@
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B316" s="6">
         <v>1452</v>
@@ -7027,7 +7218,7 @@
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B317" s="6">
         <v>358</v>
@@ -7041,7 +7232,7 @@
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B318" s="6">
         <v>4332</v>
@@ -7055,7 +7246,7 @@
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B319" s="6">
         <v>1695.75</v>
@@ -7069,7 +7260,7 @@
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B320" s="6">
         <v>6906.25</v>
@@ -7083,7 +7274,7 @@
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B321" s="6">
         <v>552</v>
@@ -7097,7 +7288,7 @@
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B322" s="6">
         <v>5130</v>
@@ -7111,7 +7302,7 @@
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B323" s="6">
         <v>4323</v>
@@ -7125,7 +7316,7 @@
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B324" s="6">
         <v>182</v>
@@ -7139,7 +7330,7 @@
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B325" s="6">
         <v>1835</v>
@@ -7153,7 +7344,7 @@
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B326" s="6">
         <v>775</v>
@@ -7167,7 +7358,7 @@
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B327" s="6">
         <v>343</v>
@@ -7181,7 +7372,7 @@
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B328" s="6">
         <v>2087.5</v>
@@ -7195,7 +7386,7 @@
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B329" s="6">
         <v>17242.5</v>
@@ -7209,7 +7400,7 @@
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B330" s="6">
         <v>7128</v>
@@ -7223,7 +7414,7 @@
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B331" s="6">
         <v>6127.5</v>
@@ -7237,7 +7428,7 @@
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B332" s="6">
         <v>1620</v>
@@ -7251,7 +7442,7 @@
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B333" s="6">
         <v>10656.26</v>
@@ -7265,7 +7456,7 @@
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B334" s="6">
         <v>27702</v>
@@ -7279,7 +7470,7 @@
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B335" s="6">
         <v>2112.5</v>
@@ -7293,7 +7484,7 @@
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B336" s="6">
         <v>37100</v>
@@ -7307,7 +7498,7 @@
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B337" s="6">
         <v>8381.25</v>
@@ -7321,7 +7512,7 @@
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B338" s="6">
         <v>3259.63</v>
@@ -7335,7 +7526,7 @@
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B339" s="6">
         <v>14085.5</v>
@@ -7349,7 +7540,7 @@
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B340" s="6">
         <v>4189.5</v>
@@ -7363,7 +7554,7 @@
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B341" s="6">
         <v>4171.5</v>
@@ -7377,7 +7568,7 @@
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B342" s="6">
         <v>50</v>
@@ -7391,7 +7582,7 @@
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B343" s="6">
         <v>316.5</v>
@@ -7405,7 +7596,7 @@
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B344" s="6">
         <v>484.5</v>

--- a/Projects/tbh-report-catalog/reports/202501 DispatchBilling Verification Pack.xlsx
+++ b/Projects/tbh-report-catalog/reports/202501 DispatchBilling Verification Pack.xlsx
@@ -29,7 +29,7 @@
     <t>Generated</t>
   </si>
   <si>
-    <t>2026-02-17 10:55</t>
+    <t>2026-02-17 12:40</t>
   </si>
   <si>
     <t>Notes</t>

--- a/Projects/tbh-report-catalog/reports/202501 DispatchBilling Verification Pack.xlsx
+++ b/Projects/tbh-report-catalog/reports/202501 DispatchBilling Verification Pack.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="755">
   <si>
     <t>TBH Dispatch / Billing Verification Pack</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Generated</t>
   </si>
   <si>
-    <t>2026-02-17 12:40</t>
+    <t>2026-02-17 16:33</t>
   </si>
   <si>
     <t>Notes</t>
@@ -1067,30 +1067,108 @@
     <t>1482941</t>
   </si>
   <si>
+    <t>1482942</t>
+  </si>
+  <si>
+    <t>1482943</t>
+  </si>
+  <si>
     <t>1482944</t>
   </si>
   <si>
+    <t>1482945</t>
+  </si>
+  <si>
     <t>1482946</t>
   </si>
   <si>
     <t>1482947</t>
   </si>
   <si>
+    <t>1482948</t>
+  </si>
+  <si>
     <t>1482949</t>
   </si>
   <si>
+    <t>1482950</t>
+  </si>
+  <si>
+    <t>1482951</t>
+  </si>
+  <si>
+    <t>1482952</t>
+  </si>
+  <si>
+    <t>1482953</t>
+  </si>
+  <si>
+    <t>1482954</t>
+  </si>
+  <si>
     <t>1482955</t>
   </si>
   <si>
+    <t>1482956</t>
+  </si>
+  <si>
+    <t>1482957</t>
+  </si>
+  <si>
     <t>1482958</t>
   </si>
   <si>
+    <t>1482959</t>
+  </si>
+  <si>
     <t>1482960</t>
   </si>
   <si>
+    <t>1482961</t>
+  </si>
+  <si>
+    <t>1482962</t>
+  </si>
+  <si>
+    <t>1482963</t>
+  </si>
+  <si>
+    <t>1482964</t>
+  </si>
+  <si>
+    <t>1482965</t>
+  </si>
+  <si>
+    <t>1482966</t>
+  </si>
+  <si>
+    <t>1482967</t>
+  </si>
+  <si>
+    <t>1482968</t>
+  </si>
+  <si>
+    <t>1482969</t>
+  </si>
+  <si>
+    <t>1482970</t>
+  </si>
+  <si>
+    <t>1482971</t>
+  </si>
+  <si>
+    <t>1482972</t>
+  </si>
+  <si>
+    <t>1482973</t>
+  </si>
+  <si>
     <t>1482974</t>
   </si>
   <si>
+    <t>1482975</t>
+  </si>
+  <si>
     <t>1482976</t>
   </si>
   <si>
@@ -1106,6 +1184,9 @@
     <t>1482980</t>
   </si>
   <si>
+    <t>1482981</t>
+  </si>
+  <si>
     <t>1482982</t>
   </si>
   <si>
@@ -1118,43 +1199,1087 @@
     <t>1482985</t>
   </si>
   <si>
+    <t>1482986</t>
+  </si>
+  <si>
+    <t>1482987</t>
+  </si>
+  <si>
     <t>1482988</t>
   </si>
   <si>
     <t>1482989</t>
   </si>
   <si>
+    <t>1482990</t>
+  </si>
+  <si>
     <t>1482991</t>
   </si>
   <si>
     <t>1482992</t>
   </si>
   <si>
+    <t>1482993</t>
+  </si>
+  <si>
+    <t>1482994</t>
+  </si>
+  <si>
+    <t>1482995</t>
+  </si>
+  <si>
+    <t>1482996</t>
+  </si>
+  <si>
+    <t>1482997</t>
+  </si>
+  <si>
+    <t>1482998</t>
+  </si>
+  <si>
     <t>1482999</t>
   </si>
   <si>
     <t>1483000</t>
   </si>
   <si>
+    <t>1483001</t>
+  </si>
+  <si>
+    <t>1483002</t>
+  </si>
+  <si>
+    <t>1483003</t>
+  </si>
+  <si>
+    <t>1483004</t>
+  </si>
+  <si>
+    <t>1483005</t>
+  </si>
+  <si>
+    <t>1483006</t>
+  </si>
+  <si>
     <t>1483007</t>
   </si>
   <si>
     <t>1483008</t>
   </si>
   <si>
+    <t>1483009</t>
+  </si>
+  <si>
+    <t>1483010</t>
+  </si>
+  <si>
+    <t>1483011</t>
+  </si>
+  <si>
+    <t>1483012</t>
+  </si>
+  <si>
+    <t>1483013</t>
+  </si>
+  <si>
     <t>1483014</t>
   </si>
   <si>
+    <t>1483015</t>
+  </si>
+  <si>
+    <t>1483016</t>
+  </si>
+  <si>
+    <t>1483017</t>
+  </si>
+  <si>
+    <t>1483018</t>
+  </si>
+  <si>
+    <t>1483019</t>
+  </si>
+  <si>
     <t>1483020</t>
   </si>
   <si>
+    <t>1483021</t>
+  </si>
+  <si>
+    <t>1483022</t>
+  </si>
+  <si>
+    <t>1483023</t>
+  </si>
+  <si>
+    <t>1483024</t>
+  </si>
+  <si>
+    <t>1483025</t>
+  </si>
+  <si>
+    <t>1483026</t>
+  </si>
+  <si>
+    <t>1483027</t>
+  </si>
+  <si>
+    <t>1483028</t>
+  </si>
+  <si>
+    <t>1483029</t>
+  </si>
+  <si>
+    <t>1483030</t>
+  </si>
+  <si>
+    <t>1483031</t>
+  </si>
+  <si>
+    <t>1483032</t>
+  </si>
+  <si>
+    <t>1483033</t>
+  </si>
+  <si>
+    <t>1483034</t>
+  </si>
+  <si>
+    <t>1483035</t>
+  </si>
+  <si>
+    <t>1483036</t>
+  </si>
+  <si>
+    <t>1483037</t>
+  </si>
+  <si>
     <t>1483038</t>
   </si>
   <si>
+    <t>1483039</t>
+  </si>
+  <si>
+    <t>1483040</t>
+  </si>
+  <si>
+    <t>1483041</t>
+  </si>
+  <si>
+    <t>1483042</t>
+  </si>
+  <si>
+    <t>1483043</t>
+  </si>
+  <si>
+    <t>1483044</t>
+  </si>
+  <si>
+    <t>1483045</t>
+  </si>
+  <si>
+    <t>1483046</t>
+  </si>
+  <si>
+    <t>1483047</t>
+  </si>
+  <si>
+    <t>1483048</t>
+  </si>
+  <si>
+    <t>1483049</t>
+  </si>
+  <si>
+    <t>1483050</t>
+  </si>
+  <si>
+    <t>1483051</t>
+  </si>
+  <si>
+    <t>1483052</t>
+  </si>
+  <si>
+    <t>1483053</t>
+  </si>
+  <si>
+    <t>1483054</t>
+  </si>
+  <si>
+    <t>1483055</t>
+  </si>
+  <si>
+    <t>1483056</t>
+  </si>
+  <si>
+    <t>1483057</t>
+  </si>
+  <si>
+    <t>1483058</t>
+  </si>
+  <si>
+    <t>1483059</t>
+  </si>
+  <si>
+    <t>1483060</t>
+  </si>
+  <si>
+    <t>1483061</t>
+  </si>
+  <si>
+    <t>1483062</t>
+  </si>
+  <si>
+    <t>1483063</t>
+  </si>
+  <si>
+    <t>1483064</t>
+  </si>
+  <si>
+    <t>1483065</t>
+  </si>
+  <si>
+    <t>1483066</t>
+  </si>
+  <si>
+    <t>1483067</t>
+  </si>
+  <si>
+    <t>1483068</t>
+  </si>
+  <si>
+    <t>1483069</t>
+  </si>
+  <si>
+    <t>1483070</t>
+  </si>
+  <si>
+    <t>1483071</t>
+  </si>
+  <si>
+    <t>1483072</t>
+  </si>
+  <si>
+    <t>1483073</t>
+  </si>
+  <si>
+    <t>1483074</t>
+  </si>
+  <si>
+    <t>1483075</t>
+  </si>
+  <si>
+    <t>1483076</t>
+  </si>
+  <si>
+    <t>1483077</t>
+  </si>
+  <si>
+    <t>1483078</t>
+  </si>
+  <si>
+    <t>1483079</t>
+  </si>
+  <si>
+    <t>1483080</t>
+  </si>
+  <si>
+    <t>1483081</t>
+  </si>
+  <si>
+    <t>1483082</t>
+  </si>
+  <si>
+    <t>1483083</t>
+  </si>
+  <si>
+    <t>1483084</t>
+  </si>
+  <si>
+    <t>1483085</t>
+  </si>
+  <si>
+    <t>1483086</t>
+  </si>
+  <si>
+    <t>1483087</t>
+  </si>
+  <si>
+    <t>1483088</t>
+  </si>
+  <si>
+    <t>1483089</t>
+  </si>
+  <si>
+    <t>1483090</t>
+  </si>
+  <si>
+    <t>1483091</t>
+  </si>
+  <si>
+    <t>1483092</t>
+  </si>
+  <si>
+    <t>1483093</t>
+  </si>
+  <si>
+    <t>1483094</t>
+  </si>
+  <si>
+    <t>1483095</t>
+  </si>
+  <si>
+    <t>1483096</t>
+  </si>
+  <si>
+    <t>1483097</t>
+  </si>
+  <si>
+    <t>1483098</t>
+  </si>
+  <si>
+    <t>1483099</t>
+  </si>
+  <si>
+    <t>1483100</t>
+  </si>
+  <si>
+    <t>1483101</t>
+  </si>
+  <si>
+    <t>1483102</t>
+  </si>
+  <si>
+    <t>1483103</t>
+  </si>
+  <si>
+    <t>1483104</t>
+  </si>
+  <si>
+    <t>1483105</t>
+  </si>
+  <si>
+    <t>1483106</t>
+  </si>
+  <si>
+    <t>1483107</t>
+  </si>
+  <si>
+    <t>1483108</t>
+  </si>
+  <si>
+    <t>1483109</t>
+  </si>
+  <si>
+    <t>1483110</t>
+  </si>
+  <si>
+    <t>1483111</t>
+  </si>
+  <si>
+    <t>1483112</t>
+  </si>
+  <si>
+    <t>1483113</t>
+  </si>
+  <si>
+    <t>1483114</t>
+  </si>
+  <si>
+    <t>1483115</t>
+  </si>
+  <si>
+    <t>1483116</t>
+  </si>
+  <si>
+    <t>1483117</t>
+  </si>
+  <si>
+    <t>1483118</t>
+  </si>
+  <si>
+    <t>1483119</t>
+  </si>
+  <si>
+    <t>1483120</t>
+  </si>
+  <si>
+    <t>1483121</t>
+  </si>
+  <si>
+    <t>1483122</t>
+  </si>
+  <si>
+    <t>1483123</t>
+  </si>
+  <si>
+    <t>1483124</t>
+  </si>
+  <si>
+    <t>1483125</t>
+  </si>
+  <si>
+    <t>1483126</t>
+  </si>
+  <si>
+    <t>1483127</t>
+  </si>
+  <si>
+    <t>1483128</t>
+  </si>
+  <si>
+    <t>1483129</t>
+  </si>
+  <si>
+    <t>1483130</t>
+  </si>
+  <si>
+    <t>1483131</t>
+  </si>
+  <si>
+    <t>1483132</t>
+  </si>
+  <si>
+    <t>1483133</t>
+  </si>
+  <si>
+    <t>1483134</t>
+  </si>
+  <si>
+    <t>1483135</t>
+  </si>
+  <si>
+    <t>1483136</t>
+  </si>
+  <si>
+    <t>1483137</t>
+  </si>
+  <si>
+    <t>1483138</t>
+  </si>
+  <si>
+    <t>1483139</t>
+  </si>
+  <si>
+    <t>1483140</t>
+  </si>
+  <si>
+    <t>1483141</t>
+  </si>
+  <si>
+    <t>1483142</t>
+  </si>
+  <si>
+    <t>1483143</t>
+  </si>
+  <si>
+    <t>1483144</t>
+  </si>
+  <si>
+    <t>1483145</t>
+  </si>
+  <si>
+    <t>1483146</t>
+  </si>
+  <si>
+    <t>1483147</t>
+  </si>
+  <si>
+    <t>1483148</t>
+  </si>
+  <si>
+    <t>1483149</t>
+  </si>
+  <si>
+    <t>1483150</t>
+  </si>
+  <si>
+    <t>1483151</t>
+  </si>
+  <si>
+    <t>1483152</t>
+  </si>
+  <si>
+    <t>1483153</t>
+  </si>
+  <si>
+    <t>1483154</t>
+  </si>
+  <si>
+    <t>1483155</t>
+  </si>
+  <si>
+    <t>1483156</t>
+  </si>
+  <si>
+    <t>1483157</t>
+  </si>
+  <si>
+    <t>1483158</t>
+  </si>
+  <si>
+    <t>1483159</t>
+  </si>
+  <si>
+    <t>1483160</t>
+  </si>
+  <si>
+    <t>1483161</t>
+  </si>
+  <si>
+    <t>1483162</t>
+  </si>
+  <si>
+    <t>1483163</t>
+  </si>
+  <si>
+    <t>1483164</t>
+  </si>
+  <si>
+    <t>1483165</t>
+  </si>
+  <si>
+    <t>1483166</t>
+  </si>
+  <si>
+    <t>1483167</t>
+  </si>
+  <si>
+    <t>1483168</t>
+  </si>
+  <si>
+    <t>1483169</t>
+  </si>
+  <si>
+    <t>1483170</t>
+  </si>
+  <si>
+    <t>1483171</t>
+  </si>
+  <si>
+    <t>1483172</t>
+  </si>
+  <si>
+    <t>1483173</t>
+  </si>
+  <si>
+    <t>1483174</t>
+  </si>
+  <si>
+    <t>1483175</t>
+  </si>
+  <si>
+    <t>1483176</t>
+  </si>
+  <si>
+    <t>1483177</t>
+  </si>
+  <si>
+    <t>1483178</t>
+  </si>
+  <si>
+    <t>1483179</t>
+  </si>
+  <si>
+    <t>1483180</t>
+  </si>
+  <si>
+    <t>1483181</t>
+  </si>
+  <si>
+    <t>1483182</t>
+  </si>
+  <si>
+    <t>1483183</t>
+  </si>
+  <si>
+    <t>1483184</t>
+  </si>
+  <si>
+    <t>1483185</t>
+  </si>
+  <si>
+    <t>1483186</t>
+  </si>
+  <si>
+    <t>1483187</t>
+  </si>
+  <si>
+    <t>1483188</t>
+  </si>
+  <si>
+    <t>1483189</t>
+  </si>
+  <si>
+    <t>1483190</t>
+  </si>
+  <si>
+    <t>1483191</t>
+  </si>
+  <si>
+    <t>1483192</t>
+  </si>
+  <si>
+    <t>1483193</t>
+  </si>
+  <si>
+    <t>1483194</t>
+  </si>
+  <si>
+    <t>1483195</t>
+  </si>
+  <si>
+    <t>1483196</t>
+  </si>
+  <si>
+    <t>1483197</t>
+  </si>
+  <si>
+    <t>1483198</t>
+  </si>
+  <si>
+    <t>1483199</t>
+  </si>
+  <si>
+    <t>1483200</t>
+  </si>
+  <si>
+    <t>1483201</t>
+  </si>
+  <si>
+    <t>1483202</t>
+  </si>
+  <si>
+    <t>1483203</t>
+  </si>
+  <si>
+    <t>1483204</t>
+  </si>
+  <si>
+    <t>1483205</t>
+  </si>
+  <si>
+    <t>1483206</t>
+  </si>
+  <si>
+    <t>1483207</t>
+  </si>
+  <si>
+    <t>1483208</t>
+  </si>
+  <si>
+    <t>1483209</t>
+  </si>
+  <si>
+    <t>1483210</t>
+  </si>
+  <si>
+    <t>1483211</t>
+  </si>
+  <si>
+    <t>1483212</t>
+  </si>
+  <si>
+    <t>1483213</t>
+  </si>
+  <si>
+    <t>1483214</t>
+  </si>
+  <si>
+    <t>1483215</t>
+  </si>
+  <si>
+    <t>1483216</t>
+  </si>
+  <si>
+    <t>1483217</t>
+  </si>
+  <si>
+    <t>1483218</t>
+  </si>
+  <si>
+    <t>1483219</t>
+  </si>
+  <si>
+    <t>1483220</t>
+  </si>
+  <si>
+    <t>1483221</t>
+  </si>
+  <si>
+    <t>1483222</t>
+  </si>
+  <si>
+    <t>1483223</t>
+  </si>
+  <si>
+    <t>1483224</t>
+  </si>
+  <si>
+    <t>1483225</t>
+  </si>
+  <si>
+    <t>1483226</t>
+  </si>
+  <si>
+    <t>1483227</t>
+  </si>
+  <si>
+    <t>1483228</t>
+  </si>
+  <si>
+    <t>1483229</t>
+  </si>
+  <si>
+    <t>1483230</t>
+  </si>
+  <si>
+    <t>1483231</t>
+  </si>
+  <si>
+    <t>1483232</t>
+  </si>
+  <si>
+    <t>1483233</t>
+  </si>
+  <si>
+    <t>1483234</t>
+  </si>
+  <si>
+    <t>1483235</t>
+  </si>
+  <si>
+    <t>1483236</t>
+  </si>
+  <si>
+    <t>1483237</t>
+  </si>
+  <si>
+    <t>1483238</t>
+  </si>
+  <si>
+    <t>1483239</t>
+  </si>
+  <si>
+    <t>1483240</t>
+  </si>
+  <si>
+    <t>1483241</t>
+  </si>
+  <si>
+    <t>1483242</t>
+  </si>
+  <si>
+    <t>1483243</t>
+  </si>
+  <si>
+    <t>1483244</t>
+  </si>
+  <si>
+    <t>1483245</t>
+  </si>
+  <si>
+    <t>1483246</t>
+  </si>
+  <si>
+    <t>1483247</t>
+  </si>
+  <si>
+    <t>1483248</t>
+  </si>
+  <si>
+    <t>1483249</t>
+  </si>
+  <si>
+    <t>1483250</t>
+  </si>
+  <si>
+    <t>1483251</t>
+  </si>
+  <si>
+    <t>1483252</t>
+  </si>
+  <si>
+    <t>1483253</t>
+  </si>
+  <si>
+    <t>1483254</t>
+  </si>
+  <si>
+    <t>1483255</t>
+  </si>
+  <si>
+    <t>1483256</t>
+  </si>
+  <si>
+    <t>1483257</t>
+  </si>
+  <si>
+    <t>1483258</t>
+  </si>
+  <si>
+    <t>1483259</t>
+  </si>
+  <si>
+    <t>1483260</t>
+  </si>
+  <si>
+    <t>1483261</t>
+  </si>
+  <si>
+    <t>1483262</t>
+  </si>
+  <si>
+    <t>1483263</t>
+  </si>
+  <si>
+    <t>1483264</t>
+  </si>
+  <si>
+    <t>1483265</t>
+  </si>
+  <si>
+    <t>1483266</t>
+  </si>
+  <si>
+    <t>1483267</t>
+  </si>
+  <si>
+    <t>1483268</t>
+  </si>
+  <si>
+    <t>1483269</t>
+  </si>
+  <si>
+    <t>1483270</t>
+  </si>
+  <si>
+    <t>1483271</t>
+  </si>
+  <si>
+    <t>1483272</t>
+  </si>
+  <si>
+    <t>1483273</t>
+  </si>
+  <si>
+    <t>1483274</t>
+  </si>
+  <si>
+    <t>1483275</t>
+  </si>
+  <si>
+    <t>1483276</t>
+  </si>
+  <si>
+    <t>1483277</t>
+  </si>
+  <si>
+    <t>1483278</t>
+  </si>
+  <si>
+    <t>1483279</t>
+  </si>
+  <si>
+    <t>1483280</t>
+  </si>
+  <si>
+    <t>1483281</t>
+  </si>
+  <si>
+    <t>1483282</t>
+  </si>
+  <si>
+    <t>1483283</t>
+  </si>
+  <si>
+    <t>1483284</t>
+  </si>
+  <si>
+    <t>1483285</t>
+  </si>
+  <si>
+    <t>1483286</t>
+  </si>
+  <si>
+    <t>1483287</t>
+  </si>
+  <si>
+    <t>1483288</t>
+  </si>
+  <si>
+    <t>1483289</t>
+  </si>
+  <si>
+    <t>1483290</t>
+  </si>
+  <si>
+    <t>1483291</t>
+  </si>
+  <si>
+    <t>1483292</t>
+  </si>
+  <si>
+    <t>1483293</t>
+  </si>
+  <si>
+    <t>1483294</t>
+  </si>
+  <si>
+    <t>1483295</t>
+  </si>
+  <si>
+    <t>1483296</t>
+  </si>
+  <si>
+    <t>1483297</t>
+  </si>
+  <si>
+    <t>1483298</t>
+  </si>
+  <si>
+    <t>1483299</t>
+  </si>
+  <si>
+    <t>1483300</t>
+  </si>
+  <si>
+    <t>1483301</t>
+  </si>
+  <si>
+    <t>1483302</t>
+  </si>
+  <si>
+    <t>1483303</t>
+  </si>
+  <si>
+    <t>1483304</t>
+  </si>
+  <si>
+    <t>1483305</t>
+  </si>
+  <si>
+    <t>1483306</t>
+  </si>
+  <si>
+    <t>1483307</t>
+  </si>
+  <si>
+    <t>1483308</t>
+  </si>
+  <si>
+    <t>1483309</t>
+  </si>
+  <si>
+    <t>1483310</t>
+  </si>
+  <si>
+    <t>1483311</t>
+  </si>
+  <si>
+    <t>1483312</t>
+  </si>
+  <si>
+    <t>1483313</t>
+  </si>
+  <si>
+    <t>1483314</t>
+  </si>
+  <si>
+    <t>1483315</t>
+  </si>
+  <si>
+    <t>1483316</t>
+  </si>
+  <si>
+    <t>1483317</t>
+  </si>
+  <si>
+    <t>1483318</t>
+  </si>
+  <si>
+    <t>1483319</t>
+  </si>
+  <si>
+    <t>1483320</t>
+  </si>
+  <si>
+    <t>1483321</t>
+  </si>
+  <si>
+    <t>1483322</t>
+  </si>
+  <si>
+    <t>1483323</t>
+  </si>
+  <si>
+    <t>1483324</t>
+  </si>
+  <si>
+    <t>1483325</t>
+  </si>
+  <si>
+    <t>1483326</t>
+  </si>
+  <si>
+    <t>1483327</t>
+  </si>
+  <si>
+    <t>1483328</t>
+  </si>
+  <si>
+    <t>1483329</t>
+  </si>
+  <si>
+    <t>1483330</t>
+  </si>
+  <si>
+    <t>1483331</t>
+  </si>
+  <si>
+    <t>1483332</t>
+  </si>
+  <si>
+    <t>1483333</t>
+  </si>
+  <si>
+    <t>1483334</t>
+  </si>
+  <si>
+    <t>1483335</t>
+  </si>
+  <si>
+    <t>1483336</t>
+  </si>
+  <si>
+    <t>1483337</t>
+  </si>
+  <si>
+    <t>1483338</t>
+  </si>
+  <si>
+    <t>1483366</t>
+  </si>
+  <si>
     <t>1483367</t>
   </si>
   <si>
     <t>1483368</t>
+  </si>
+  <si>
+    <t>1483484</t>
+  </si>
+  <si>
+    <t>1483545</t>
+  </si>
+  <si>
+    <t>1483546</t>
+  </si>
+  <si>
+    <t>1483547</t>
+  </si>
+  <si>
+    <t>1483548</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +2407,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1293,7 +2418,7 @@
     <col min="3" max="3" width="11.93303394317627" customWidth="1"/>
     <col min="4" max="4" width="13.676064491271973" customWidth="1"/>
     <col min="5" max="5" width="22.1929874420166" customWidth="1"/>
-    <col min="6" max="6" width="11.700636863708496" customWidth="1"/>
+    <col min="6" max="6" width="12.677665710449219" customWidth="1"/>
     <col min="7" max="7" width="11.60714054107666" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2435,16 +3560,16 @@
         <v>19</v>
       </c>
       <c r="D50" s="5">
-        <v>110.5</v>
+        <v>243.5</v>
       </c>
       <c r="E50" s="5">
-        <v>109.5</v>
+        <v>242.5</v>
       </c>
       <c r="F50" s="6">
-        <v>18287.5</v>
+        <v>39535.28</v>
       </c>
       <c r="G50" s="0">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -2458,16 +3583,16 @@
         <v>21</v>
       </c>
       <c r="D51" s="5">
-        <v>31.5</v>
+        <v>362.75</v>
       </c>
       <c r="E51" s="5">
-        <v>31.5</v>
+        <v>360.75</v>
       </c>
       <c r="F51" s="6">
-        <v>5682</v>
+        <v>58698.38</v>
       </c>
       <c r="G51" s="0">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52">
@@ -2481,16 +3606,16 @@
         <v>23</v>
       </c>
       <c r="D52" s="5">
-        <v>496.25</v>
+        <v>1170.75</v>
       </c>
       <c r="E52" s="5">
-        <v>496.25</v>
+        <v>1170.75</v>
       </c>
       <c r="F52" s="6">
-        <v>71187.38</v>
+        <v>171604.91</v>
       </c>
       <c r="G52" s="0">
-        <v>55</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53">
@@ -2498,22 +3623,919 @@
         <v>45674</v>
       </c>
       <c r="B53" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="5">
+        <v>11</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6">
+        <v>359</v>
+      </c>
+      <c r="G53" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4">
+        <v>45674</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="5">
+        <v>21.39</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6">
+        <v>770.04</v>
+      </c>
+      <c r="G54" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4">
+        <v>45674</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C55" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="5">
-        <v>535.25</v>
-      </c>
-      <c r="E53" s="5">
-        <v>535.25</v>
-      </c>
-      <c r="F53" s="6">
-        <v>87467.26</v>
-      </c>
-      <c r="G53" s="0">
-        <v>67</v>
+      <c r="D55" s="5">
+        <v>627.5</v>
+      </c>
+      <c r="E55" s="5">
+        <v>627.5</v>
+      </c>
+      <c r="F55" s="6">
+        <v>101041.39</v>
+      </c>
+      <c r="G55" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4">
+        <v>45677</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="5">
+        <v>12.1</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1331</v>
+      </c>
+      <c r="G56" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4">
+        <v>45679</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="5">
+        <v>46.82</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1685.52</v>
+      </c>
+      <c r="G57" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4">
+        <v>45680</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="5">
+        <v>108.75</v>
+      </c>
+      <c r="E58" s="5">
+        <v>106.75</v>
+      </c>
+      <c r="F58" s="6">
+        <v>16521.5</v>
+      </c>
+      <c r="G58" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4">
+        <v>45680</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6">
+        <v>99</v>
+      </c>
+      <c r="G59" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4">
+        <v>45680</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="5">
+        <v>90</v>
+      </c>
+      <c r="E60" s="5">
+        <v>90</v>
+      </c>
+      <c r="F60" s="6">
+        <v>13371.5</v>
+      </c>
+      <c r="G60" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4">
+        <v>45681</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="5">
+        <v>120</v>
+      </c>
+      <c r="E61" s="5">
+        <v>120</v>
+      </c>
+      <c r="F61" s="6">
+        <v>18890.78</v>
+      </c>
+      <c r="G61" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4">
+        <v>45681</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="5">
+        <v>215</v>
+      </c>
+      <c r="E62" s="5">
+        <v>215</v>
+      </c>
+      <c r="F62" s="6">
+        <v>31269.53</v>
+      </c>
+      <c r="G62" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4">
+        <v>45681</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="5">
+        <v>191.5</v>
+      </c>
+      <c r="E63" s="5">
+        <v>191.5</v>
+      </c>
+      <c r="F63" s="6">
+        <v>28785.5</v>
+      </c>
+      <c r="G63" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4">
+        <v>45681</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6">
+        <v>40</v>
+      </c>
+      <c r="G64" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4">
+        <v>45681</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="5">
+        <v>187.5</v>
+      </c>
+      <c r="E65" s="5">
+        <v>187.5</v>
+      </c>
+      <c r="F65" s="6">
+        <v>27854.52</v>
+      </c>
+      <c r="G65" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4">
+        <v>45684</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="5">
+        <v>81</v>
+      </c>
+      <c r="E66" s="5">
+        <v>81</v>
+      </c>
+      <c r="F66" s="6">
+        <v>13116</v>
+      </c>
+      <c r="G66" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4">
+        <v>45684</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="5">
+        <v>146.5</v>
+      </c>
+      <c r="E67" s="5">
+        <v>144.5</v>
+      </c>
+      <c r="F67" s="6">
+        <v>22872</v>
+      </c>
+      <c r="G67" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4">
+        <v>45684</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="5">
+        <v>757.5</v>
+      </c>
+      <c r="E68" s="5">
+        <v>757.5</v>
+      </c>
+      <c r="F68" s="6">
+        <v>113307.18</v>
+      </c>
+      <c r="G68" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4">
+        <v>45684</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6">
+        <v>736.25</v>
+      </c>
+      <c r="G69" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4">
+        <v>45684</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
+        <v>22</v>
+      </c>
+      <c r="G70" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4">
+        <v>45684</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="5">
+        <v>197.75</v>
+      </c>
+      <c r="E71" s="5">
+        <v>197.75</v>
+      </c>
+      <c r="F71" s="6">
+        <v>28558.78</v>
+      </c>
+      <c r="G71" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4">
+        <v>45685</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="5">
+        <v>49</v>
+      </c>
+      <c r="E72" s="5">
+        <v>49</v>
+      </c>
+      <c r="F72" s="6">
+        <v>8748.5</v>
+      </c>
+      <c r="G72" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4">
+        <v>45685</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="5">
+        <v>127.5</v>
+      </c>
+      <c r="E73" s="5">
+        <v>126.5</v>
+      </c>
+      <c r="F73" s="6">
+        <v>19559.75</v>
+      </c>
+      <c r="G73" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4">
+        <v>45685</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="5">
+        <v>559</v>
+      </c>
+      <c r="E74" s="5">
+        <v>559</v>
+      </c>
+      <c r="F74" s="6">
+        <v>83414.65</v>
+      </c>
+      <c r="G74" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4">
+        <v>45685</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="5">
+        <v>6</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+      <c r="F75" s="6">
+        <v>107</v>
+      </c>
+      <c r="G75" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4">
+        <v>45685</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="5">
+        <v>4</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0</v>
+      </c>
+      <c r="F76" s="6">
+        <v>120</v>
+      </c>
+      <c r="G76" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4">
+        <v>45685</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="5">
+        <v>368.5</v>
+      </c>
+      <c r="E77" s="5">
+        <v>368.5</v>
+      </c>
+      <c r="F77" s="6">
+        <v>58499.13</v>
+      </c>
+      <c r="G77" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4">
+        <v>45686</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="5">
+        <v>110.5</v>
+      </c>
+      <c r="E78" s="5">
+        <v>110.5</v>
+      </c>
+      <c r="F78" s="6">
+        <v>20473.38</v>
+      </c>
+      <c r="G78" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4">
+        <v>45686</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="5">
+        <v>414.5</v>
+      </c>
+      <c r="E79" s="5">
+        <v>413.5</v>
+      </c>
+      <c r="F79" s="6">
+        <v>60455</v>
+      </c>
+      <c r="G79" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4">
+        <v>45686</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="5">
+        <v>723.75</v>
+      </c>
+      <c r="E80" s="5">
+        <v>722.75</v>
+      </c>
+      <c r="F80" s="6">
+        <v>111327.65</v>
+      </c>
+      <c r="G80" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4">
+        <v>45686</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="5">
+        <v>297.75</v>
+      </c>
+      <c r="E81" s="5">
+        <v>297.75</v>
+      </c>
+      <c r="F81" s="6">
+        <v>44888.38</v>
+      </c>
+      <c r="G81" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4">
+        <v>45687</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="5">
+        <v>173</v>
+      </c>
+      <c r="E82" s="5">
+        <v>173</v>
+      </c>
+      <c r="F82" s="6">
+        <v>28148</v>
+      </c>
+      <c r="G82" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4">
+        <v>45687</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="5">
+        <v>315.25</v>
+      </c>
+      <c r="E83" s="5">
+        <v>315.25</v>
+      </c>
+      <c r="F83" s="6">
+        <v>44434.5</v>
+      </c>
+      <c r="G83" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4">
+        <v>45687</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="5">
+        <v>937.25</v>
+      </c>
+      <c r="E84" s="5">
+        <v>937.25</v>
+      </c>
+      <c r="F84" s="6">
+        <v>143624.53</v>
+      </c>
+      <c r="G84" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4">
+        <v>45687</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="5">
+        <v>23</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0</v>
+      </c>
+      <c r="F85" s="6">
+        <v>882.5</v>
+      </c>
+      <c r="G85" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4">
+        <v>45687</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="5">
+        <v>13</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0</v>
+      </c>
+      <c r="F86" s="6">
+        <v>169</v>
+      </c>
+      <c r="G86" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4">
+        <v>45687</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="5">
+        <v>319.75</v>
+      </c>
+      <c r="E87" s="5">
+        <v>319.75</v>
+      </c>
+      <c r="F87" s="6">
+        <v>49167.26</v>
+      </c>
+      <c r="G87" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4">
+        <v>45688</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0</v>
+      </c>
+      <c r="F88" s="6">
+        <v>612.5</v>
+      </c>
+      <c r="G88" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4">
+        <v>45688</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="5">
+        <v>153.5</v>
+      </c>
+      <c r="E89" s="5">
+        <v>21.5</v>
+      </c>
+      <c r="F89" s="6">
+        <v>7153.5</v>
+      </c>
+      <c r="G89" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4">
+        <v>45688</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="5">
+        <v>180.25</v>
+      </c>
+      <c r="E90" s="5">
+        <v>161.25</v>
+      </c>
+      <c r="F90" s="6">
+        <v>25805.64</v>
+      </c>
+      <c r="G90" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4">
+        <v>45688</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="5">
+        <v>8</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0</v>
+      </c>
+      <c r="F91" s="6">
+        <v>220</v>
+      </c>
+      <c r="G91" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4">
+        <v>45688</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="5">
+        <v>161</v>
+      </c>
+      <c r="E92" s="5">
+        <v>103.5</v>
+      </c>
+      <c r="F92" s="6">
+        <v>15735.26</v>
+      </c>
+      <c r="G92" s="0">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2535,7 +4557,7 @@
     <col min="4" max="4" width="11.93303394317627" customWidth="1"/>
     <col min="5" max="5" width="13.676064491271973" customWidth="1"/>
     <col min="6" max="6" width="22.1929874420166" customWidth="1"/>
-    <col min="7" max="7" width="12.677665710449219" customWidth="1"/>
+    <col min="7" max="7" width="14.088788986206055" customWidth="1"/>
     <col min="8" max="8" width="11.60714054107666" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2579,16 +4601,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="5">
-        <v>807.75</v>
+        <v>1498.75</v>
       </c>
       <c r="F2" s="5">
-        <v>802.75</v>
+        <v>1469.25</v>
       </c>
       <c r="G2" s="6">
-        <v>129138.81</v>
+        <v>240375.75</v>
       </c>
       <c r="H2" s="0">
-        <v>112</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3">
@@ -2605,16 +4627,16 @@
         <v>21</v>
       </c>
       <c r="E3" s="5">
-        <v>1300</v>
+        <v>3003.5</v>
       </c>
       <c r="F3" s="5">
-        <v>1300</v>
+        <v>2865.5</v>
       </c>
       <c r="G3" s="6">
-        <v>193691.65</v>
+        <v>432452.31</v>
       </c>
       <c r="H3" s="0">
-        <v>158</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4">
@@ -2631,16 +4653,16 @@
         <v>23</v>
       </c>
       <c r="E4" s="5">
-        <v>3093.75</v>
+        <v>7226.25</v>
       </c>
       <c r="F4" s="5">
-        <v>3083.75</v>
+        <v>7194.25</v>
       </c>
       <c r="G4" s="6">
-        <v>469345.91</v>
+        <v>1092550.09</v>
       </c>
       <c r="H4" s="0">
-        <v>376</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5">
@@ -2657,16 +4679,16 @@
         <v>17</v>
       </c>
       <c r="E5" s="5">
-        <v>54</v>
+        <v>127.5</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
       </c>
       <c r="G5" s="6">
-        <v>1931.5</v>
+        <v>4276.25</v>
       </c>
       <c r="H5" s="0">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -2683,16 +4705,16 @@
         <v>27</v>
       </c>
       <c r="E6" s="5">
-        <v>19.65</v>
+        <v>21.15</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <v>648.45</v>
+        <v>747.45</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2709,16 +4731,16 @@
         <v>29</v>
       </c>
       <c r="E7" s="5">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
       </c>
       <c r="G7" s="6">
-        <v>1200</v>
+        <v>1511</v>
       </c>
       <c r="H7" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2735,16 +4757,16 @@
         <v>31</v>
       </c>
       <c r="E8" s="5">
-        <v>72.81</v>
+        <v>153.12</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>2856.66</v>
+        <v>6643.22</v>
       </c>
       <c r="H8" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -2761,16 +4783,16 @@
         <v>25</v>
       </c>
       <c r="E9" s="5">
-        <v>2613.75</v>
+        <v>4328.25</v>
       </c>
       <c r="F9" s="5">
-        <v>2577.75</v>
+        <v>4234.75</v>
       </c>
       <c r="G9" s="6">
-        <v>403531.36</v>
+        <v>655180.32</v>
       </c>
       <c r="H9" s="0">
-        <v>332</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +4802,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D344"/>
+  <dimension ref="A1:D719"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2788,7 +4810,7 @@
   <cols>
     <col min="1" max="1" width="13.229096412658691" customWidth="1"/>
     <col min="2" max="2" width="17.17929458618164" customWidth="1"/>
-    <col min="3" max="3" width="11.527848243713379" customWidth="1"/>
+    <col min="3" max="3" width="11.700636863708496" customWidth="1"/>
     <col min="4" max="4" width="11.221824645996094" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7193,13 +9215,13 @@
         <v>350</v>
       </c>
       <c r="B315" s="6">
-        <v>3543.5</v>
+        <v>951.5</v>
       </c>
       <c r="C315" s="6">
-        <v>4060.66</v>
+        <v>1065.24</v>
       </c>
       <c r="D315" s="6">
-        <v>-517.16</v>
+        <v>-113.74</v>
       </c>
     </row>
     <row r="316">
@@ -7207,13 +9229,13 @@
         <v>351</v>
       </c>
       <c r="B316" s="6">
-        <v>1452</v>
+        <v>5643</v>
       </c>
       <c r="C316" s="6">
-        <v>1675.07</v>
+        <v>6177.68</v>
       </c>
       <c r="D316" s="6">
-        <v>-223.07</v>
+        <v>-534.68</v>
       </c>
     </row>
     <row r="317">
@@ -7221,13 +9243,13 @@
         <v>352</v>
       </c>
       <c r="B317" s="6">
-        <v>358</v>
+        <v>3543.5</v>
       </c>
       <c r="C317" s="6">
-        <v>508.05</v>
+        <v>4060.66</v>
       </c>
       <c r="D317" s="6">
-        <v>-150.05</v>
+        <v>-517.16</v>
       </c>
     </row>
     <row r="318">
@@ -7235,13 +9257,13 @@
         <v>353</v>
       </c>
       <c r="B318" s="6">
-        <v>4332</v>
+        <v>900</v>
       </c>
       <c r="C318" s="6">
-        <v>5229.99</v>
+        <v>974.45</v>
       </c>
       <c r="D318" s="6">
-        <v>-897.99</v>
+        <v>-74.45</v>
       </c>
     </row>
     <row r="319">
@@ -7249,13 +9271,13 @@
         <v>354</v>
       </c>
       <c r="B319" s="6">
-        <v>1695.75</v>
+        <v>1452</v>
       </c>
       <c r="C319" s="6">
-        <v>1828.93</v>
+        <v>1675.07</v>
       </c>
       <c r="D319" s="6">
-        <v>-133.18</v>
+        <v>-223.07</v>
       </c>
     </row>
     <row r="320">
@@ -7263,13 +9285,13 @@
         <v>355</v>
       </c>
       <c r="B320" s="6">
-        <v>6906.25</v>
+        <v>358</v>
       </c>
       <c r="C320" s="6">
-        <v>10350.9</v>
+        <v>508.05</v>
       </c>
       <c r="D320" s="6">
-        <v>-3444.65</v>
+        <v>-150.05</v>
       </c>
     </row>
     <row r="321">
@@ -7277,13 +9299,13 @@
         <v>356</v>
       </c>
       <c r="B321" s="6">
-        <v>552</v>
+        <v>706</v>
       </c>
       <c r="C321" s="6">
-        <v>679.77</v>
+        <v>843.01</v>
       </c>
       <c r="D321" s="6">
-        <v>-127.77</v>
+        <v>-137.01</v>
       </c>
     </row>
     <row r="322">
@@ -7291,13 +9313,13 @@
         <v>357</v>
       </c>
       <c r="B322" s="6">
-        <v>5130</v>
+        <v>4332</v>
       </c>
       <c r="C322" s="6">
-        <v>5652.93</v>
+        <v>5229.99</v>
       </c>
       <c r="D322" s="6">
-        <v>-522.93</v>
+        <v>-897.99</v>
       </c>
     </row>
     <row r="323">
@@ -7305,13 +9327,13 @@
         <v>358</v>
       </c>
       <c r="B323" s="6">
-        <v>4323</v>
+        <v>591.5</v>
       </c>
       <c r="C323" s="6">
-        <v>4666.62</v>
+        <v>711.04</v>
       </c>
       <c r="D323" s="6">
-        <v>-343.62</v>
+        <v>-119.54</v>
       </c>
     </row>
     <row r="324">
@@ -7319,13 +9341,13 @@
         <v>359</v>
       </c>
       <c r="B324" s="6">
-        <v>182</v>
+        <v>789.75</v>
       </c>
       <c r="C324" s="6">
-        <v>323.61</v>
+        <v>928.61</v>
       </c>
       <c r="D324" s="6">
-        <v>-141.61</v>
+        <v>-138.86</v>
       </c>
     </row>
     <row r="325">
@@ -7333,13 +9355,13 @@
         <v>360</v>
       </c>
       <c r="B325" s="6">
-        <v>1835</v>
+        <v>406.13</v>
       </c>
       <c r="C325" s="6">
-        <v>2113.2</v>
+        <v>536.28</v>
       </c>
       <c r="D325" s="6">
-        <v>-278.2</v>
+        <v>-130.15</v>
       </c>
     </row>
     <row r="326">
@@ -7347,13 +9369,13 @@
         <v>361</v>
       </c>
       <c r="B326" s="6">
-        <v>775</v>
+        <v>9135.03</v>
       </c>
       <c r="C326" s="6">
-        <v>863.25</v>
+        <v>9882.4</v>
       </c>
       <c r="D326" s="6">
-        <v>-88.25</v>
+        <v>-747.37</v>
       </c>
     </row>
     <row r="327">
@@ -7361,13 +9383,13 @@
         <v>362</v>
       </c>
       <c r="B327" s="6">
-        <v>343</v>
+        <v>441.25</v>
       </c>
       <c r="C327" s="6">
-        <v>501.65</v>
+        <v>572.98</v>
       </c>
       <c r="D327" s="6">
-        <v>-158.65</v>
+        <v>-131.73</v>
       </c>
     </row>
     <row r="328">
@@ -7375,13 +9397,13 @@
         <v>363</v>
       </c>
       <c r="B328" s="6">
-        <v>2087.5</v>
+        <v>1695.75</v>
       </c>
       <c r="C328" s="6">
-        <v>2442.24</v>
+        <v>1828.93</v>
       </c>
       <c r="D328" s="6">
-        <v>-354.74</v>
+        <v>-133.18</v>
       </c>
     </row>
     <row r="329">
@@ -7389,13 +9411,13 @@
         <v>364</v>
       </c>
       <c r="B329" s="6">
-        <v>17242.5</v>
+        <v>617.75</v>
       </c>
       <c r="C329" s="6">
-        <v>18177.5</v>
+        <v>685</v>
       </c>
       <c r="D329" s="6">
-        <v>-935</v>
+        <v>-67.25</v>
       </c>
     </row>
     <row r="330">
@@ -7403,13 +9425,13 @@
         <v>365</v>
       </c>
       <c r="B330" s="6">
-        <v>7128</v>
+        <v>984</v>
       </c>
       <c r="C330" s="6">
-        <v>8403.89</v>
+        <v>1065.93</v>
       </c>
       <c r="D330" s="6">
-        <v>-1275.89</v>
+        <v>-81.93</v>
       </c>
     </row>
     <row r="331">
@@ -7417,13 +9439,13 @@
         <v>366</v>
       </c>
       <c r="B331" s="6">
-        <v>6127.5</v>
+        <v>8287.5</v>
       </c>
       <c r="C331" s="6">
-        <v>6538.88</v>
+        <v>10350.9</v>
       </c>
       <c r="D331" s="6">
-        <v>-411.38</v>
+        <v>-2063.4</v>
       </c>
     </row>
     <row r="332">
@@ -7431,13 +9453,13 @@
         <v>367</v>
       </c>
       <c r="B332" s="6">
-        <v>1620</v>
+        <v>1089</v>
       </c>
       <c r="C332" s="6">
-        <v>1900.14</v>
+        <v>1177.23</v>
       </c>
       <c r="D332" s="6">
-        <v>-280.14</v>
+        <v>-88.23</v>
       </c>
     </row>
     <row r="333">
@@ -7445,13 +9467,13 @@
         <v>368</v>
       </c>
       <c r="B333" s="6">
-        <v>10656.26</v>
+        <v>552</v>
       </c>
       <c r="C333" s="6">
-        <v>13013.1</v>
+        <v>679.77</v>
       </c>
       <c r="D333" s="6">
-        <v>-2356.84</v>
+        <v>-127.77</v>
       </c>
     </row>
     <row r="334">
@@ -7459,13 +9481,13 @@
         <v>369</v>
       </c>
       <c r="B334" s="6">
-        <v>27702</v>
+        <v>519</v>
       </c>
       <c r="C334" s="6">
-        <v>30246.57</v>
+        <v>625.71</v>
       </c>
       <c r="D334" s="6">
-        <v>-2544.57</v>
+        <v>-106.71</v>
       </c>
     </row>
     <row r="335">
@@ -7473,13 +9495,13 @@
         <v>370</v>
       </c>
       <c r="B335" s="6">
-        <v>2112.5</v>
+        <v>1342.5</v>
       </c>
       <c r="C335" s="6">
-        <v>2535.51</v>
+        <v>1449.6</v>
       </c>
       <c r="D335" s="6">
-        <v>-423.01</v>
+        <v>-107.1</v>
       </c>
     </row>
     <row r="336">
@@ -7487,13 +9509,13 @@
         <v>371</v>
       </c>
       <c r="B336" s="6">
-        <v>37100</v>
+        <v>725</v>
       </c>
       <c r="C336" s="6">
-        <v>41537.16</v>
+        <v>852.55</v>
       </c>
       <c r="D336" s="6">
-        <v>-4437.16</v>
+        <v>-127.55</v>
       </c>
     </row>
     <row r="337">
@@ -7501,13 +9523,13 @@
         <v>372</v>
       </c>
       <c r="B337" s="6">
-        <v>8381.25</v>
+        <v>1377.5</v>
       </c>
       <c r="C337" s="6">
-        <v>9890.6</v>
+        <v>1521.79</v>
       </c>
       <c r="D337" s="6">
-        <v>-1509.35</v>
+        <v>-144.29</v>
       </c>
     </row>
     <row r="338">
@@ -7515,13 +9537,13 @@
         <v>373</v>
       </c>
       <c r="B338" s="6">
-        <v>3259.63</v>
+        <v>2850</v>
       </c>
       <c r="C338" s="6">
-        <v>3575.78</v>
+        <v>3164.42</v>
       </c>
       <c r="D338" s="6">
-        <v>-316.15</v>
+        <v>-314.42</v>
       </c>
     </row>
     <row r="339">
@@ -7529,13 +9551,13 @@
         <v>374</v>
       </c>
       <c r="B339" s="6">
-        <v>14085.5</v>
+        <v>15386.25</v>
       </c>
       <c r="C339" s="6">
-        <v>16697.39</v>
+        <v>17978.4</v>
       </c>
       <c r="D339" s="6">
-        <v>-2611.89</v>
+        <v>-2592.15</v>
       </c>
     </row>
     <row r="340">
@@ -7543,13 +9565,13 @@
         <v>375</v>
       </c>
       <c r="B340" s="6">
-        <v>4189.5</v>
+        <v>425</v>
       </c>
       <c r="C340" s="6">
-        <v>4814.2</v>
+        <v>539.85</v>
       </c>
       <c r="D340" s="6">
-        <v>-624.7</v>
+        <v>-114.85</v>
       </c>
     </row>
     <row r="341">
@@ -7557,13 +9579,13 @@
         <v>376</v>
       </c>
       <c r="B341" s="6">
-        <v>4171.5</v>
+        <v>990</v>
       </c>
       <c r="C341" s="6">
-        <v>4565.95</v>
+        <v>1148.61</v>
       </c>
       <c r="D341" s="6">
-        <v>-394.45</v>
+        <v>-158.61</v>
       </c>
     </row>
     <row r="342">
@@ -7571,13 +9593,13 @@
         <v>377</v>
       </c>
       <c r="B342" s="6">
-        <v>50</v>
+        <v>1248</v>
       </c>
       <c r="C342" s="6">
-        <v>50</v>
+        <v>1350.65</v>
       </c>
       <c r="D342" s="6">
-        <v>0</v>
+        <v>-102.65</v>
       </c>
     </row>
     <row r="343">
@@ -7585,13 +9607,13 @@
         <v>378</v>
       </c>
       <c r="B343" s="6">
-        <v>316.5</v>
+        <v>1615</v>
       </c>
       <c r="C343" s="6">
-        <v>316.5</v>
+        <v>1743.33</v>
       </c>
       <c r="D343" s="6">
-        <v>0</v>
+        <v>-128.33</v>
       </c>
     </row>
     <row r="344">
@@ -7599,12 +9621,5262 @@
         <v>379</v>
       </c>
       <c r="B344" s="6">
+        <v>2033</v>
+      </c>
+      <c r="C344" s="6">
+        <v>2236.76</v>
+      </c>
+      <c r="D344" s="6">
+        <v>-203.76</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B345" s="6">
+        <v>10151</v>
+      </c>
+      <c r="C345" s="6">
+        <v>12243.79</v>
+      </c>
+      <c r="D345" s="6">
+        <v>-2092.79</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B346" s="6">
+        <v>10660</v>
+      </c>
+      <c r="C346" s="6">
+        <v>11515.95</v>
+      </c>
+      <c r="D346" s="6">
+        <v>-855.95</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B347" s="6">
+        <v>5130</v>
+      </c>
+      <c r="C347" s="6">
+        <v>5652.93</v>
+      </c>
+      <c r="D347" s="6">
+        <v>-522.93</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B348" s="6">
+        <v>357</v>
+      </c>
+      <c r="C348" s="6">
+        <v>449.25</v>
+      </c>
+      <c r="D348" s="6">
+        <v>-92.25</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B349" s="6">
+        <v>4323</v>
+      </c>
+      <c r="C349" s="6">
+        <v>4666.62</v>
+      </c>
+      <c r="D349" s="6">
+        <v>-343.62</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B350" s="6">
+        <v>182</v>
+      </c>
+      <c r="C350" s="6">
+        <v>323.61</v>
+      </c>
+      <c r="D350" s="6">
+        <v>-141.61</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B351" s="6">
+        <v>1835</v>
+      </c>
+      <c r="C351" s="6">
+        <v>2113.2</v>
+      </c>
+      <c r="D351" s="6">
+        <v>-278.2</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B352" s="6">
+        <v>775</v>
+      </c>
+      <c r="C352" s="6">
+        <v>863.25</v>
+      </c>
+      <c r="D352" s="6">
+        <v>-88.25</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B353" s="6">
+        <v>343</v>
+      </c>
+      <c r="C353" s="6">
+        <v>501.65</v>
+      </c>
+      <c r="D353" s="6">
+        <v>-158.65</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B354" s="6">
+        <v>3442.75</v>
+      </c>
+      <c r="C354" s="6">
+        <v>3775.19</v>
+      </c>
+      <c r="D354" s="6">
+        <v>-332.44</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B355" s="6">
+        <v>2087.5</v>
+      </c>
+      <c r="C355" s="6">
+        <v>2442.24</v>
+      </c>
+      <c r="D355" s="6">
+        <v>-354.74</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B356" s="6">
+        <v>17242.5</v>
+      </c>
+      <c r="C356" s="6">
+        <v>18177.5</v>
+      </c>
+      <c r="D356" s="6">
+        <v>-935</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B357" s="6">
+        <v>7128</v>
+      </c>
+      <c r="C357" s="6">
+        <v>8403.89</v>
+      </c>
+      <c r="D357" s="6">
+        <v>-1275.89</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B358" s="6">
+        <v>6127.5</v>
+      </c>
+      <c r="C358" s="6">
+        <v>6538.88</v>
+      </c>
+      <c r="D358" s="6">
+        <v>-411.38</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B359" s="6">
+        <v>3658.5</v>
+      </c>
+      <c r="C359" s="6">
+        <v>4362.17</v>
+      </c>
+      <c r="D359" s="6">
+        <v>-703.67</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B360" s="6">
+        <v>1581.75</v>
+      </c>
+      <c r="C360" s="6">
+        <v>1856.59</v>
+      </c>
+      <c r="D360" s="6">
+        <v>-274.84</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B361" s="6">
+        <v>1620</v>
+      </c>
+      <c r="C361" s="6">
+        <v>1900.14</v>
+      </c>
+      <c r="D361" s="6">
+        <v>-280.14</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B362" s="6">
+        <v>10656.26</v>
+      </c>
+      <c r="C362" s="6">
+        <v>13013.1</v>
+      </c>
+      <c r="D362" s="6">
+        <v>-2356.84</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B363" s="6">
+        <v>892.5</v>
+      </c>
+      <c r="C363" s="6">
+        <v>892.5</v>
+      </c>
+      <c r="D363" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B364" s="6">
+        <v>27702</v>
+      </c>
+      <c r="C364" s="6">
+        <v>30246.57</v>
+      </c>
+      <c r="D364" s="6">
+        <v>-2544.57</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B365" s="6">
+        <v>2112.5</v>
+      </c>
+      <c r="C365" s="6">
+        <v>2535.51</v>
+      </c>
+      <c r="D365" s="6">
+        <v>-423.01</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B366" s="6">
+        <v>29784</v>
+      </c>
+      <c r="C366" s="6">
+        <v>32209.5</v>
+      </c>
+      <c r="D366" s="6">
+        <v>-2425.5</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B367" s="6">
+        <v>325</v>
+      </c>
+      <c r="C367" s="6">
+        <v>455.25</v>
+      </c>
+      <c r="D367" s="6">
+        <v>-130.25</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B368" s="6">
+        <v>1629</v>
+      </c>
+      <c r="C368" s="6">
+        <v>1790.38</v>
+      </c>
+      <c r="D368" s="6">
+        <v>-161.38</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B369" s="6">
+        <v>734</v>
+      </c>
+      <c r="C369" s="6">
+        <v>835.55</v>
+      </c>
+      <c r="D369" s="6">
+        <v>-101.55</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B370" s="6">
+        <v>1925</v>
+      </c>
+      <c r="C370" s="6">
+        <v>2186.26</v>
+      </c>
+      <c r="D370" s="6">
+        <v>-261.26</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B371" s="6">
+        <v>892.5</v>
+      </c>
+      <c r="C371" s="6">
+        <v>1076.7</v>
+      </c>
+      <c r="D371" s="6">
+        <v>-184.2</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B372" s="6">
+        <v>37100</v>
+      </c>
+      <c r="C372" s="6">
+        <v>41537.16</v>
+      </c>
+      <c r="D372" s="6">
+        <v>-4437.16</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B373" s="6">
+        <v>8381.25</v>
+      </c>
+      <c r="C373" s="6">
+        <v>9890.6</v>
+      </c>
+      <c r="D373" s="6">
+        <v>-1509.35</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B374" s="6">
+        <v>3285</v>
+      </c>
+      <c r="C374" s="6">
+        <v>3707.62</v>
+      </c>
+      <c r="D374" s="6">
+        <v>-422.62</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B375" s="6">
+        <v>577.5</v>
+      </c>
+      <c r="C375" s="6">
+        <v>677.61</v>
+      </c>
+      <c r="D375" s="6">
+        <v>-100.11</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B376" s="6">
+        <v>365</v>
+      </c>
+      <c r="C376" s="6">
+        <v>504.24</v>
+      </c>
+      <c r="D376" s="6">
+        <v>-139.24</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B377" s="6">
+        <v>4574.25</v>
+      </c>
+      <c r="C377" s="6">
+        <v>5116.62</v>
+      </c>
+      <c r="D377" s="6">
+        <v>-542.37</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B378" s="6">
+        <v>960</v>
+      </c>
+      <c r="C378" s="6">
+        <v>1147.19</v>
+      </c>
+      <c r="D378" s="6">
+        <v>-187.19</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B379" s="6">
+        <v>3362</v>
+      </c>
+      <c r="C379" s="6">
+        <v>3829</v>
+      </c>
+      <c r="D379" s="6">
+        <v>-467</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B380" s="6">
+        <v>3259.63</v>
+      </c>
+      <c r="C380" s="6">
+        <v>3575.78</v>
+      </c>
+      <c r="D380" s="6">
+        <v>-316.15</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B381" s="6">
+        <v>14085.5</v>
+      </c>
+      <c r="C381" s="6">
+        <v>16697.39</v>
+      </c>
+      <c r="D381" s="6">
+        <v>-2611.89</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B382" s="6">
+        <v>5473.88</v>
+      </c>
+      <c r="C382" s="6">
+        <v>5997.35</v>
+      </c>
+      <c r="D382" s="6">
+        <v>-523.47</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B383" s="6">
+        <v>1520</v>
+      </c>
+      <c r="C383" s="6">
+        <v>1660.23</v>
+      </c>
+      <c r="D383" s="6">
+        <v>-140.23</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B384" s="6">
+        <v>168.5</v>
+      </c>
+      <c r="C384" s="6">
+        <v>289.7</v>
+      </c>
+      <c r="D384" s="6">
+        <v>-121.2</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B385" s="6">
+        <v>1248.75</v>
+      </c>
+      <c r="C385" s="6">
+        <v>1419.87</v>
+      </c>
+      <c r="D385" s="6">
+        <v>-171.12</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B386" s="6">
+        <v>6139.5</v>
+      </c>
+      <c r="C386" s="6">
+        <v>6710.6</v>
+      </c>
+      <c r="D386" s="6">
+        <v>-571.1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B387" s="6">
+        <v>4189.5</v>
+      </c>
+      <c r="C387" s="6">
+        <v>4814.2</v>
+      </c>
+      <c r="D387" s="6">
+        <v>-624.7</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B388" s="6">
+        <v>5771.26</v>
+      </c>
+      <c r="C388" s="6">
+        <v>6219.39</v>
+      </c>
+      <c r="D388" s="6">
+        <v>-448.13</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B389" s="6">
+        <v>444</v>
+      </c>
+      <c r="C389" s="6">
+        <v>483.91</v>
+      </c>
+      <c r="D389" s="6">
+        <v>-39.91</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B390" s="6">
+        <v>5637.52</v>
+      </c>
+      <c r="C390" s="6">
+        <v>6714.86</v>
+      </c>
+      <c r="D390" s="6">
+        <v>-1077.34</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B391" s="6">
+        <v>6662.25</v>
+      </c>
+      <c r="C391" s="6">
+        <v>8257.67</v>
+      </c>
+      <c r="D391" s="6">
+        <v>-1595.42</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B392" s="6">
+        <v>4864.5</v>
+      </c>
+      <c r="C392" s="6">
+        <v>6041.21</v>
+      </c>
+      <c r="D392" s="6">
+        <v>-1176.71</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B393" s="6">
+        <v>4171.5</v>
+      </c>
+      <c r="C393" s="6">
+        <v>4565.95</v>
+      </c>
+      <c r="D393" s="6">
+        <v>-394.45</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B394" s="6">
+        <v>11728.25</v>
+      </c>
+      <c r="C394" s="6">
+        <v>12848.79</v>
+      </c>
+      <c r="D394" s="6">
+        <v>-1120.54</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B395" s="6">
+        <v>5005</v>
+      </c>
+      <c r="C395" s="6">
+        <v>5488.68</v>
+      </c>
+      <c r="D395" s="6">
+        <v>-483.68</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B396" s="6">
+        <v>770.04</v>
+      </c>
+      <c r="C396" s="6">
+        <v>824.99</v>
+      </c>
+      <c r="D396" s="6">
+        <v>-54.95</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B397" s="6">
+        <v>39</v>
+      </c>
+      <c r="C397" s="6">
+        <v>41.34</v>
+      </c>
+      <c r="D397" s="6">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B398" s="6">
+        <v>320</v>
+      </c>
+      <c r="C398" s="6">
+        <v>339.2</v>
+      </c>
+      <c r="D398" s="6">
+        <v>-19.2</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B399" s="6">
+        <v>1685.52</v>
+      </c>
+      <c r="C399" s="6">
+        <v>1804.14</v>
+      </c>
+      <c r="D399" s="6">
+        <v>-118.62</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B400" s="6">
+        <v>183.5</v>
+      </c>
+      <c r="C400" s="6">
+        <v>344.28</v>
+      </c>
+      <c r="D400" s="6">
+        <v>-160.78</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B401" s="6">
+        <v>1092</v>
+      </c>
+      <c r="C401" s="6">
+        <v>1256.73</v>
+      </c>
+      <c r="D401" s="6">
+        <v>-164.73</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B402" s="6">
+        <v>8940</v>
+      </c>
+      <c r="C402" s="6">
+        <v>11262.77</v>
+      </c>
+      <c r="D402" s="6">
+        <v>-2322.77</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B403" s="6">
+        <v>1440</v>
+      </c>
+      <c r="C403" s="6">
+        <v>1724.18</v>
+      </c>
+      <c r="D403" s="6">
+        <v>-284.18</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B404" s="6">
+        <v>1716</v>
+      </c>
+      <c r="C404" s="6">
+        <v>1864.74</v>
+      </c>
+      <c r="D404" s="6">
+        <v>-148.74</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="B405" s="6">
+        <v>2458.5</v>
+      </c>
+      <c r="C405" s="6">
+        <v>3008.28</v>
+      </c>
+      <c r="D405" s="6">
+        <v>-549.78</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B406" s="6">
+        <v>4515</v>
+      </c>
+      <c r="C406" s="6">
+        <v>5162.73</v>
+      </c>
+      <c r="D406" s="6">
+        <v>-647.73</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B407" s="6">
+        <v>3087</v>
+      </c>
+      <c r="C407" s="6">
+        <v>3554.27</v>
+      </c>
+      <c r="D407" s="6">
+        <v>-467.27</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B408" s="6">
+        <v>1600</v>
+      </c>
+      <c r="C408" s="6">
+        <v>1747.15</v>
+      </c>
+      <c r="D408" s="6">
+        <v>-147.15</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="B409" s="6">
+        <v>2502.5</v>
+      </c>
+      <c r="C409" s="6">
+        <v>2744.34</v>
+      </c>
+      <c r="D409" s="6">
+        <v>-241.84</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B410" s="6">
+        <v>2358.5</v>
+      </c>
+      <c r="C410" s="6">
+        <v>2549.04</v>
+      </c>
+      <c r="D410" s="6">
+        <v>-190.54</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="B411" s="6">
+        <v>50</v>
+      </c>
+      <c r="C411" s="6">
+        <v>50</v>
+      </c>
+      <c r="D411" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B412" s="6">
+        <v>3415.51</v>
+      </c>
+      <c r="C412" s="6">
+        <v>3744.2</v>
+      </c>
+      <c r="D412" s="6">
+        <v>-328.69</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B413" s="6">
+        <v>814.5</v>
+      </c>
+      <c r="C413" s="6">
+        <v>954.84</v>
+      </c>
+      <c r="D413" s="6">
+        <v>-140.34</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B414" s="6">
+        <v>1074</v>
+      </c>
+      <c r="C414" s="6">
+        <v>1205.85</v>
+      </c>
+      <c r="D414" s="6">
+        <v>-131.85</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B415" s="6">
+        <v>4688.25</v>
+      </c>
+      <c r="C415" s="6">
+        <v>5516.99</v>
+      </c>
+      <c r="D415" s="6">
+        <v>-828.74</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B416" s="6">
+        <v>1586.38</v>
+      </c>
+      <c r="C416" s="6">
+        <v>1586.38</v>
+      </c>
+      <c r="D416" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B417" s="6">
+        <v>2331</v>
+      </c>
+      <c r="C417" s="6">
+        <v>2814.83</v>
+      </c>
+      <c r="D417" s="6">
+        <v>-483.83</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B418" s="6">
+        <v>1468</v>
+      </c>
+      <c r="C418" s="6">
+        <v>1744.97</v>
+      </c>
+      <c r="D418" s="6">
+        <v>-276.97</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B419" s="6">
+        <v>8378</v>
+      </c>
+      <c r="C419" s="6">
+        <v>10020.49</v>
+      </c>
+      <c r="D419" s="6">
+        <v>-1642.49</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B420" s="6">
+        <v>2660</v>
+      </c>
+      <c r="C420" s="6">
+        <v>3184.56</v>
+      </c>
+      <c r="D420" s="6">
+        <v>-524.56</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B421" s="6">
+        <v>1445</v>
+      </c>
+      <c r="C421" s="6">
+        <v>1560.69</v>
+      </c>
+      <c r="D421" s="6">
+        <v>-115.69</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B422" s="6">
+        <v>7597</v>
+      </c>
+      <c r="C422" s="6">
+        <v>9011.48</v>
+      </c>
+      <c r="D422" s="6">
+        <v>-1414.48</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B423" s="6">
+        <v>7150.03</v>
+      </c>
+      <c r="C423" s="6">
+        <v>8416.85</v>
+      </c>
+      <c r="D423" s="6">
+        <v>-1266.82</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B424" s="6">
+        <v>2331</v>
+      </c>
+      <c r="C424" s="6">
+        <v>2725.79</v>
+      </c>
+      <c r="D424" s="6">
+        <v>-394.79</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B425" s="6">
+        <v>3583.5</v>
+      </c>
+      <c r="C425" s="6">
+        <v>3865.96</v>
+      </c>
+      <c r="D425" s="6">
+        <v>-282.46</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B426" s="6">
+        <v>182.5</v>
+      </c>
+      <c r="C426" s="6">
+        <v>343.22</v>
+      </c>
+      <c r="D426" s="6">
+        <v>-160.72</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B427" s="6">
+        <v>2145</v>
+      </c>
+      <c r="C427" s="6">
+        <v>2640.99</v>
+      </c>
+      <c r="D427" s="6">
+        <v>-495.99</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B428" s="6">
+        <v>2032.5</v>
+      </c>
+      <c r="C428" s="6">
+        <v>2426.34</v>
+      </c>
+      <c r="D428" s="6">
+        <v>-393.84</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B429" s="6">
+        <v>2612.5</v>
+      </c>
+      <c r="C429" s="6">
+        <v>3108.98</v>
+      </c>
+      <c r="D429" s="6">
+        <v>-496.48</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B430" s="6">
+        <v>2890.5</v>
+      </c>
+      <c r="C430" s="6">
+        <v>3589.96</v>
+      </c>
+      <c r="D430" s="6">
+        <v>-699.46</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B431" s="6">
+        <v>2574</v>
+      </c>
+      <c r="C431" s="6">
+        <v>3051.21</v>
+      </c>
+      <c r="D431" s="6">
+        <v>-477.21</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="B432" s="6">
+        <v>2345.5</v>
+      </c>
+      <c r="C432" s="6">
+        <v>2940.44</v>
+      </c>
+      <c r="D432" s="6">
+        <v>-594.94</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B433" s="6">
+        <v>609.75</v>
+      </c>
+      <c r="C433" s="6">
+        <v>747.3</v>
+      </c>
+      <c r="D433" s="6">
+        <v>-137.55</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B434" s="6">
+        <v>8937.53</v>
+      </c>
+      <c r="C434" s="6">
+        <v>10516.93</v>
+      </c>
+      <c r="D434" s="6">
+        <v>-1579.4</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="B435" s="6">
+        <v>2160</v>
+      </c>
+      <c r="C435" s="6">
+        <v>2538.57</v>
+      </c>
+      <c r="D435" s="6">
+        <v>-378.57</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B436" s="6">
+        <v>325</v>
+      </c>
+      <c r="C436" s="6">
+        <v>455.79</v>
+      </c>
+      <c r="D436" s="6">
+        <v>-130.79</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B437" s="6">
+        <v>40</v>
+      </c>
+      <c r="C437" s="6">
+        <v>42.4</v>
+      </c>
+      <c r="D437" s="6">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B438" s="6">
+        <v>724</v>
+      </c>
+      <c r="C438" s="6">
+        <v>824.95</v>
+      </c>
+      <c r="D438" s="6">
+        <v>-100.95</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B439" s="6">
+        <v>13230</v>
+      </c>
+      <c r="C439" s="6">
+        <v>14511.93</v>
+      </c>
+      <c r="D439" s="6">
+        <v>-1281.93</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B440" s="6">
+        <v>3427</v>
+      </c>
+      <c r="C440" s="6">
+        <v>4195.22</v>
+      </c>
+      <c r="D440" s="6">
+        <v>-768.22</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B441" s="6">
+        <v>612</v>
+      </c>
+      <c r="C441" s="6">
+        <v>757.11</v>
+      </c>
+      <c r="D441" s="6">
+        <v>-145.11</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B442" s="6">
+        <v>2542.5</v>
+      </c>
+      <c r="C442" s="6">
+        <v>3062.34</v>
+      </c>
+      <c r="D442" s="6">
+        <v>-519.84</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B443" s="6">
+        <v>2728.5</v>
+      </c>
+      <c r="C443" s="6">
+        <v>3053.86</v>
+      </c>
+      <c r="D443" s="6">
+        <v>-325.36</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B444" s="6">
+        <v>862.5</v>
+      </c>
+      <c r="C444" s="6">
+        <v>1007.8</v>
+      </c>
+      <c r="D444" s="6">
+        <v>-145.3</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B445" s="6">
+        <v>3059</v>
+      </c>
+      <c r="C445" s="6">
+        <v>3494.09</v>
+      </c>
+      <c r="D445" s="6">
+        <v>-435.09</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B446" s="6">
+        <v>1600</v>
+      </c>
+      <c r="C446" s="6">
+        <v>1747.15</v>
+      </c>
+      <c r="D446" s="6">
+        <v>-147.15</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="B447" s="6">
+        <v>5909</v>
+      </c>
+      <c r="C447" s="6">
+        <v>6459.64</v>
+      </c>
+      <c r="D447" s="6">
+        <v>-550.64</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B448" s="6">
+        <v>1183</v>
+      </c>
+      <c r="C448" s="6">
+        <v>1374.03</v>
+      </c>
+      <c r="D448" s="6">
+        <v>-191.03</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B449" s="6">
+        <v>2888</v>
+      </c>
+      <c r="C449" s="6">
+        <v>3244.98</v>
+      </c>
+      <c r="D449" s="6">
+        <v>-356.98</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B450" s="6">
+        <v>2483</v>
+      </c>
+      <c r="C450" s="6">
+        <v>2680.2</v>
+      </c>
+      <c r="D450" s="6">
+        <v>-197.2</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B451" s="6">
+        <v>328</v>
+      </c>
+      <c r="C451" s="6">
+        <v>480.81</v>
+      </c>
+      <c r="D451" s="6">
+        <v>-152.81</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B452" s="6">
+        <v>325</v>
+      </c>
+      <c r="C452" s="6">
+        <v>450.77</v>
+      </c>
+      <c r="D452" s="6">
+        <v>-125.77</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="B453" s="6">
+        <v>1200.5</v>
+      </c>
+      <c r="C453" s="6">
+        <v>1297.86</v>
+      </c>
+      <c r="D453" s="6">
+        <v>-97.36</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B454" s="6">
+        <v>810</v>
+      </c>
+      <c r="C454" s="6">
+        <v>935.07</v>
+      </c>
+      <c r="D454" s="6">
+        <v>-125.07</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="B455" s="6">
+        <v>4087</v>
+      </c>
+      <c r="C455" s="6">
+        <v>4573.2</v>
+      </c>
+      <c r="D455" s="6">
+        <v>-486.2</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B456" s="6">
+        <v>11448</v>
+      </c>
+      <c r="C456" s="6">
+        <v>15124.08</v>
+      </c>
+      <c r="D456" s="6">
+        <v>-3676.08</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B457" s="6">
+        <v>1275</v>
+      </c>
+      <c r="C457" s="6">
+        <v>1378.05</v>
+      </c>
+      <c r="D457" s="6">
+        <v>-103.05</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B458" s="6">
+        <v>1588.5</v>
+      </c>
+      <c r="C458" s="6">
+        <v>1714.02</v>
+      </c>
+      <c r="D458" s="6">
+        <v>-125.52</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="B459" s="6">
+        <v>2463</v>
+      </c>
+      <c r="C459" s="6">
+        <v>3106.64</v>
+      </c>
+      <c r="D459" s="6">
+        <v>-643.64</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B460" s="6">
+        <v>592</v>
+      </c>
+      <c r="C460" s="6">
+        <v>716.83</v>
+      </c>
+      <c r="D460" s="6">
+        <v>-124.83</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B461" s="6">
+        <v>1268</v>
+      </c>
+      <c r="C461" s="6">
+        <v>1456.65</v>
+      </c>
+      <c r="D461" s="6">
+        <v>-188.65</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B462" s="6">
+        <v>465</v>
+      </c>
+      <c r="C462" s="6">
+        <v>599.25</v>
+      </c>
+      <c r="D462" s="6">
+        <v>-134.25</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="B463" s="6">
+        <v>825</v>
+      </c>
+      <c r="C463" s="6">
+        <v>963.25</v>
+      </c>
+      <c r="D463" s="6">
+        <v>-138.25</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B464" s="6">
+        <v>4037.5</v>
+      </c>
+      <c r="C464" s="6">
+        <v>4930.33</v>
+      </c>
+      <c r="D464" s="6">
+        <v>-892.83</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B465" s="6">
+        <v>6256.26</v>
+      </c>
+      <c r="C465" s="6">
+        <v>7447.04</v>
+      </c>
+      <c r="D465" s="6">
+        <v>-1190.78</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B466" s="6">
+        <v>10381.27</v>
+      </c>
+      <c r="C466" s="6">
+        <v>12363.33</v>
+      </c>
+      <c r="D466" s="6">
+        <v>-1982.06</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="B467" s="6">
+        <v>1322.75</v>
+      </c>
+      <c r="C467" s="6">
+        <v>1567.74</v>
+      </c>
+      <c r="D467" s="6">
+        <v>-244.99</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B468" s="6">
+        <v>1800</v>
+      </c>
+      <c r="C468" s="6">
+        <v>2042.5</v>
+      </c>
+      <c r="D468" s="6">
+        <v>-242.5</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B469" s="6">
+        <v>1611</v>
+      </c>
+      <c r="C469" s="6">
+        <v>1729.62</v>
+      </c>
+      <c r="D469" s="6">
+        <v>-118.62</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B470" s="6">
+        <v>59349</v>
+      </c>
+      <c r="C470" s="6">
+        <v>64175.25</v>
+      </c>
+      <c r="D470" s="6">
+        <v>-4826.25</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B471" s="6">
+        <v>3281.25</v>
+      </c>
+      <c r="C471" s="6">
+        <v>3952.75</v>
+      </c>
+      <c r="D471" s="6">
+        <v>-671.5</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B472" s="6">
+        <v>1800</v>
+      </c>
+      <c r="C472" s="6">
+        <v>2137.49</v>
+      </c>
+      <c r="D472" s="6">
+        <v>-337.49</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B473" s="6">
+        <v>6669</v>
+      </c>
+      <c r="C473" s="6">
+        <v>7627.76</v>
+      </c>
+      <c r="D473" s="6">
+        <v>-958.76</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B474" s="6">
+        <v>2463.75</v>
+      </c>
+      <c r="C474" s="6">
+        <v>2711.65</v>
+      </c>
+      <c r="D474" s="6">
+        <v>-247.9</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B475" s="6">
+        <v>676</v>
+      </c>
+      <c r="C475" s="6">
+        <v>803.75</v>
+      </c>
+      <c r="D475" s="6">
+        <v>-127.75</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B476" s="6">
+        <v>5493.76</v>
+      </c>
+      <c r="C476" s="6">
+        <v>6017.37</v>
+      </c>
+      <c r="D476" s="6">
+        <v>-523.61</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B477" s="6">
+        <v>6372.39</v>
+      </c>
+      <c r="C477" s="6">
+        <v>6983.96</v>
+      </c>
+      <c r="D477" s="6">
+        <v>-611.57</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B478" s="6">
+        <v>11521.02</v>
+      </c>
+      <c r="C478" s="6">
+        <v>12638.67</v>
+      </c>
+      <c r="D478" s="6">
+        <v>-1117.65</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="B479" s="6">
+        <v>6744.01</v>
+      </c>
+      <c r="C479" s="6">
+        <v>7404.64</v>
+      </c>
+      <c r="D479" s="6">
+        <v>-660.63</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B480" s="6">
+        <v>3450</v>
+      </c>
+      <c r="C480" s="6">
+        <v>4012.37</v>
+      </c>
+      <c r="D480" s="6">
+        <v>-562.37</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B481" s="6">
+        <v>1026</v>
+      </c>
+      <c r="C481" s="6">
+        <v>1132.33</v>
+      </c>
+      <c r="D481" s="6">
+        <v>-106.33</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B482" s="6">
+        <v>2793.75</v>
+      </c>
+      <c r="C482" s="6">
+        <v>3058.37</v>
+      </c>
+      <c r="D482" s="6">
+        <v>-264.62</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B483" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="C483" s="6">
+        <v>29.15</v>
+      </c>
+      <c r="D483" s="6">
+        <v>-1.65</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B484" s="6">
+        <v>41.25</v>
+      </c>
+      <c r="C484" s="6">
+        <v>43.73</v>
+      </c>
+      <c r="D484" s="6">
+        <v>-2.48</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B485" s="6">
+        <v>200</v>
+      </c>
+      <c r="C485" s="6">
+        <v>212</v>
+      </c>
+      <c r="D485" s="6">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B486" s="6">
+        <v>22</v>
+      </c>
+      <c r="C486" s="6">
+        <v>23.32</v>
+      </c>
+      <c r="D486" s="6">
+        <v>-1.32</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B487" s="6">
+        <v>467.5</v>
+      </c>
+      <c r="C487" s="6">
+        <v>495.55</v>
+      </c>
+      <c r="D487" s="6">
+        <v>-28.05</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B488" s="6">
+        <v>1903</v>
+      </c>
+      <c r="C488" s="6">
+        <v>2200.44</v>
+      </c>
+      <c r="D488" s="6">
+        <v>-297.44</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B489" s="6">
+        <v>3543.5</v>
+      </c>
+      <c r="C489" s="6">
+        <v>3818.98</v>
+      </c>
+      <c r="D489" s="6">
+        <v>-275.48</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B490" s="6">
+        <v>910</v>
+      </c>
+      <c r="C490" s="6">
+        <v>1057.45</v>
+      </c>
+      <c r="D490" s="6">
+        <v>-147.45</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B491" s="6">
+        <v>706</v>
+      </c>
+      <c r="C491" s="6">
+        <v>796.37</v>
+      </c>
+      <c r="D491" s="6">
+        <v>-90.37</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B492" s="6">
+        <v>358</v>
+      </c>
+      <c r="C492" s="6">
+        <v>508.05</v>
+      </c>
+      <c r="D492" s="6">
+        <v>-150.05</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B493" s="6">
+        <v>1328</v>
+      </c>
+      <c r="C493" s="6">
+        <v>1486.33</v>
+      </c>
+      <c r="D493" s="6">
+        <v>-158.33</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B494" s="6">
+        <v>1629.25</v>
+      </c>
+      <c r="C494" s="6">
+        <v>1758.44</v>
+      </c>
+      <c r="D494" s="6">
+        <v>-129.19</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B495" s="6">
+        <v>1080</v>
+      </c>
+      <c r="C495" s="6">
+        <v>1205.85</v>
+      </c>
+      <c r="D495" s="6">
+        <v>-125.85</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B496" s="6">
+        <v>368</v>
+      </c>
+      <c r="C496" s="6">
+        <v>505.93</v>
+      </c>
+      <c r="D496" s="6">
+        <v>-137.93</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B497" s="6">
+        <v>255.75</v>
+      </c>
+      <c r="C497" s="6">
+        <v>397.55</v>
+      </c>
+      <c r="D497" s="6">
+        <v>-141.8</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B498" s="6">
+        <v>4075.5</v>
+      </c>
+      <c r="C498" s="6">
+        <v>5109.15</v>
+      </c>
+      <c r="D498" s="6">
+        <v>-1033.65</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="B499" s="6">
+        <v>725</v>
+      </c>
+      <c r="C499" s="6">
+        <v>852.55</v>
+      </c>
+      <c r="D499" s="6">
+        <v>-127.55</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B500" s="6">
+        <v>2940</v>
+      </c>
+      <c r="C500" s="6">
+        <v>3704.37</v>
+      </c>
+      <c r="D500" s="6">
+        <v>-764.37</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B501" s="6">
+        <v>1184</v>
+      </c>
+      <c r="C501" s="6">
+        <v>1435.45</v>
+      </c>
+      <c r="D501" s="6">
+        <v>-251.45</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B502" s="6">
+        <v>3429.5</v>
+      </c>
+      <c r="C502" s="6">
+        <v>3818.97</v>
+      </c>
+      <c r="D502" s="6">
+        <v>-389.47</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B503" s="6">
+        <v>3130</v>
+      </c>
+      <c r="C503" s="6">
+        <v>4338.34</v>
+      </c>
+      <c r="D503" s="6">
+        <v>-1208.34</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B504" s="6">
+        <v>531.25</v>
+      </c>
+      <c r="C504" s="6">
+        <v>702.83</v>
+      </c>
+      <c r="D504" s="6">
+        <v>-171.58</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B505" s="6">
+        <v>211.5</v>
+      </c>
+      <c r="C505" s="6">
+        <v>360.18</v>
+      </c>
+      <c r="D505" s="6">
+        <v>-148.68</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B506" s="6">
+        <v>370</v>
+      </c>
+      <c r="C506" s="6">
+        <v>495.33</v>
+      </c>
+      <c r="D506" s="6">
+        <v>-125.33</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="B507" s="6">
+        <v>984.5</v>
+      </c>
+      <c r="C507" s="6">
+        <v>1135.2</v>
+      </c>
+      <c r="D507" s="6">
+        <v>-150.7</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B508" s="6">
+        <v>1151.5</v>
+      </c>
+      <c r="C508" s="6">
+        <v>1290.44</v>
+      </c>
+      <c r="D508" s="6">
+        <v>-138.94</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B509" s="6">
+        <v>740.25</v>
+      </c>
+      <c r="C509" s="6">
+        <v>851.6</v>
+      </c>
+      <c r="D509" s="6">
+        <v>-111.35</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B510" s="6">
+        <v>182.5</v>
+      </c>
+      <c r="C510" s="6">
+        <v>343.22</v>
+      </c>
+      <c r="D510" s="6">
+        <v>-160.72</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B511" s="6">
+        <v>1371.75</v>
+      </c>
+      <c r="C511" s="6">
+        <v>1571.58</v>
+      </c>
+      <c r="D511" s="6">
+        <v>-199.83</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B512" s="6">
+        <v>14726.25</v>
+      </c>
+      <c r="C512" s="6">
+        <v>15522.75</v>
+      </c>
+      <c r="D512" s="6">
+        <v>-796.5</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="B513" s="6">
+        <v>3002</v>
+      </c>
+      <c r="C513" s="6">
+        <v>3244.98</v>
+      </c>
+      <c r="D513" s="6">
+        <v>-242.98</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B514" s="6">
+        <v>4601.5</v>
+      </c>
+      <c r="C514" s="6">
+        <v>5634.43</v>
+      </c>
+      <c r="D514" s="6">
+        <v>-1032.93</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B515" s="6">
+        <v>2557</v>
+      </c>
+      <c r="C515" s="6">
+        <v>3096.26</v>
+      </c>
+      <c r="D515" s="6">
+        <v>-539.26</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B516" s="6">
+        <v>4392</v>
+      </c>
+      <c r="C516" s="6">
+        <v>5377.12</v>
+      </c>
+      <c r="D516" s="6">
+        <v>-985.12</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B517" s="6">
+        <v>7987.88</v>
+      </c>
+      <c r="C517" s="6">
+        <v>8617.61</v>
+      </c>
+      <c r="D517" s="6">
+        <v>-629.73</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B518" s="6">
+        <v>4809.75</v>
+      </c>
+      <c r="C518" s="6">
+        <v>5261.58</v>
+      </c>
+      <c r="D518" s="6">
+        <v>-451.83</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B519" s="6">
+        <v>540</v>
+      </c>
+      <c r="C519" s="6">
+        <v>667.05</v>
+      </c>
+      <c r="D519" s="6">
+        <v>-127.05</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B520" s="6">
+        <v>2160</v>
+      </c>
+      <c r="C520" s="6">
+        <v>2430.78</v>
+      </c>
+      <c r="D520" s="6">
+        <v>-270.78</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="B521" s="6">
+        <v>2073.5</v>
+      </c>
+      <c r="C521" s="6">
+        <v>2411.49</v>
+      </c>
+      <c r="D521" s="6">
+        <v>-337.99</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B522" s="6">
+        <v>5183</v>
+      </c>
+      <c r="C522" s="6">
+        <v>5616.04</v>
+      </c>
+      <c r="D522" s="6">
+        <v>-433.04</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B523" s="6">
+        <v>4788</v>
+      </c>
+      <c r="C523" s="6">
+        <v>5615.09</v>
+      </c>
+      <c r="D523" s="6">
+        <v>-827.09</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B524" s="6">
+        <v>318</v>
+      </c>
+      <c r="C524" s="6">
+        <v>449.71</v>
+      </c>
+      <c r="D524" s="6">
+        <v>-131.71</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B525" s="6">
+        <v>5513</v>
+      </c>
+      <c r="C525" s="6">
+        <v>6270.96</v>
+      </c>
+      <c r="D525" s="6">
+        <v>-757.96</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="B526" s="6">
+        <v>6615</v>
+      </c>
+      <c r="C526" s="6">
+        <v>7255.97</v>
+      </c>
+      <c r="D526" s="6">
+        <v>-640.97</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B527" s="6">
+        <v>990</v>
+      </c>
+      <c r="C527" s="6">
+        <v>1128.11</v>
+      </c>
+      <c r="D527" s="6">
+        <v>-138.11</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B528" s="6">
+        <v>5254.5</v>
+      </c>
+      <c r="C528" s="6">
+        <v>5933.35</v>
+      </c>
+      <c r="D528" s="6">
+        <v>-678.85</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B529" s="6">
+        <v>632</v>
+      </c>
+      <c r="C529" s="6">
+        <v>740.15</v>
+      </c>
+      <c r="D529" s="6">
+        <v>-108.15</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B530" s="6">
+        <v>456.25</v>
+      </c>
+      <c r="C530" s="6">
+        <v>620.07</v>
+      </c>
+      <c r="D530" s="6">
+        <v>-163.82</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B531" s="6">
+        <v>7583.63</v>
+      </c>
+      <c r="C531" s="6">
+        <v>8483.05</v>
+      </c>
+      <c r="D531" s="6">
+        <v>-899.42</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="B532" s="6">
+        <v>1615.75</v>
+      </c>
+      <c r="C532" s="6">
+        <v>1778.95</v>
+      </c>
+      <c r="D532" s="6">
+        <v>-163.2</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B533" s="6">
+        <v>4004.25</v>
+      </c>
+      <c r="C533" s="6">
+        <v>4391.58</v>
+      </c>
+      <c r="D533" s="6">
+        <v>-387.33</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B534" s="6">
+        <v>9923.13</v>
+      </c>
+      <c r="C534" s="6">
+        <v>10877.86</v>
+      </c>
+      <c r="D534" s="6">
+        <v>-954.73</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B535" s="6">
+        <v>1950.75</v>
+      </c>
+      <c r="C535" s="6">
+        <v>2142.53</v>
+      </c>
+      <c r="D535" s="6">
+        <v>-191.78</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B536" s="6">
+        <v>9799.89</v>
+      </c>
+      <c r="C536" s="6">
+        <v>10855.03</v>
+      </c>
+      <c r="D536" s="6">
+        <v>-1055.14</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B537" s="6">
+        <v>4175.25</v>
+      </c>
+      <c r="C537" s="6">
+        <v>4615.98</v>
+      </c>
+      <c r="D537" s="6">
+        <v>-440.73</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B538" s="6">
+        <v>491.75</v>
+      </c>
+      <c r="C538" s="6">
+        <v>592.54</v>
+      </c>
+      <c r="D538" s="6">
+        <v>-100.79</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B539" s="6">
+        <v>2931.5</v>
+      </c>
+      <c r="C539" s="6">
+        <v>3420.89</v>
+      </c>
+      <c r="D539" s="6">
+        <v>-489.39</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B540" s="6">
+        <v>2322.75</v>
+      </c>
+      <c r="C540" s="6">
+        <v>2736.39</v>
+      </c>
+      <c r="D540" s="6">
+        <v>-413.64</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B541" s="6">
+        <v>1368</v>
+      </c>
+      <c r="C541" s="6">
+        <v>1499.11</v>
+      </c>
+      <c r="D541" s="6">
+        <v>-131.11</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="B542" s="6">
+        <v>4608</v>
+      </c>
+      <c r="C542" s="6">
+        <v>5055.14</v>
+      </c>
+      <c r="D542" s="6">
+        <v>-447.14</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B543" s="6">
+        <v>1662.5</v>
+      </c>
+      <c r="C543" s="6">
+        <v>1899.52</v>
+      </c>
+      <c r="D543" s="6">
+        <v>-237.02</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B544" s="6">
+        <v>2216.5</v>
+      </c>
+      <c r="C544" s="6">
+        <v>2432.7</v>
+      </c>
+      <c r="D544" s="6">
+        <v>-216.2</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B545" s="6">
+        <v>4115.75</v>
+      </c>
+      <c r="C545" s="6">
+        <v>4507.65</v>
+      </c>
+      <c r="D545" s="6">
+        <v>-391.9</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B546" s="6">
+        <v>52</v>
+      </c>
+      <c r="C546" s="6">
+        <v>55.12</v>
+      </c>
+      <c r="D546" s="6">
+        <v>-3.12</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="B547" s="6">
+        <v>55</v>
+      </c>
+      <c r="C547" s="6">
+        <v>58.3</v>
+      </c>
+      <c r="D547" s="6">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B548" s="6">
+        <v>120</v>
+      </c>
+      <c r="C548" s="6">
+        <v>127.2</v>
+      </c>
+      <c r="D548" s="6">
+        <v>-7.2</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B549" s="6">
+        <v>2021.5</v>
+      </c>
+      <c r="C549" s="6">
+        <v>2215.4</v>
+      </c>
+      <c r="D549" s="6">
+        <v>-193.9</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B550" s="6">
+        <v>693.75</v>
+      </c>
+      <c r="C550" s="6">
+        <v>820.28</v>
+      </c>
+      <c r="D550" s="6">
+        <v>-126.53</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B551" s="6">
+        <v>1814.5</v>
+      </c>
+      <c r="C551" s="6">
+        <v>1954.8</v>
+      </c>
+      <c r="D551" s="6">
+        <v>-140.3</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B552" s="6">
+        <v>358</v>
+      </c>
+      <c r="C552" s="6">
+        <v>508.05</v>
+      </c>
+      <c r="D552" s="6">
+        <v>-150.05</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="B553" s="6">
+        <v>210.63</v>
+      </c>
+      <c r="C553" s="6">
+        <v>325.02</v>
+      </c>
+      <c r="D553" s="6">
+        <v>-114.39</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B554" s="6">
+        <v>351</v>
+      </c>
+      <c r="C554" s="6">
+        <v>475.19</v>
+      </c>
+      <c r="D554" s="6">
+        <v>-124.19</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="B555" s="6">
+        <v>357</v>
+      </c>
+      <c r="C555" s="6">
+        <v>494.27</v>
+      </c>
+      <c r="D555" s="6">
+        <v>-137.27</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="B556" s="6">
+        <v>3154</v>
+      </c>
+      <c r="C556" s="6">
+        <v>3526.94</v>
+      </c>
+      <c r="D556" s="6">
+        <v>-372.94</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B557" s="6">
+        <v>11513</v>
+      </c>
+      <c r="C557" s="6">
+        <v>12403.05</v>
+      </c>
+      <c r="D557" s="6">
+        <v>-890.05</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B558" s="6">
+        <v>1665</v>
+      </c>
+      <c r="C558" s="6">
+        <v>1833.27</v>
+      </c>
+      <c r="D558" s="6">
+        <v>-168.27</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="B559" s="6">
+        <v>4075.5</v>
+      </c>
+      <c r="C559" s="6">
+        <v>5109.15</v>
+      </c>
+      <c r="D559" s="6">
+        <v>-1033.65</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B560" s="6">
+        <v>760</v>
+      </c>
+      <c r="C560" s="6">
+        <v>857.85</v>
+      </c>
+      <c r="D560" s="6">
+        <v>-97.85</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="B561" s="6">
+        <v>1377.5</v>
+      </c>
+      <c r="C561" s="6">
+        <v>1491.58</v>
+      </c>
+      <c r="D561" s="6">
+        <v>-114.08</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B562" s="6">
+        <v>1450</v>
+      </c>
+      <c r="C562" s="6">
+        <v>1705.1</v>
+      </c>
+      <c r="D562" s="6">
+        <v>-255.1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B563" s="6">
+        <v>1911</v>
+      </c>
+      <c r="C563" s="6">
+        <v>2180.95</v>
+      </c>
+      <c r="D563" s="6">
+        <v>-269.95</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B564" s="6">
+        <v>857.5</v>
+      </c>
+      <c r="C564" s="6">
+        <v>929.4</v>
+      </c>
+      <c r="D564" s="6">
+        <v>-71.9</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B565" s="6">
+        <v>1327.5</v>
+      </c>
+      <c r="C565" s="6">
+        <v>1599.55</v>
+      </c>
+      <c r="D565" s="6">
+        <v>-272.05</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B566" s="6">
+        <v>1588.5</v>
+      </c>
+      <c r="C566" s="6">
+        <v>1714.02</v>
+      </c>
+      <c r="D566" s="6">
+        <v>-125.52</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B567" s="6">
+        <v>3040</v>
+      </c>
+      <c r="C567" s="6">
+        <v>3466.52</v>
+      </c>
+      <c r="D567" s="6">
+        <v>-426.52</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B568" s="6">
+        <v>870</v>
+      </c>
+      <c r="C568" s="6">
+        <v>963.85</v>
+      </c>
+      <c r="D568" s="6">
+        <v>-93.85</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="B569" s="6">
+        <v>7052</v>
+      </c>
+      <c r="C569" s="6">
+        <v>7621.29</v>
+      </c>
+      <c r="D569" s="6">
+        <v>-569.29</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B570" s="6">
+        <v>26279.5</v>
+      </c>
+      <c r="C570" s="6">
+        <v>29701.52</v>
+      </c>
+      <c r="D570" s="6">
+        <v>-3422.02</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B571" s="6">
+        <v>5870</v>
+      </c>
+      <c r="C571" s="6">
+        <v>8672.48</v>
+      </c>
+      <c r="D571" s="6">
+        <v>-2802.48</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B572" s="6">
+        <v>2331</v>
+      </c>
+      <c r="C572" s="6">
+        <v>2699.6</v>
+      </c>
+      <c r="D572" s="6">
+        <v>-368.6</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B573" s="6">
+        <v>3458</v>
+      </c>
+      <c r="C573" s="6">
+        <v>3763.54</v>
+      </c>
+      <c r="D573" s="6">
+        <v>-305.54</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B574" s="6">
+        <v>3182</v>
+      </c>
+      <c r="C574" s="6">
+        <v>3723.61</v>
+      </c>
+      <c r="D574" s="6">
+        <v>-541.61</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B575" s="6">
+        <v>822.5</v>
+      </c>
+      <c r="C575" s="6">
+        <v>924.1</v>
+      </c>
+      <c r="D575" s="6">
+        <v>-101.6</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B576" s="6">
+        <v>493.5</v>
+      </c>
+      <c r="C576" s="6">
+        <v>600.48</v>
+      </c>
+      <c r="D576" s="6">
+        <v>-106.98</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B577" s="6">
+        <v>1482</v>
+      </c>
+      <c r="C577" s="6">
+        <v>1602.35</v>
+      </c>
+      <c r="D577" s="6">
+        <v>-120.35</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="B578" s="6">
+        <v>357</v>
+      </c>
+      <c r="C578" s="6">
+        <v>481.55</v>
+      </c>
+      <c r="D578" s="6">
+        <v>-124.55</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B579" s="6">
+        <v>10363.14</v>
+      </c>
+      <c r="C579" s="6">
+        <v>11356.99</v>
+      </c>
+      <c r="D579" s="6">
+        <v>-993.85</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B580" s="6">
+        <v>3002</v>
+      </c>
+      <c r="C580" s="6">
+        <v>3244.98</v>
+      </c>
+      <c r="D580" s="6">
+        <v>-242.98</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="B581" s="6">
+        <v>3847.5</v>
+      </c>
+      <c r="C581" s="6">
+        <v>4054.5</v>
+      </c>
+      <c r="D581" s="6">
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="B582" s="6">
+        <v>4899.5</v>
+      </c>
+      <c r="C582" s="6">
+        <v>5948.46</v>
+      </c>
+      <c r="D582" s="6">
+        <v>-1048.96</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="B583" s="6">
+        <v>1358.5</v>
+      </c>
+      <c r="C583" s="6">
+        <v>1609.88</v>
+      </c>
+      <c r="D583" s="6">
+        <v>-251.38</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="B584" s="6">
+        <v>1144</v>
+      </c>
+      <c r="C584" s="6">
+        <v>1357.07</v>
+      </c>
+      <c r="D584" s="6">
+        <v>-213.07</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="B585" s="6">
+        <v>10518.75</v>
+      </c>
+      <c r="C585" s="6">
+        <v>12526.02</v>
+      </c>
+      <c r="D585" s="6">
+        <v>-2007.27</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="B586" s="6">
+        <v>1400</v>
+      </c>
+      <c r="C586" s="6">
+        <v>1577.55</v>
+      </c>
+      <c r="D586" s="6">
+        <v>-177.55</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="B587" s="6">
+        <v>1440</v>
+      </c>
+      <c r="C587" s="6">
+        <v>1728.74</v>
+      </c>
+      <c r="D587" s="6">
+        <v>-288.74</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B588" s="6">
+        <v>3401</v>
+      </c>
+      <c r="C588" s="6">
+        <v>3667.92</v>
+      </c>
+      <c r="D588" s="6">
+        <v>-266.92</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B589" s="6">
+        <v>751.5</v>
+      </c>
+      <c r="C589" s="6">
+        <v>853.04</v>
+      </c>
+      <c r="D589" s="6">
+        <v>-101.54</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="B590" s="6">
+        <v>765</v>
+      </c>
+      <c r="C590" s="6">
+        <v>854.63</v>
+      </c>
+      <c r="D590" s="6">
+        <v>-89.63</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B591" s="6">
+        <v>3391.5</v>
+      </c>
+      <c r="C591" s="6">
+        <v>3693.04</v>
+      </c>
+      <c r="D591" s="6">
+        <v>-301.54</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="B592" s="6">
+        <v>510</v>
+      </c>
+      <c r="C592" s="6">
+        <v>625.67</v>
+      </c>
+      <c r="D592" s="6">
+        <v>-115.67</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B593" s="6">
+        <v>532.5</v>
+      </c>
+      <c r="C593" s="6">
+        <v>655.64</v>
+      </c>
+      <c r="D593" s="6">
+        <v>-123.14</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B594" s="6">
+        <v>8493</v>
+      </c>
+      <c r="C594" s="6">
+        <v>9901.99</v>
+      </c>
+      <c r="D594" s="6">
+        <v>-1408.99</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B595" s="6">
+        <v>17185</v>
+      </c>
+      <c r="C595" s="6">
+        <v>19240.59</v>
+      </c>
+      <c r="D595" s="6">
+        <v>-2055.59</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B596" s="6">
+        <v>492</v>
+      </c>
+      <c r="C596" s="6">
+        <v>608.25</v>
+      </c>
+      <c r="D596" s="6">
+        <v>-116.25</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B597" s="6">
+        <v>1738</v>
+      </c>
+      <c r="C597" s="6">
+        <v>2866</v>
+      </c>
+      <c r="D597" s="6">
+        <v>-1128</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B598" s="6">
+        <v>4068</v>
+      </c>
+      <c r="C598" s="6">
+        <v>4516.4</v>
+      </c>
+      <c r="D598" s="6">
+        <v>-448.4</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="B599" s="6">
+        <v>12008</v>
+      </c>
+      <c r="C599" s="6">
+        <v>16512.95</v>
+      </c>
+      <c r="D599" s="6">
+        <v>-4504.95</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="B600" s="6">
+        <v>1467.75</v>
+      </c>
+      <c r="C600" s="6">
+        <v>1691.14</v>
+      </c>
+      <c r="D600" s="6">
+        <v>-223.39</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="B601" s="6">
+        <v>1078</v>
+      </c>
+      <c r="C601" s="6">
+        <v>1312.09</v>
+      </c>
+      <c r="D601" s="6">
+        <v>-234.09</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="B602" s="6">
+        <v>5002</v>
+      </c>
+      <c r="C602" s="6">
+        <v>5692.73</v>
+      </c>
+      <c r="D602" s="6">
+        <v>-690.73</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="B603" s="6">
+        <v>2460</v>
+      </c>
+      <c r="C603" s="6">
+        <v>2800</v>
+      </c>
+      <c r="D603" s="6">
+        <v>-340</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="B604" s="6">
+        <v>3934.01</v>
+      </c>
+      <c r="C604" s="6">
+        <v>4315.01</v>
+      </c>
+      <c r="D604" s="6">
+        <v>-381</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="B605" s="6">
+        <v>8200.38</v>
+      </c>
+      <c r="C605" s="6">
+        <v>8985.49</v>
+      </c>
+      <c r="D605" s="6">
+        <v>-785.11</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="B606" s="6">
+        <v>4468.25</v>
+      </c>
+      <c r="C606" s="6">
+        <v>4946.88</v>
+      </c>
+      <c r="D606" s="6">
+        <v>-478.63</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="B607" s="6">
+        <v>2295</v>
+      </c>
+      <c r="C607" s="6">
+        <v>2531.08</v>
+      </c>
+      <c r="D607" s="6">
+        <v>-236.08</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="B608" s="6">
+        <v>1222.5</v>
+      </c>
+      <c r="C608" s="6">
+        <v>1336.4</v>
+      </c>
+      <c r="D608" s="6">
+        <v>-113.9</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B609" s="6">
+        <v>3300</v>
+      </c>
+      <c r="C609" s="6">
+        <v>3600.29</v>
+      </c>
+      <c r="D609" s="6">
+        <v>-300.29</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="B610" s="6">
+        <v>1425</v>
+      </c>
+      <c r="C610" s="6">
+        <v>1696.22</v>
+      </c>
+      <c r="D610" s="6">
+        <v>-271.22</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="B611" s="6">
+        <v>2256</v>
+      </c>
+      <c r="C611" s="6">
+        <v>2798.93</v>
+      </c>
+      <c r="D611" s="6">
+        <v>-542.93</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B612" s="6">
+        <v>1573</v>
+      </c>
+      <c r="C612" s="6">
+        <v>1801.47</v>
+      </c>
+      <c r="D612" s="6">
+        <v>-228.47</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B613" s="6">
+        <v>499.5</v>
+      </c>
+      <c r="C613" s="6">
+        <v>643.16</v>
+      </c>
+      <c r="D613" s="6">
+        <v>-143.66</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="B614" s="6">
+        <v>815</v>
+      </c>
+      <c r="C614" s="6">
+        <v>930.95</v>
+      </c>
+      <c r="D614" s="6">
+        <v>-115.95</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="B615" s="6">
+        <v>5710.5</v>
+      </c>
+      <c r="C615" s="6">
+        <v>6237.57</v>
+      </c>
+      <c r="D615" s="6">
+        <v>-527.07</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B616" s="6">
+        <v>855</v>
+      </c>
+      <c r="C616" s="6">
+        <v>945.08</v>
+      </c>
+      <c r="D616" s="6">
+        <v>-90.08</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="B617" s="6">
+        <v>3038.75</v>
+      </c>
+      <c r="C617" s="6">
+        <v>3337.41</v>
+      </c>
+      <c r="D617" s="6">
+        <v>-298.66</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="B618" s="6">
+        <v>5511.5</v>
+      </c>
+      <c r="C618" s="6">
+        <v>6037.23</v>
+      </c>
+      <c r="D618" s="6">
+        <v>-525.73</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="B619" s="6">
+        <v>6534</v>
+      </c>
+      <c r="C619" s="6">
+        <v>7156.33</v>
+      </c>
+      <c r="D619" s="6">
+        <v>-622.33</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B620" s="6">
+        <v>1724.25</v>
+      </c>
+      <c r="C620" s="6">
+        <v>1859.14</v>
+      </c>
+      <c r="D620" s="6">
+        <v>-134.89</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="B621" s="6">
+        <v>907.5</v>
+      </c>
+      <c r="C621" s="6">
+        <v>982.4</v>
+      </c>
+      <c r="D621" s="6">
+        <v>-74.9</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="B622" s="6">
+        <v>3538.75</v>
+      </c>
+      <c r="C622" s="6">
+        <v>3813.94</v>
+      </c>
+      <c r="D622" s="6">
+        <v>-275.19</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="B623" s="6">
+        <v>1062</v>
+      </c>
+      <c r="C623" s="6">
+        <v>1198.07</v>
+      </c>
+      <c r="D623" s="6">
+        <v>-136.07</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="B624" s="6">
+        <v>2388.5</v>
+      </c>
+      <c r="C624" s="6">
+        <v>2549.3</v>
+      </c>
+      <c r="D624" s="6">
+        <v>-160.8</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="B625" s="6">
+        <v>2739</v>
+      </c>
+      <c r="C625" s="6">
+        <v>3065.04</v>
+      </c>
+      <c r="D625" s="6">
+        <v>-326.04</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="B626" s="6">
+        <v>3608</v>
+      </c>
+      <c r="C626" s="6">
+        <v>4182.75</v>
+      </c>
+      <c r="D626" s="6">
+        <v>-574.75</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="B627" s="6">
+        <v>984</v>
+      </c>
+      <c r="C627" s="6">
+        <v>1065.93</v>
+      </c>
+      <c r="D627" s="6">
+        <v>-81.93</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="B628" s="6">
+        <v>2331</v>
+      </c>
+      <c r="C628" s="6">
+        <v>2725.79</v>
+      </c>
+      <c r="D628" s="6">
+        <v>-394.79</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="B629" s="6">
+        <v>2331</v>
+      </c>
+      <c r="C629" s="6">
+        <v>2725.79</v>
+      </c>
+      <c r="D629" s="6">
+        <v>-394.79</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="B630" s="6">
+        <v>2970</v>
+      </c>
+      <c r="C630" s="6">
+        <v>4169.93</v>
+      </c>
+      <c r="D630" s="6">
+        <v>-1199.93</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="B631" s="6">
+        <v>1292</v>
+      </c>
+      <c r="C631" s="6">
+        <v>1334.25</v>
+      </c>
+      <c r="D631" s="6">
+        <v>-42.25</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="B632" s="6">
+        <v>16928</v>
+      </c>
+      <c r="C632" s="6">
+        <v>18381.87</v>
+      </c>
+      <c r="D632" s="6">
+        <v>-1453.87</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B633" s="6">
+        <v>5510</v>
+      </c>
+      <c r="C633" s="6">
+        <v>6208</v>
+      </c>
+      <c r="D633" s="6">
+        <v>-698</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="B634" s="6">
+        <v>652.5</v>
+      </c>
+      <c r="C634" s="6">
+        <v>729.96</v>
+      </c>
+      <c r="D634" s="6">
+        <v>-77.46</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="B635" s="6">
+        <v>830.5</v>
+      </c>
+      <c r="C635" s="6">
+        <v>982.36</v>
+      </c>
+      <c r="D635" s="6">
+        <v>-151.86</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B636" s="6">
+        <v>620</v>
+      </c>
+      <c r="C636" s="6">
+        <v>768.81</v>
+      </c>
+      <c r="D636" s="6">
+        <v>-148.81</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="B637" s="6">
+        <v>882</v>
+      </c>
+      <c r="C637" s="6">
+        <v>957.81</v>
+      </c>
+      <c r="D637" s="6">
+        <v>-75.81</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="B638" s="6">
+        <v>882.5</v>
+      </c>
+      <c r="C638" s="6">
+        <v>955.9</v>
+      </c>
+      <c r="D638" s="6">
+        <v>-73.4</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="B639" s="6">
+        <v>1357.5</v>
+      </c>
+      <c r="C639" s="6">
+        <v>1529.1</v>
+      </c>
+      <c r="D639" s="6">
+        <v>-171.6</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="B640" s="6">
+        <v>6187.5</v>
+      </c>
+      <c r="C640" s="6">
+        <v>6909.18</v>
+      </c>
+      <c r="D640" s="6">
+        <v>-721.68</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="B641" s="6">
+        <v>3074.5</v>
+      </c>
+      <c r="C641" s="6">
+        <v>3336.18</v>
+      </c>
+      <c r="D641" s="6">
+        <v>-261.68</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="B642" s="6">
+        <v>495</v>
+      </c>
+      <c r="C642" s="6">
+        <v>622.53</v>
+      </c>
+      <c r="D642" s="6">
+        <v>-127.53</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="B643" s="6">
+        <v>2752.5</v>
+      </c>
+      <c r="C643" s="6">
+        <v>2970.75</v>
+      </c>
+      <c r="D643" s="6">
+        <v>-218.25</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="B644" s="6">
+        <v>540</v>
+      </c>
+      <c r="C644" s="6">
+        <v>695.63</v>
+      </c>
+      <c r="D644" s="6">
+        <v>-155.63</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B645" s="6">
+        <v>1757.5</v>
+      </c>
+      <c r="C645" s="6">
+        <v>1911.98</v>
+      </c>
+      <c r="D645" s="6">
+        <v>-154.48</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="B646" s="6">
+        <v>283.5</v>
+      </c>
+      <c r="C646" s="6">
+        <v>426.75</v>
+      </c>
+      <c r="D646" s="6">
+        <v>-143.25</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="B647" s="6">
+        <v>358</v>
+      </c>
+      <c r="C647" s="6">
+        <v>495.33</v>
+      </c>
+      <c r="D647" s="6">
+        <v>-137.33</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="B648" s="6">
+        <v>149</v>
+      </c>
+      <c r="C648" s="6">
+        <v>264.99</v>
+      </c>
+      <c r="D648" s="6">
+        <v>-115.99</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="B649" s="6">
+        <v>499.5</v>
+      </c>
+      <c r="C649" s="6">
+        <v>652.7</v>
+      </c>
+      <c r="D649" s="6">
+        <v>-153.2</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="B650" s="6">
+        <v>1480.5</v>
+      </c>
+      <c r="C650" s="6">
+        <v>1637.7</v>
+      </c>
+      <c r="D650" s="6">
+        <v>-157.2</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="B651" s="6">
+        <v>3969.13</v>
+      </c>
+      <c r="C651" s="6">
+        <v>4353.29</v>
+      </c>
+      <c r="D651" s="6">
+        <v>-384.16</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="B652" s="6">
+        <v>8753.38</v>
+      </c>
+      <c r="C652" s="6">
+        <v>9593.14</v>
+      </c>
+      <c r="D652" s="6">
+        <v>-839.76</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="B653" s="6">
+        <v>1334.75</v>
+      </c>
+      <c r="C653" s="6">
+        <v>1463.86</v>
+      </c>
+      <c r="D653" s="6">
+        <v>-129.11</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="B654" s="6">
+        <v>2962.5</v>
+      </c>
+      <c r="C654" s="6">
+        <v>3237.24</v>
+      </c>
+      <c r="D654" s="6">
+        <v>-274.74</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="B655" s="6">
+        <v>2528</v>
+      </c>
+      <c r="C655" s="6">
+        <v>2735.22</v>
+      </c>
+      <c r="D655" s="6">
+        <v>-207.22</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="B656" s="6">
+        <v>867.5</v>
+      </c>
+      <c r="C656" s="6">
+        <v>1008.9</v>
+      </c>
+      <c r="D656" s="6">
+        <v>-141.4</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="B657" s="6">
+        <v>1358.5</v>
+      </c>
+      <c r="C657" s="6">
+        <v>1609.88</v>
+      </c>
+      <c r="D657" s="6">
+        <v>-251.38</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="B658" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C658" s="6">
+        <v>1188.53</v>
+      </c>
+      <c r="D658" s="6">
+        <v>-187.53</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="B659" s="6">
+        <v>2002</v>
+      </c>
+      <c r="C659" s="6">
+        <v>2198.97</v>
+      </c>
+      <c r="D659" s="6">
+        <v>-196.97</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="B660" s="6">
+        <v>4105.5</v>
+      </c>
+      <c r="C660" s="6">
+        <v>4432.71</v>
+      </c>
+      <c r="D660" s="6">
+        <v>-327.21</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="B661" s="6">
+        <v>1620</v>
+      </c>
+      <c r="C661" s="6">
+        <v>1842.9</v>
+      </c>
+      <c r="D661" s="6">
+        <v>-222.9</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="B662" s="6">
+        <v>3401</v>
+      </c>
+      <c r="C662" s="6">
+        <v>3667.92</v>
+      </c>
+      <c r="D662" s="6">
+        <v>-266.92</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="B663" s="6">
+        <v>682</v>
+      </c>
+      <c r="C663" s="6">
+        <v>770.93</v>
+      </c>
+      <c r="D663" s="6">
+        <v>-88.93</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="B664" s="6">
+        <v>1695.75</v>
+      </c>
+      <c r="C664" s="6">
+        <v>1875</v>
+      </c>
+      <c r="D664" s="6">
+        <v>-179.25</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="B665" s="6">
+        <v>1700.5</v>
+      </c>
+      <c r="C665" s="6">
+        <v>1700.5</v>
+      </c>
+      <c r="D665" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="B666" s="6">
+        <v>733.5</v>
+      </c>
+      <c r="C666" s="6">
+        <v>841.74</v>
+      </c>
+      <c r="D666" s="6">
+        <v>-108.24</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="B667" s="6">
+        <v>3905</v>
+      </c>
+      <c r="C667" s="6">
+        <v>4231.15</v>
+      </c>
+      <c r="D667" s="6">
+        <v>-326.15</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="B668" s="6">
+        <v>800</v>
+      </c>
+      <c r="C668" s="6">
+        <v>848</v>
+      </c>
+      <c r="D668" s="6">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="B669" s="6">
+        <v>169</v>
+      </c>
+      <c r="C669" s="6">
+        <v>179.14</v>
+      </c>
+      <c r="D669" s="6">
+        <v>-10.14</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="B670" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="C670" s="6">
+        <v>87.45</v>
+      </c>
+      <c r="D670" s="6">
+        <v>-4.95</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="B671" s="6">
+        <v>16501.5</v>
+      </c>
+      <c r="C671" s="6">
+        <v>17912.25</v>
+      </c>
+      <c r="D671" s="6">
+        <v>-1410.75</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="B672" s="6">
+        <v>2985</v>
+      </c>
+      <c r="C672" s="6">
+        <v>3245.19</v>
+      </c>
+      <c r="D672" s="6">
+        <v>-260.19</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="B673" s="6">
+        <v>39985.76</v>
+      </c>
+      <c r="C673" s="6">
+        <v>45063.01</v>
+      </c>
+      <c r="D673" s="6">
+        <v>-5077.25</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="B674" s="6">
+        <v>2775</v>
+      </c>
+      <c r="C674" s="6">
+        <v>3133.9</v>
+      </c>
+      <c r="D674" s="6">
+        <v>-358.9</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="B675" s="6">
+        <v>1197</v>
+      </c>
+      <c r="C675" s="6">
+        <v>1307.25</v>
+      </c>
+      <c r="D675" s="6">
+        <v>-110.25</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="B676" s="6">
+        <v>612.5</v>
+      </c>
+      <c r="C676" s="6">
+        <v>791.03</v>
+      </c>
+      <c r="D676" s="6">
+        <v>-178.53</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="B677" s="6">
+        <v>9310</v>
+      </c>
+      <c r="C677" s="6">
+        <v>10423.25</v>
+      </c>
+      <c r="D677" s="6">
+        <v>-1113.25</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="B678" s="6">
+        <v>8728.5</v>
+      </c>
+      <c r="C678" s="6">
+        <v>10234.57</v>
+      </c>
+      <c r="D678" s="6">
+        <v>-1506.07</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="B679" s="6">
+        <v>918</v>
+      </c>
+      <c r="C679" s="6">
+        <v>1083.59</v>
+      </c>
+      <c r="D679" s="6">
+        <v>-165.59</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="B680" s="6">
+        <v>2073.5</v>
+      </c>
+      <c r="C680" s="6">
+        <v>2276.88</v>
+      </c>
+      <c r="D680" s="6">
+        <v>-203.38</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="B681" s="6">
+        <v>2970</v>
+      </c>
+      <c r="C681" s="6">
+        <v>3384.32</v>
+      </c>
+      <c r="D681" s="6">
+        <v>-414.32</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="B682" s="6">
+        <v>9912</v>
+      </c>
+      <c r="C682" s="6">
+        <v>10913.75</v>
+      </c>
+      <c r="D682" s="6">
+        <v>-1001.75</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="B683" s="6">
+        <v>932.25</v>
+      </c>
+      <c r="C683" s="6">
+        <v>1055.23</v>
+      </c>
+      <c r="D683" s="6">
+        <v>-122.98</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="B684" s="6">
+        <v>5056</v>
+      </c>
+      <c r="C684" s="6">
+        <v>6717.22</v>
+      </c>
+      <c r="D684" s="6">
+        <v>-1661.22</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="B685" s="6">
+        <v>1264</v>
+      </c>
+      <c r="C685" s="6">
+        <v>1484.27</v>
+      </c>
+      <c r="D685" s="6">
+        <v>-220.27</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="B686" s="6">
+        <v>1733.75</v>
+      </c>
+      <c r="C686" s="6">
+        <v>1904.6</v>
+      </c>
+      <c r="D686" s="6">
+        <v>-170.85</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="B687" s="6">
+        <v>4920</v>
+      </c>
+      <c r="C687" s="6">
+        <v>5600</v>
+      </c>
+      <c r="D687" s="6">
+        <v>-680</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="B688" s="6">
+        <v>485</v>
+      </c>
+      <c r="C688" s="6">
+        <v>612.95</v>
+      </c>
+      <c r="D688" s="6">
+        <v>-127.95</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="B689" s="6">
+        <v>7938.26</v>
+      </c>
+      <c r="C689" s="6">
+        <v>8706.59</v>
+      </c>
+      <c r="D689" s="6">
+        <v>-768.33</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="B690" s="6">
+        <v>2634.38</v>
+      </c>
+      <c r="C690" s="6">
+        <v>2889.43</v>
+      </c>
+      <c r="D690" s="6">
+        <v>-255.05</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B691" s="6">
+        <v>4156.25</v>
+      </c>
+      <c r="C691" s="6">
+        <v>4552.7</v>
+      </c>
+      <c r="D691" s="6">
+        <v>-396.45</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B692" s="6">
+        <v>1172</v>
+      </c>
+      <c r="C692" s="6">
+        <v>1284.99</v>
+      </c>
+      <c r="D692" s="6">
+        <v>-112.99</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="B693" s="6">
+        <v>3936</v>
+      </c>
+      <c r="C693" s="6">
+        <v>4300.16</v>
+      </c>
+      <c r="D693" s="6">
+        <v>-364.16</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="B694" s="6">
+        <v>5586</v>
+      </c>
+      <c r="C694" s="6">
+        <v>6418.93</v>
+      </c>
+      <c r="D694" s="6">
+        <v>-832.93</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="B695" s="6">
+        <v>2309.5</v>
+      </c>
+      <c r="C695" s="6">
+        <v>2531.28</v>
+      </c>
+      <c r="D695" s="6">
+        <v>-221.78</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="B696" s="6">
+        <v>2011.5</v>
+      </c>
+      <c r="C696" s="6">
+        <v>2206.92</v>
+      </c>
+      <c r="D696" s="6">
+        <v>-195.42</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="B697" s="6">
+        <v>1292</v>
+      </c>
+      <c r="C697" s="6">
+        <v>1334.25</v>
+      </c>
+      <c r="D697" s="6">
+        <v>-42.25</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="B698" s="6">
+        <v>1277.5</v>
+      </c>
+      <c r="C698" s="6">
+        <v>1409.16</v>
+      </c>
+      <c r="D698" s="6">
+        <v>-131.66</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="B699" s="6">
+        <v>1284</v>
+      </c>
+      <c r="C699" s="6">
+        <v>1403.01</v>
+      </c>
+      <c r="D699" s="6">
+        <v>-119.01</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="B700" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C700" s="6">
+        <v>1416.43</v>
+      </c>
+      <c r="D700" s="6">
+        <v>-216.43</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="B701" s="6">
+        <v>10094.76</v>
+      </c>
+      <c r="C701" s="6">
+        <v>12033.93</v>
+      </c>
+      <c r="D701" s="6">
+        <v>-1939.17</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="B702" s="6">
+        <v>3003</v>
+      </c>
+      <c r="C702" s="6">
+        <v>3565.58</v>
+      </c>
+      <c r="D702" s="6">
+        <v>-562.58</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="B703" s="6">
+        <v>751.5</v>
+      </c>
+      <c r="C703" s="6">
+        <v>853.04</v>
+      </c>
+      <c r="D703" s="6">
+        <v>-101.54</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="B704" s="6">
+        <v>6475</v>
+      </c>
+      <c r="C704" s="6">
+        <v>7055.36</v>
+      </c>
+      <c r="D704" s="6">
+        <v>-580.36</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="B705" s="6">
+        <v>771.75</v>
+      </c>
+      <c r="C705" s="6">
+        <v>845.88</v>
+      </c>
+      <c r="D705" s="6">
+        <v>-74.13</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="B706" s="6">
+        <v>2764.5</v>
+      </c>
+      <c r="C706" s="6">
+        <v>3028.42</v>
+      </c>
+      <c r="D706" s="6">
+        <v>-263.92</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="B707" s="6">
+        <v>4588.5</v>
+      </c>
+      <c r="C707" s="6">
+        <v>5373.41</v>
+      </c>
+      <c r="D707" s="6">
+        <v>-784.91</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="B708" s="6">
+        <v>2475</v>
+      </c>
+      <c r="C708" s="6">
+        <v>2815.89</v>
+      </c>
+      <c r="D708" s="6">
+        <v>-340.89</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="B709" s="6">
+        <v>6568.39</v>
+      </c>
+      <c r="C709" s="6">
+        <v>7272.4</v>
+      </c>
+      <c r="D709" s="6">
+        <v>-704.01</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="B710" s="6">
+        <v>936</v>
+      </c>
+      <c r="C710" s="6">
+        <v>1077.23</v>
+      </c>
+      <c r="D710" s="6">
+        <v>-141.23</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="B711" s="6">
+        <v>220</v>
+      </c>
+      <c r="C711" s="6">
+        <v>233.2</v>
+      </c>
+      <c r="D711" s="6">
+        <v>-13.2</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="B712" s="6">
+        <v>99</v>
+      </c>
+      <c r="C712" s="6">
+        <v>99</v>
+      </c>
+      <c r="D712" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="B713" s="6">
+        <v>316.5</v>
+      </c>
+      <c r="C713" s="6">
+        <v>316.5</v>
+      </c>
+      <c r="D713" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="B714" s="6">
         <v>484.5</v>
       </c>
-      <c r="C344" s="6">
+      <c r="C714" s="6">
         <v>484.5</v>
       </c>
-      <c r="D344" s="6">
+      <c r="D714" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="B715" s="6">
+        <v>1331</v>
+      </c>
+      <c r="C715" s="6">
+        <v>1410.86</v>
+      </c>
+      <c r="D715" s="6">
+        <v>-79.86</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="B716" s="6">
+        <v>612.5</v>
+      </c>
+      <c r="C716" s="6">
+        <v>612.5</v>
+      </c>
+      <c r="D716" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="B717" s="6">
+        <v>1437.5</v>
+      </c>
+      <c r="C717" s="6">
+        <v>1437.5</v>
+      </c>
+      <c r="D717" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="B718" s="6">
+        <v>3300</v>
+      </c>
+      <c r="C718" s="6">
+        <v>3300</v>
+      </c>
+      <c r="D718" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="B719" s="6">
+        <v>475</v>
+      </c>
+      <c r="C719" s="6">
+        <v>475</v>
+      </c>
+      <c r="D719" s="6">
         <v>0</v>
       </c>
     </row>

--- a/Projects/tbh-report-catalog/reports/202501 DispatchBilling Verification Pack.xlsx
+++ b/Projects/tbh-report-catalog/reports/202501 DispatchBilling Verification Pack.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="758">
   <si>
     <t>TBH Dispatch / Billing Verification Pack</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Generated</t>
   </si>
   <si>
-    <t>2026-02-17 16:33</t>
+    <t>2026-02-17 17:44</t>
   </si>
   <si>
     <t>Notes</t>
@@ -53,67 +53,76 @@
     <t>Plant Name</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Ticket Count</t>
+  </si>
+  <si>
+    <t>Unique Truck Count</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>AGGWRM</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>WRM</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>FRM</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>MART</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>HRMH</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>AGGHRM</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>AGGFRM</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>AGGMRM</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
     <t>Delivered Qty</t>
   </si>
   <si>
     <t>Concrete Delivered Qty</t>
   </si>
   <si>
-    <t>Revenue</t>
-  </si>
-  <si>
     <t>Ticket Lines</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>AGGWRM</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>WRM</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>FRM</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>MART</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>HRMH</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>AGGHRM</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>AGGFRM</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>AGGMRM</t>
-  </si>
-  <si>
-    <t>Year</t>
   </si>
   <si>
     <t>Invoice Code</t>
@@ -2407,7 +2416,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2416,10 +2425,10 @@
     <col min="1" max="1" width="11.830169677734375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="11.93303394317627" customWidth="1"/>
-    <col min="4" max="4" width="13.676064491271973" customWidth="1"/>
-    <col min="5" max="5" width="22.1929874420166" customWidth="1"/>
-    <col min="6" max="6" width="12.677665710449219" customWidth="1"/>
-    <col min="7" max="7" width="11.60714054107666" customWidth="1"/>
+    <col min="4" max="4" width="9.227952003479004" customWidth="1"/>
+    <col min="5" max="5" width="12.761296272277832" customWidth="1"/>
+    <col min="6" max="6" width="12.698158264160156" customWidth="1"/>
+    <col min="7" max="7" width="19.382047653198242" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2456,16 +2465,16 @@
         <v>17</v>
       </c>
       <c r="D2" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="6">
+      <c r="E2" s="6">
         <v>99</v>
       </c>
+      <c r="F2" s="0">
+        <v>1</v>
+      </c>
       <c r="G2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2479,16 +2488,16 @@
         <v>19</v>
       </c>
       <c r="D3" s="5">
-        <v>110.5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>108.5</v>
-      </c>
-      <c r="F3" s="6">
-        <v>16701.51</v>
+        <v>99.5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>15109.51</v>
+      </c>
+      <c r="F3" s="0">
+        <v>13</v>
       </c>
       <c r="G3" s="0">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2504,14 +2513,14 @@
       <c r="D4" s="5">
         <v>71.5</v>
       </c>
-      <c r="E4" s="5">
-        <v>71.5</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="6">
         <v>11158.5</v>
       </c>
+      <c r="F4" s="0">
+        <v>9</v>
+      </c>
       <c r="G4" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2525,16 +2534,16 @@
         <v>23</v>
       </c>
       <c r="D5" s="5">
-        <v>216.25</v>
-      </c>
-      <c r="E5" s="5">
-        <v>216.25</v>
-      </c>
-      <c r="F5" s="6">
-        <v>33500.51</v>
+        <v>198.75</v>
+      </c>
+      <c r="E5" s="6">
+        <v>30699.01</v>
+      </c>
+      <c r="F5" s="0">
+        <v>29</v>
       </c>
       <c r="G5" s="0">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -2548,16 +2557,16 @@
         <v>17</v>
       </c>
       <c r="D6" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E6" s="6">
         <v>100</v>
       </c>
+      <c r="F6" s="0">
+        <v>2</v>
+      </c>
       <c r="G6" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2573,14 +2582,14 @@
       <c r="D7" s="5">
         <v>235</v>
       </c>
-      <c r="E7" s="5">
-        <v>235</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="6">
         <v>35391.27</v>
       </c>
+      <c r="F7" s="0">
+        <v>29</v>
+      </c>
       <c r="G7" s="0">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -2594,16 +2603,16 @@
         <v>19</v>
       </c>
       <c r="D8" s="5">
-        <v>124</v>
-      </c>
-      <c r="E8" s="5">
-        <v>124</v>
-      </c>
-      <c r="F8" s="6">
-        <v>19397.77</v>
+        <v>116</v>
+      </c>
+      <c r="E8" s="6">
+        <v>18037.77</v>
+      </c>
+      <c r="F8" s="0">
+        <v>16</v>
       </c>
       <c r="G8" s="0">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2619,14 +2628,14 @@
       <c r="D9" s="5">
         <v>183.25</v>
       </c>
-      <c r="E9" s="5">
-        <v>183.25</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="6">
         <v>27815.75</v>
       </c>
+      <c r="F9" s="0">
+        <v>24</v>
+      </c>
       <c r="G9" s="0">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2640,16 +2649,16 @@
         <v>23</v>
       </c>
       <c r="D10" s="5">
-        <v>436.75</v>
-      </c>
-      <c r="E10" s="5">
-        <v>436.75</v>
-      </c>
-      <c r="F10" s="6">
-        <v>67835.69</v>
+        <v>425.5</v>
+      </c>
+      <c r="E10" s="6">
+        <v>66194.56</v>
+      </c>
+      <c r="F10" s="0">
+        <v>54</v>
       </c>
       <c r="G10" s="0">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -2663,16 +2672,16 @@
         <v>17</v>
       </c>
       <c r="D11" s="5">
-        <v>18</v>
-      </c>
-      <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="6">
+      <c r="E11" s="6">
         <v>495</v>
       </c>
+      <c r="F11" s="0">
+        <v>2</v>
+      </c>
       <c r="G11" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2686,13 +2695,13 @@
         <v>27</v>
       </c>
       <c r="D12" s="5">
-        <v>19.65</v>
-      </c>
-      <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="F12" s="6">
+      <c r="E12" s="6">
         <v>648.45</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1</v>
       </c>
       <c r="G12" s="0">
         <v>1</v>
@@ -2709,16 +2718,16 @@
         <v>29</v>
       </c>
       <c r="D13" s="5">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="F13" s="6">
+      <c r="E13" s="6">
         <v>600</v>
       </c>
+      <c r="F13" s="0">
+        <v>2</v>
+      </c>
       <c r="G13" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2734,14 +2743,14 @@
       <c r="D14" s="5">
         <v>409.25</v>
       </c>
-      <c r="E14" s="5">
-        <v>409.25</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="6">
         <v>60660.9</v>
       </c>
+      <c r="F14" s="0">
+        <v>53</v>
+      </c>
       <c r="G14" s="0">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -2755,16 +2764,16 @@
         <v>23</v>
       </c>
       <c r="D15" s="5">
-        <v>66.5</v>
-      </c>
-      <c r="E15" s="5">
-        <v>56.5</v>
-      </c>
-      <c r="F15" s="6">
-        <v>12335.26</v>
+        <v>47</v>
+      </c>
+      <c r="E15" s="6">
+        <v>10601.51</v>
+      </c>
+      <c r="F15" s="0">
+        <v>5</v>
       </c>
       <c r="G15" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -2780,11 +2789,11 @@
       <c r="D16" s="5">
         <v>9</v>
       </c>
-      <c r="E16" s="5">
-        <v>9</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="6">
         <v>1647</v>
+      </c>
+      <c r="F16" s="0">
+        <v>1</v>
       </c>
       <c r="G16" s="0">
         <v>1</v>
@@ -2803,11 +2812,11 @@
       <c r="D17" s="5">
         <v>44</v>
       </c>
-      <c r="E17" s="5">
-        <v>44</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="6">
         <v>7264</v>
+      </c>
+      <c r="F17" s="0">
+        <v>5</v>
       </c>
       <c r="G17" s="0">
         <v>5</v>
@@ -2826,14 +2835,14 @@
       <c r="D18" s="5">
         <v>39</v>
       </c>
-      <c r="E18" s="5">
-        <v>39</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="6">
         <v>6957.5</v>
       </c>
+      <c r="F18" s="0">
+        <v>7</v>
+      </c>
       <c r="G18" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -2849,11 +2858,11 @@
       <c r="D19" s="5">
         <v>45.5</v>
       </c>
-      <c r="E19" s="5">
-        <v>45.5</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="6">
         <v>7837</v>
+      </c>
+      <c r="F19" s="0">
+        <v>7</v>
       </c>
       <c r="G19" s="0">
         <v>7</v>
@@ -2872,14 +2881,14 @@
       <c r="D20" s="5">
         <v>102</v>
       </c>
-      <c r="E20" s="5">
-        <v>102</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="6">
         <v>15643</v>
       </c>
+      <c r="F20" s="0">
+        <v>12</v>
+      </c>
       <c r="G20" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -2893,16 +2902,16 @@
         <v>23</v>
       </c>
       <c r="D21" s="5">
-        <v>128</v>
-      </c>
-      <c r="E21" s="5">
-        <v>128</v>
-      </c>
-      <c r="F21" s="6">
-        <v>18905.5</v>
+        <v>109</v>
+      </c>
+      <c r="E21" s="6">
+        <v>16074.5</v>
+      </c>
+      <c r="F21" s="0">
+        <v>13</v>
       </c>
       <c r="G21" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2916,16 +2925,16 @@
         <v>29</v>
       </c>
       <c r="D22" s="5">
-        <v>10</v>
-      </c>
-      <c r="E22" s="5">
         <v>0</v>
       </c>
-      <c r="F22" s="6">
+      <c r="E22" s="6">
         <v>600</v>
       </c>
+      <c r="F22" s="0">
+        <v>1</v>
+      </c>
       <c r="G22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2941,11 +2950,11 @@
       <c r="D23" s="5">
         <v>75</v>
       </c>
-      <c r="E23" s="5">
-        <v>75</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E23" s="6">
         <v>12519</v>
+      </c>
+      <c r="F23" s="0">
+        <v>11</v>
       </c>
       <c r="G23" s="0">
         <v>11</v>
@@ -2964,14 +2973,14 @@
       <c r="D24" s="5">
         <v>105</v>
       </c>
-      <c r="E24" s="5">
-        <v>105</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="E24" s="6">
         <v>16723.27</v>
       </c>
+      <c r="F24" s="0">
+        <v>13</v>
+      </c>
       <c r="G24" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2987,14 +2996,14 @@
       <c r="D25" s="5">
         <v>226</v>
       </c>
-      <c r="E25" s="5">
-        <v>226</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="E25" s="6">
         <v>32755.52</v>
       </c>
+      <c r="F25" s="0">
+        <v>28</v>
+      </c>
       <c r="G25" s="0">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -3008,16 +3017,16 @@
         <v>23</v>
       </c>
       <c r="D26" s="5">
-        <v>362</v>
-      </c>
-      <c r="E26" s="5">
-        <v>362</v>
-      </c>
-      <c r="F26" s="6">
-        <v>54744.91</v>
+        <v>352.75</v>
+      </c>
+      <c r="E26" s="6">
+        <v>53269.53</v>
+      </c>
+      <c r="F26" s="0">
+        <v>40</v>
       </c>
       <c r="G26" s="0">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -3025,45 +3034,45 @@
         <v>45667</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D27" s="5">
-        <v>2</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>61</v>
+        <v>325.75</v>
+      </c>
+      <c r="E27" s="6">
+        <v>50489.91</v>
+      </c>
+      <c r="F27" s="0">
+        <v>39</v>
       </c>
       <c r="G27" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4">
-        <v>45667</v>
+        <v>45670</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D28" s="5">
-        <v>344.75</v>
-      </c>
-      <c r="E28" s="5">
-        <v>344.75</v>
-      </c>
-      <c r="F28" s="6">
-        <v>53881.41</v>
+        <v>112.5</v>
+      </c>
+      <c r="E28" s="6">
+        <v>18138.25</v>
+      </c>
+      <c r="F28" s="0">
+        <v>15</v>
       </c>
       <c r="G28" s="0">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -3071,22 +3080,22 @@
         <v>45670</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D29" s="5">
-        <v>113.5</v>
-      </c>
-      <c r="E29" s="5">
-        <v>112.5</v>
-      </c>
-      <c r="F29" s="6">
-        <v>18138.25</v>
+        <v>414.75</v>
+      </c>
+      <c r="E29" s="6">
+        <v>60074.13</v>
+      </c>
+      <c r="F29" s="0">
+        <v>48</v>
       </c>
       <c r="G29" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -3094,22 +3103,22 @@
         <v>45670</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D30" s="5">
-        <v>433.25</v>
-      </c>
-      <c r="E30" s="5">
-        <v>433.25</v>
-      </c>
-      <c r="F30" s="6">
-        <v>62617.88</v>
+        <v>657.25</v>
+      </c>
+      <c r="E30" s="6">
+        <v>98735.64</v>
+      </c>
+      <c r="F30" s="0">
+        <v>77</v>
       </c>
       <c r="G30" s="0">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
@@ -3117,22 +3126,22 @@
         <v>45670</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D31" s="5">
-        <v>657.25</v>
-      </c>
-      <c r="E31" s="5">
-        <v>657.25</v>
-      </c>
-      <c r="F31" s="6">
-        <v>98735.64</v>
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>321</v>
+      </c>
+      <c r="F31" s="0">
+        <v>2</v>
       </c>
       <c r="G31" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3140,45 +3149,45 @@
         <v>45670</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D32" s="5">
-        <v>9</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>321</v>
+        <v>282</v>
+      </c>
+      <c r="E32" s="6">
+        <v>42290.75</v>
+      </c>
+      <c r="F32" s="0">
+        <v>35</v>
       </c>
       <c r="G32" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D33" s="5">
-        <v>282</v>
-      </c>
-      <c r="E33" s="5">
-        <v>282</v>
-      </c>
-      <c r="F33" s="6">
-        <v>42290.75</v>
+        <v>54.5</v>
+      </c>
+      <c r="E33" s="6">
+        <v>8279.75</v>
+      </c>
+      <c r="F33" s="0">
+        <v>7</v>
       </c>
       <c r="G33" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -3186,19 +3195,19 @@
         <v>45671</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D34" s="5">
-        <v>54.5</v>
-      </c>
-      <c r="E34" s="5">
-        <v>54.5</v>
-      </c>
-      <c r="F34" s="6">
-        <v>8279.75</v>
+        <v>110.5</v>
+      </c>
+      <c r="E34" s="6">
+        <v>15859</v>
+      </c>
+      <c r="F34" s="0">
+        <v>13</v>
       </c>
       <c r="G34" s="0">
         <v>7</v>
@@ -3209,22 +3218,22 @@
         <v>45671</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D35" s="5">
-        <v>110.5</v>
-      </c>
-      <c r="E35" s="5">
-        <v>110.5</v>
-      </c>
-      <c r="F35" s="6">
-        <v>15859</v>
+        <v>123.5</v>
+      </c>
+      <c r="E35" s="6">
+        <v>18884.26</v>
+      </c>
+      <c r="F35" s="0">
+        <v>16</v>
       </c>
       <c r="G35" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3232,22 +3241,22 @@
         <v>45671</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D36" s="5">
-        <v>126.5</v>
-      </c>
-      <c r="E36" s="5">
-        <v>126.5</v>
-      </c>
-      <c r="F36" s="6">
-        <v>19296.76</v>
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>600</v>
+      </c>
+      <c r="F36" s="0">
+        <v>2</v>
       </c>
       <c r="G36" s="0">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3255,45 +3264,45 @@
         <v>45671</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D37" s="5">
-        <v>18</v>
-      </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>600</v>
+        <v>159</v>
+      </c>
+      <c r="E37" s="6">
+        <v>25177.51</v>
+      </c>
+      <c r="F37" s="0">
+        <v>23</v>
       </c>
       <c r="G37" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D38" s="5">
-        <v>159</v>
-      </c>
-      <c r="E38" s="5">
-        <v>159</v>
-      </c>
-      <c r="F38" s="6">
-        <v>25177.51</v>
+        <v>111.25</v>
+      </c>
+      <c r="E38" s="6">
+        <v>18174.26</v>
+      </c>
+      <c r="F38" s="0">
+        <v>15</v>
       </c>
       <c r="G38" s="0">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -3301,22 +3310,22 @@
         <v>45672</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D39" s="5">
-        <v>112.25</v>
-      </c>
-      <c r="E39" s="5">
-        <v>111.25</v>
-      </c>
-      <c r="F39" s="6">
-        <v>18174.26</v>
+        <v>51.5</v>
+      </c>
+      <c r="E39" s="6">
+        <v>7016</v>
+      </c>
+      <c r="F39" s="0">
+        <v>6</v>
       </c>
       <c r="G39" s="0">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -3324,22 +3333,22 @@
         <v>45672</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D40" s="5">
-        <v>51.5</v>
-      </c>
-      <c r="E40" s="5">
-        <v>51.5</v>
-      </c>
-      <c r="F40" s="6">
-        <v>7016</v>
+        <v>280.75</v>
+      </c>
+      <c r="E40" s="6">
+        <v>43232</v>
+      </c>
+      <c r="F40" s="0">
+        <v>35</v>
       </c>
       <c r="G40" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3347,22 +3356,22 @@
         <v>45672</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D41" s="5">
-        <v>280.75</v>
-      </c>
-      <c r="E41" s="5">
-        <v>280.75</v>
-      </c>
-      <c r="F41" s="6">
-        <v>43232</v>
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>316.5</v>
+      </c>
+      <c r="F41" s="0">
+        <v>1</v>
       </c>
       <c r="G41" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3370,22 +3379,22 @@
         <v>45672</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D42" s="5">
-        <v>5</v>
-      </c>
-      <c r="E42" s="5">
         <v>0</v>
       </c>
-      <c r="F42" s="6">
-        <v>316.5</v>
+      <c r="E42" s="6">
+        <v>806</v>
+      </c>
+      <c r="F42" s="0">
+        <v>2</v>
       </c>
       <c r="G42" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -3393,45 +3402,45 @@
         <v>45672</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D43" s="5">
+        <v>155.5</v>
+      </c>
+      <c r="E43" s="6">
+        <v>25606.75</v>
+      </c>
+      <c r="F43" s="0">
         <v>22</v>
       </c>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6">
-        <v>806</v>
-      </c>
       <c r="G43" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D44" s="5">
-        <v>191.5</v>
-      </c>
-      <c r="E44" s="5">
-        <v>155.5</v>
-      </c>
-      <c r="F44" s="6">
-        <v>25606.75</v>
+        <v>23</v>
+      </c>
+      <c r="E44" s="6">
+        <v>3952.5</v>
+      </c>
+      <c r="F44" s="0">
+        <v>5</v>
       </c>
       <c r="G44" s="0">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -3439,22 +3448,22 @@
         <v>45673</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D45" s="5">
-        <v>23</v>
-      </c>
-      <c r="E45" s="5">
-        <v>23</v>
-      </c>
-      <c r="F45" s="6">
-        <v>3952.5</v>
+        <v>46.5</v>
+      </c>
+      <c r="E45" s="6">
+        <v>7880</v>
+      </c>
+      <c r="F45" s="0">
+        <v>7</v>
       </c>
       <c r="G45" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -3462,22 +3471,22 @@
         <v>45673</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D46" s="5">
-        <v>46.5</v>
-      </c>
-      <c r="E46" s="5">
-        <v>46.5</v>
-      </c>
-      <c r="F46" s="6">
-        <v>7880</v>
+        <v>316</v>
+      </c>
+      <c r="E46" s="6">
+        <v>48372.26</v>
+      </c>
+      <c r="F46" s="0">
+        <v>40</v>
       </c>
       <c r="G46" s="0">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
@@ -3485,22 +3494,22 @@
         <v>45673</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D47" s="5">
-        <v>323.5</v>
-      </c>
-      <c r="E47" s="5">
-        <v>323.5</v>
-      </c>
-      <c r="F47" s="6">
-        <v>49572.26</v>
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1989.66</v>
+      </c>
+      <c r="F47" s="0">
+        <v>3</v>
       </c>
       <c r="G47" s="0">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -3508,45 +3517,45 @@
         <v>45673</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D48" s="5">
-        <v>48.81</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0</v>
-      </c>
-      <c r="F48" s="6">
-        <v>1989.66</v>
+        <v>334</v>
+      </c>
+      <c r="E48" s="6">
+        <v>52175.01</v>
+      </c>
+      <c r="F48" s="0">
+        <v>40</v>
       </c>
       <c r="G48" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D49" s="5">
-        <v>343</v>
-      </c>
-      <c r="E49" s="5">
-        <v>343</v>
-      </c>
-      <c r="F49" s="6">
-        <v>53579.01</v>
+        <v>242.5</v>
+      </c>
+      <c r="E49" s="6">
+        <v>39535.28</v>
+      </c>
+      <c r="F49" s="0">
+        <v>33</v>
       </c>
       <c r="G49" s="0">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -3554,22 +3563,22 @@
         <v>45674</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D50" s="5">
-        <v>243.5</v>
-      </c>
-      <c r="E50" s="5">
-        <v>242.5</v>
-      </c>
-      <c r="F50" s="6">
-        <v>39535.28</v>
+        <v>355</v>
+      </c>
+      <c r="E50" s="6">
+        <v>57749.63</v>
+      </c>
+      <c r="F50" s="0">
+        <v>43</v>
       </c>
       <c r="G50" s="0">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -3577,22 +3586,22 @@
         <v>45674</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D51" s="5">
-        <v>362.75</v>
-      </c>
-      <c r="E51" s="5">
-        <v>360.75</v>
-      </c>
-      <c r="F51" s="6">
-        <v>58698.38</v>
+        <v>1161.25</v>
+      </c>
+      <c r="E51" s="6">
+        <v>170265.41</v>
+      </c>
+      <c r="F51" s="0">
+        <v>138</v>
       </c>
       <c r="G51" s="0">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
@@ -3600,22 +3609,22 @@
         <v>45674</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D52" s="5">
-        <v>1170.75</v>
-      </c>
-      <c r="E52" s="5">
-        <v>1170.75</v>
-      </c>
-      <c r="F52" s="6">
-        <v>171604.91</v>
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>359</v>
+      </c>
+      <c r="F52" s="0">
+        <v>2</v>
       </c>
       <c r="G52" s="0">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3623,22 +3632,22 @@
         <v>45674</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D53" s="5">
-        <v>11</v>
-      </c>
-      <c r="E53" s="5">
         <v>0</v>
       </c>
-      <c r="F53" s="6">
-        <v>359</v>
+      <c r="E53" s="6">
+        <v>770.04</v>
+      </c>
+      <c r="F53" s="0">
+        <v>1</v>
       </c>
       <c r="G53" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -3646,50 +3655,50 @@
         <v>45674</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D54" s="5">
-        <v>21.39</v>
-      </c>
-      <c r="E54" s="5">
-        <v>0</v>
-      </c>
-      <c r="F54" s="6">
-        <v>770.04</v>
+        <v>595.75</v>
+      </c>
+      <c r="E54" s="6">
+        <v>95708.39</v>
+      </c>
+      <c r="F54" s="0">
+        <v>74</v>
       </c>
       <c r="G54" s="0">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D55" s="5">
-        <v>627.5</v>
-      </c>
-      <c r="E55" s="5">
-        <v>627.5</v>
-      </c>
-      <c r="F55" s="6">
-        <v>101041.39</v>
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1331</v>
+      </c>
+      <c r="F55" s="0">
+        <v>1</v>
       </c>
       <c r="G55" s="0">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4">
-        <v>45677</v>
+        <v>45679</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>30</v>
@@ -3698,13 +3707,13 @@
         <v>31</v>
       </c>
       <c r="D56" s="5">
-        <v>12.1</v>
-      </c>
-      <c r="E56" s="5">
         <v>0</v>
       </c>
-      <c r="F56" s="6">
-        <v>1331</v>
+      <c r="E56" s="6">
+        <v>1685.52</v>
+      </c>
+      <c r="F56" s="0">
+        <v>2</v>
       </c>
       <c r="G56" s="0">
         <v>1</v>
@@ -3712,25 +3721,25 @@
     </row>
     <row r="57">
       <c r="A57" s="4">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D57" s="5">
-        <v>46.82</v>
-      </c>
-      <c r="E57" s="5">
-        <v>0</v>
-      </c>
-      <c r="F57" s="6">
-        <v>1685.52</v>
+        <v>106.75</v>
+      </c>
+      <c r="E57" s="6">
+        <v>16521.5</v>
+      </c>
+      <c r="F57" s="0">
+        <v>13</v>
       </c>
       <c r="G57" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -3738,22 +3747,22 @@
         <v>45680</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D58" s="5">
-        <v>108.75</v>
-      </c>
-      <c r="E58" s="5">
-        <v>106.75</v>
-      </c>
-      <c r="F58" s="6">
-        <v>16521.5</v>
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>99</v>
+      </c>
+      <c r="F58" s="0">
+        <v>1</v>
       </c>
       <c r="G58" s="0">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3761,45 +3770,45 @@
         <v>45680</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D59" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E59" s="5">
-        <v>0</v>
-      </c>
-      <c r="F59" s="6">
-        <v>99</v>
+        <v>90</v>
+      </c>
+      <c r="E59" s="6">
+        <v>13371.5</v>
+      </c>
+      <c r="F59" s="0">
+        <v>13</v>
       </c>
       <c r="G59" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D60" s="5">
-        <v>90</v>
-      </c>
-      <c r="E60" s="5">
-        <v>90</v>
-      </c>
-      <c r="F60" s="6">
-        <v>13371.5</v>
+        <v>110.75</v>
+      </c>
+      <c r="E60" s="6">
+        <v>17618.9</v>
+      </c>
+      <c r="F60" s="0">
+        <v>14</v>
       </c>
       <c r="G60" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -3807,22 +3816,22 @@
         <v>45681</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D61" s="5">
-        <v>120</v>
-      </c>
-      <c r="E61" s="5">
-        <v>120</v>
-      </c>
-      <c r="F61" s="6">
-        <v>18890.78</v>
+        <v>205.5</v>
+      </c>
+      <c r="E61" s="6">
+        <v>29863.53</v>
+      </c>
+      <c r="F61" s="0">
+        <v>24</v>
       </c>
       <c r="G61" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -3830,22 +3839,22 @@
         <v>45681</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D62" s="5">
-        <v>215</v>
-      </c>
-      <c r="E62" s="5">
-        <v>215</v>
-      </c>
-      <c r="F62" s="6">
-        <v>31269.53</v>
+        <v>191.5</v>
+      </c>
+      <c r="E62" s="6">
+        <v>28785.5</v>
+      </c>
+      <c r="F62" s="0">
+        <v>23</v>
       </c>
       <c r="G62" s="0">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -3853,22 +3862,22 @@
         <v>45681</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D63" s="5">
-        <v>191.5</v>
-      </c>
-      <c r="E63" s="5">
-        <v>191.5</v>
-      </c>
-      <c r="F63" s="6">
-        <v>28785.5</v>
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
+        <v>40</v>
+      </c>
+      <c r="F63" s="0">
+        <v>1</v>
       </c>
       <c r="G63" s="0">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3876,45 +3885,45 @@
         <v>45681</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D64" s="5">
-        <v>1</v>
-      </c>
-      <c r="E64" s="5">
-        <v>0</v>
-      </c>
-      <c r="F64" s="6">
-        <v>40</v>
+        <v>187.5</v>
+      </c>
+      <c r="E64" s="6">
+        <v>27854.52</v>
+      </c>
+      <c r="F64" s="0">
+        <v>27</v>
       </c>
       <c r="G64" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D65" s="5">
-        <v>187.5</v>
-      </c>
-      <c r="E65" s="5">
-        <v>187.5</v>
-      </c>
-      <c r="F65" s="6">
-        <v>27854.52</v>
+        <v>81</v>
+      </c>
+      <c r="E65" s="6">
+        <v>13116</v>
+      </c>
+      <c r="F65" s="0">
+        <v>11</v>
       </c>
       <c r="G65" s="0">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -3922,22 +3931,22 @@
         <v>45684</v>
       </c>
       <c r="B66" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="5">
+        <v>144.5</v>
+      </c>
+      <c r="E66" s="6">
+        <v>22872</v>
+      </c>
+      <c r="F66" s="0">
         <v>18</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="5">
-        <v>81</v>
-      </c>
-      <c r="E66" s="5">
-        <v>81</v>
-      </c>
-      <c r="F66" s="6">
-        <v>13116</v>
-      </c>
       <c r="G66" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -3945,22 +3954,22 @@
         <v>45684</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D67" s="5">
-        <v>146.5</v>
-      </c>
-      <c r="E67" s="5">
-        <v>144.5</v>
-      </c>
-      <c r="F67" s="6">
-        <v>22872</v>
+        <v>748</v>
+      </c>
+      <c r="E67" s="6">
+        <v>111639.93</v>
+      </c>
+      <c r="F67" s="0">
+        <v>83</v>
       </c>
       <c r="G67" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
@@ -3968,22 +3977,22 @@
         <v>45684</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D68" s="5">
-        <v>757.5</v>
-      </c>
-      <c r="E68" s="5">
-        <v>757.5</v>
-      </c>
-      <c r="F68" s="6">
-        <v>113307.18</v>
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>736.25</v>
+      </c>
+      <c r="F68" s="0">
+        <v>6</v>
       </c>
       <c r="G68" s="0">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3991,22 +4000,22 @@
         <v>45684</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D69" s="5">
-        <v>24.5</v>
-      </c>
-      <c r="E69" s="5">
         <v>0</v>
       </c>
-      <c r="F69" s="6">
-        <v>736.25</v>
+      <c r="E69" s="6">
+        <v>22</v>
+      </c>
+      <c r="F69" s="0">
+        <v>1</v>
       </c>
       <c r="G69" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4014,45 +4023,45 @@
         <v>45684</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D70" s="5">
-        <v>2</v>
-      </c>
-      <c r="E70" s="5">
-        <v>0</v>
-      </c>
-      <c r="F70" s="6">
-        <v>22</v>
+        <v>197.75</v>
+      </c>
+      <c r="E70" s="6">
+        <v>28558.78</v>
+      </c>
+      <c r="F70" s="0">
+        <v>25</v>
       </c>
       <c r="G70" s="0">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D71" s="5">
-        <v>197.75</v>
-      </c>
-      <c r="E71" s="5">
-        <v>197.75</v>
-      </c>
-      <c r="F71" s="6">
-        <v>28558.78</v>
+        <v>49</v>
+      </c>
+      <c r="E71" s="6">
+        <v>8748.5</v>
+      </c>
+      <c r="F71" s="0">
+        <v>8</v>
       </c>
       <c r="G71" s="0">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -4060,22 +4069,22 @@
         <v>45685</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D72" s="5">
-        <v>49</v>
-      </c>
-      <c r="E72" s="5">
-        <v>49</v>
-      </c>
-      <c r="F72" s="6">
-        <v>8748.5</v>
+        <v>126.5</v>
+      </c>
+      <c r="E72" s="6">
+        <v>19559.75</v>
+      </c>
+      <c r="F72" s="0">
+        <v>20</v>
       </c>
       <c r="G72" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -4083,22 +4092,22 @@
         <v>45685</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D73" s="5">
-        <v>127.5</v>
-      </c>
-      <c r="E73" s="5">
-        <v>126.5</v>
-      </c>
-      <c r="F73" s="6">
-        <v>19559.75</v>
+        <v>546.75</v>
+      </c>
+      <c r="E73" s="6">
+        <v>81670.4</v>
+      </c>
+      <c r="F73" s="0">
+        <v>66</v>
       </c>
       <c r="G73" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
@@ -4106,22 +4115,22 @@
         <v>45685</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D74" s="5">
-        <v>559</v>
-      </c>
-      <c r="E74" s="5">
-        <v>559</v>
-      </c>
-      <c r="F74" s="6">
-        <v>83414.65</v>
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>107</v>
+      </c>
+      <c r="F74" s="0">
+        <v>2</v>
       </c>
       <c r="G74" s="0">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4129,22 +4138,22 @@
         <v>45685</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D75" s="5">
-        <v>6</v>
-      </c>
-      <c r="E75" s="5">
         <v>0</v>
       </c>
-      <c r="F75" s="6">
-        <v>107</v>
+      <c r="E75" s="6">
+        <v>120</v>
+      </c>
+      <c r="F75" s="0">
+        <v>1</v>
       </c>
       <c r="G75" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4152,45 +4161,45 @@
         <v>45685</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D76" s="5">
-        <v>4</v>
-      </c>
-      <c r="E76" s="5">
-        <v>0</v>
-      </c>
-      <c r="F76" s="6">
-        <v>120</v>
+        <v>368.5</v>
+      </c>
+      <c r="E76" s="6">
+        <v>58499.13</v>
+      </c>
+      <c r="F76" s="0">
+        <v>49</v>
       </c>
       <c r="G76" s="0">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D77" s="5">
-        <v>368.5</v>
-      </c>
-      <c r="E77" s="5">
-        <v>368.5</v>
-      </c>
-      <c r="F77" s="6">
-        <v>58499.13</v>
+        <v>110.5</v>
+      </c>
+      <c r="E77" s="6">
+        <v>20473.38</v>
+      </c>
+      <c r="F77" s="0">
+        <v>17</v>
       </c>
       <c r="G77" s="0">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -4198,22 +4207,22 @@
         <v>45686</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D78" s="5">
-        <v>110.5</v>
-      </c>
-      <c r="E78" s="5">
-        <v>110.5</v>
-      </c>
-      <c r="F78" s="6">
-        <v>20473.38</v>
+        <v>413.5</v>
+      </c>
+      <c r="E78" s="6">
+        <v>60455</v>
+      </c>
+      <c r="F78" s="0">
+        <v>51</v>
       </c>
       <c r="G78" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
@@ -4221,22 +4230,22 @@
         <v>45686</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D79" s="5">
-        <v>414.5</v>
-      </c>
-      <c r="E79" s="5">
-        <v>413.5</v>
-      </c>
-      <c r="F79" s="6">
-        <v>60455</v>
+        <v>722.75</v>
+      </c>
+      <c r="E79" s="6">
+        <v>111327.65</v>
+      </c>
+      <c r="F79" s="0">
+        <v>90</v>
       </c>
       <c r="G79" s="0">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80">
@@ -4244,45 +4253,45 @@
         <v>45686</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D80" s="5">
-        <v>723.75</v>
-      </c>
-      <c r="E80" s="5">
-        <v>722.75</v>
-      </c>
-      <c r="F80" s="6">
-        <v>111327.65</v>
+        <v>297.75</v>
+      </c>
+      <c r="E80" s="6">
+        <v>44888.38</v>
+      </c>
+      <c r="F80" s="0">
+        <v>38</v>
       </c>
       <c r="G80" s="0">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="4">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D81" s="5">
-        <v>297.75</v>
-      </c>
-      <c r="E81" s="5">
-        <v>297.75</v>
-      </c>
-      <c r="F81" s="6">
-        <v>44888.38</v>
+        <v>173</v>
+      </c>
+      <c r="E81" s="6">
+        <v>28148</v>
+      </c>
+      <c r="F81" s="0">
+        <v>22</v>
       </c>
       <c r="G81" s="0">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -4290,22 +4299,22 @@
         <v>45687</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D82" s="5">
-        <v>173</v>
-      </c>
-      <c r="E82" s="5">
-        <v>173</v>
-      </c>
-      <c r="F82" s="6">
-        <v>28148</v>
+        <v>315.25</v>
+      </c>
+      <c r="E82" s="6">
+        <v>44434.5</v>
+      </c>
+      <c r="F82" s="0">
+        <v>39</v>
       </c>
       <c r="G82" s="0">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
@@ -4313,22 +4322,22 @@
         <v>45687</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D83" s="5">
-        <v>315.25</v>
-      </c>
-      <c r="E83" s="5">
-        <v>315.25</v>
-      </c>
-      <c r="F83" s="6">
-        <v>44434.5</v>
+        <v>928</v>
+      </c>
+      <c r="E83" s="6">
+        <v>142324.9</v>
+      </c>
+      <c r="F83" s="0">
+        <v>109</v>
       </c>
       <c r="G83" s="0">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
@@ -4336,22 +4345,22 @@
         <v>45687</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D84" s="5">
-        <v>937.25</v>
-      </c>
-      <c r="E84" s="5">
-        <v>937.25</v>
-      </c>
-      <c r="F84" s="6">
-        <v>143624.53</v>
+        <v>0</v>
+      </c>
+      <c r="E84" s="6">
+        <v>882.5</v>
+      </c>
+      <c r="F84" s="0">
+        <v>2</v>
       </c>
       <c r="G84" s="0">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4359,22 +4368,22 @@
         <v>45687</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D85" s="5">
-        <v>23</v>
-      </c>
-      <c r="E85" s="5">
         <v>0</v>
       </c>
-      <c r="F85" s="6">
-        <v>882.5</v>
+      <c r="E85" s="6">
+        <v>169</v>
+      </c>
+      <c r="F85" s="0">
+        <v>1</v>
       </c>
       <c r="G85" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4382,45 +4391,45 @@
         <v>45687</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D86" s="5">
-        <v>13</v>
-      </c>
-      <c r="E86" s="5">
-        <v>0</v>
-      </c>
-      <c r="F86" s="6">
-        <v>169</v>
+        <v>310.25</v>
+      </c>
+      <c r="E86" s="6">
+        <v>47466.76</v>
+      </c>
+      <c r="F86" s="0">
+        <v>42</v>
       </c>
       <c r="G86" s="0">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="4">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D87" s="5">
-        <v>319.75</v>
-      </c>
-      <c r="E87" s="5">
-        <v>319.75</v>
-      </c>
-      <c r="F87" s="6">
-        <v>49167.26</v>
+        <v>0</v>
+      </c>
+      <c r="E87" s="6">
+        <v>612.5</v>
+      </c>
+      <c r="F87" s="0">
+        <v>1</v>
       </c>
       <c r="G87" s="0">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4428,22 +4437,22 @@
         <v>45688</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D88" s="5">
-        <v>24.5</v>
-      </c>
-      <c r="E88" s="5">
-        <v>0</v>
-      </c>
-      <c r="F88" s="6">
-        <v>612.5</v>
+        <v>21.5</v>
+      </c>
+      <c r="E88" s="6">
+        <v>7153.5</v>
+      </c>
+      <c r="F88" s="0">
+        <v>4</v>
       </c>
       <c r="G88" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -4451,22 +4460,22 @@
         <v>45688</v>
       </c>
       <c r="B89" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="5">
+        <v>161.25</v>
+      </c>
+      <c r="E89" s="6">
+        <v>25805.64</v>
+      </c>
+      <c r="F89" s="0">
         <v>20</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="5">
-        <v>153.5</v>
-      </c>
-      <c r="E89" s="5">
-        <v>21.5</v>
-      </c>
-      <c r="F89" s="6">
-        <v>7153.5</v>
-      </c>
       <c r="G89" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -4474,22 +4483,22 @@
         <v>45688</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D90" s="5">
-        <v>180.25</v>
-      </c>
-      <c r="E90" s="5">
-        <v>161.25</v>
-      </c>
-      <c r="F90" s="6">
-        <v>25805.64</v>
+        <v>0</v>
+      </c>
+      <c r="E90" s="6">
+        <v>220</v>
+      </c>
+      <c r="F90" s="0">
+        <v>1</v>
       </c>
       <c r="G90" s="0">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4497,45 +4506,22 @@
         <v>45688</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D91" s="5">
-        <v>8</v>
-      </c>
-      <c r="E91" s="5">
-        <v>0</v>
-      </c>
-      <c r="F91" s="6">
-        <v>220</v>
+        <v>103.5</v>
+      </c>
+      <c r="E91" s="6">
+        <v>15735.26</v>
+      </c>
+      <c r="F91" s="0">
+        <v>13</v>
       </c>
       <c r="G91" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="4">
-        <v>45688</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D92" s="5">
-        <v>161</v>
-      </c>
-      <c r="E92" s="5">
-        <v>103.5</v>
-      </c>
-      <c r="F92" s="6">
-        <v>15735.26</v>
-      </c>
-      <c r="G92" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4557,7 +4543,7 @@
     <col min="4" max="4" width="11.93303394317627" customWidth="1"/>
     <col min="5" max="5" width="13.676064491271973" customWidth="1"/>
     <col min="6" max="6" width="22.1929874420166" customWidth="1"/>
-    <col min="7" max="7" width="14.088788986206055" customWidth="1"/>
+    <col min="7" max="7" width="13.847612380981445" customWidth="1"/>
     <col min="8" max="8" width="11.60714054107666" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4575,16 +4561,16 @@
         <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -4601,16 +4587,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="5">
-        <v>1498.75</v>
+        <v>1471.5</v>
       </c>
       <c r="F2" s="5">
-        <v>1469.25</v>
+        <v>1443</v>
       </c>
       <c r="G2" s="6">
-        <v>240375.75</v>
+        <v>236151.87</v>
       </c>
       <c r="H2" s="0">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3">
@@ -4627,16 +4613,16 @@
         <v>21</v>
       </c>
       <c r="E3" s="5">
-        <v>3003.5</v>
+        <v>2969.75</v>
       </c>
       <c r="F3" s="5">
-        <v>2865.5</v>
+        <v>2831.75</v>
       </c>
       <c r="G3" s="6">
-        <v>432452.31</v>
+        <v>427553.81</v>
       </c>
       <c r="H3" s="0">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4">
@@ -4653,16 +4639,16 @@
         <v>23</v>
       </c>
       <c r="E4" s="5">
-        <v>7226.25</v>
+        <v>7108.75</v>
       </c>
       <c r="F4" s="5">
-        <v>7194.25</v>
+        <v>7076.75</v>
       </c>
       <c r="G4" s="6">
-        <v>1092550.09</v>
+        <v>1074404.2</v>
       </c>
       <c r="H4" s="0">
-        <v>870</v>
+        <v>855</v>
       </c>
     </row>
     <row r="5">
@@ -4757,16 +4743,16 @@
         <v>31</v>
       </c>
       <c r="E8" s="5">
-        <v>153.12</v>
+        <v>151.12</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>6643.22</v>
+        <v>6582.22</v>
       </c>
       <c r="H8" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -4783,16 +4769,16 @@
         <v>25</v>
       </c>
       <c r="E9" s="5">
-        <v>4328.25</v>
+        <v>4259</v>
       </c>
       <c r="F9" s="5">
-        <v>4234.75</v>
+        <v>4165.5</v>
       </c>
       <c r="G9" s="6">
-        <v>655180.32</v>
+        <v>643351.32</v>
       </c>
       <c r="H9" s="0">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -4816,21 +4802,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="6">
         <v>1647</v>
@@ -4844,7 +4830,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6">
         <v>3825</v>
@@ -4858,7 +4844,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="6">
         <v>286</v>
@@ -4872,7 +4858,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" s="6">
         <v>3439</v>
@@ -4886,7 +4872,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" s="6">
         <v>2520</v>
@@ -4900,7 +4886,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7" s="6">
         <v>3971</v>
@@ -4914,7 +4900,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8" s="6">
         <v>180.5</v>
@@ -4928,7 +4914,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" s="6">
         <v>4713</v>
@@ -4942,7 +4928,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" s="6">
         <v>562.5</v>
@@ -4956,7 +4942,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6">
         <v>1738.5</v>
@@ -4970,7 +4956,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" s="6">
         <v>425</v>
@@ -4984,7 +4970,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="6">
         <v>600</v>
@@ -4998,7 +4984,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="6">
         <v>6006</v>
@@ -5012,7 +4998,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B15" s="6">
         <v>4332</v>
@@ -5026,7 +5012,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16" s="6">
         <v>11311</v>
@@ -5040,7 +5026,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17" s="6">
         <v>2483</v>
@@ -5054,7 +5040,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B18" s="6">
         <v>255</v>
@@ -5068,7 +5054,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19" s="6">
         <v>1800</v>
@@ -5082,7 +5068,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20" s="6">
         <v>2935.5</v>
@@ -5096,7 +5082,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6">
         <v>8791</v>
@@ -5110,7 +5096,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B22" s="6">
         <v>6721</v>
@@ -5124,7 +5110,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23" s="6">
         <v>8078.5</v>
@@ -5138,7 +5124,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B24" s="6">
         <v>382</v>
@@ -5152,7 +5138,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25" s="6">
         <v>803.25</v>
@@ -5166,7 +5152,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26" s="6">
         <v>1715</v>
@@ -5180,7 +5166,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B27" s="6">
         <v>499.5</v>
@@ -5194,7 +5180,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28" s="6">
         <v>4162.5</v>
@@ -5208,7 +5194,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B29" s="6">
         <v>3496.5</v>
@@ -5222,7 +5208,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B30" s="6">
         <v>810</v>
@@ -5236,7 +5222,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B31" s="6">
         <v>635.25</v>
@@ -5250,7 +5236,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32" s="6">
         <v>1349</v>
@@ -5264,7 +5250,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33" s="6">
         <v>145</v>
@@ -5278,7 +5264,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34" s="6">
         <v>1184</v>
@@ -5292,7 +5278,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35" s="6">
         <v>1396.5</v>
@@ -5306,7 +5292,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36" s="6">
         <v>2888</v>
@@ -5320,7 +5306,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37" s="6">
         <v>2743.5</v>
@@ -5334,7 +5320,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38" s="6">
         <v>2839</v>
@@ -5348,7 +5334,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39" s="6">
         <v>41782.63</v>
@@ -5362,7 +5348,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40" s="6">
         <v>3302.25</v>
@@ -5376,7 +5362,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41" s="6">
         <v>5130</v>
@@ -5390,7 +5376,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B42" s="6">
         <v>292</v>
@@ -5404,7 +5390,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B43" s="6">
         <v>5534.25</v>
@@ -5418,7 +5404,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B44" s="6">
         <v>357</v>
@@ -5432,7 +5418,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B45" s="6">
         <v>12249</v>
@@ -5446,7 +5432,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B46" s="6">
         <v>2227.5</v>
@@ -5460,7 +5446,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47" s="6">
         <v>4185.5</v>
@@ -5474,7 +5460,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B48" s="6">
         <v>11924</v>
@@ -5488,7 +5474,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49" s="6">
         <v>1530</v>
@@ -5502,7 +5488,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50" s="6">
         <v>1300.5</v>
@@ -5516,7 +5502,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B51" s="6">
         <v>55</v>
@@ -5530,7 +5516,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B52" s="6">
         <v>266</v>
@@ -5544,7 +5530,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53" s="6">
         <v>5043.5</v>
@@ -5558,7 +5544,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B54" s="6">
         <v>1211</v>
@@ -5572,7 +5558,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B55" s="6">
         <v>3193.5</v>
@@ -5586,7 +5572,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B56" s="6">
         <v>900</v>
@@ -5600,7 +5586,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B57" s="6">
         <v>2270.75</v>
@@ -5614,7 +5600,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B58" s="6">
         <v>277.5</v>
@@ -5628,7 +5614,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B59" s="6">
         <v>3312</v>
@@ -5642,7 +5628,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B60" s="6">
         <v>450</v>
@@ -5656,7 +5642,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B61" s="6">
         <v>4094</v>
@@ -5670,7 +5656,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B62" s="6">
         <v>2118</v>
@@ -5684,7 +5670,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B63" s="6">
         <v>80</v>
@@ -5698,7 +5684,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B64" s="6">
         <v>4246.5</v>
@@ -5712,7 +5698,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B65" s="6">
         <v>2755</v>
@@ -5726,7 +5712,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B66" s="6">
         <v>4531.25</v>
@@ -5740,7 +5726,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B67" s="6">
         <v>1377.5</v>
@@ -5754,7 +5740,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B68" s="6">
         <v>2812</v>
@@ -5768,7 +5754,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B69" s="6">
         <v>1237.5</v>
@@ -5782,7 +5768,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B70" s="6">
         <v>8268</v>
@@ -5796,7 +5782,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B71" s="6">
         <v>1014</v>
@@ -5810,7 +5796,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B72" s="6">
         <v>740.25</v>
@@ -5824,7 +5810,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B73" s="6">
         <v>600.25</v>
@@ -5838,7 +5824,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B74" s="6">
         <v>1920</v>
@@ -5852,7 +5838,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B75" s="6">
         <v>328</v>
@@ -5866,7 +5852,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76" s="6">
         <v>1586.5</v>
@@ -5880,7 +5866,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B77" s="6">
         <v>2599.26</v>
@@ -5894,7 +5880,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B78" s="6">
         <v>1684.75</v>
@@ -5908,7 +5894,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B79" s="6">
         <v>1391.75</v>
@@ -5922,7 +5908,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B80" s="6">
         <v>1444</v>
@@ -5936,7 +5922,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B81" s="6">
         <v>1368</v>
@@ -5950,7 +5936,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B82" s="6">
         <v>1105</v>
@@ -5964,7 +5950,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B83" s="6">
         <v>9997.5</v>
@@ -5978,7 +5964,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B84" s="6">
         <v>5637.52</v>
@@ -5992,7 +5978,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B85" s="6">
         <v>1930.5</v>
@@ -6006,7 +5992,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B86" s="6">
         <v>2600</v>
@@ -6020,7 +6006,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B87" s="6">
         <v>20</v>
@@ -6034,7 +6020,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B88" s="6">
         <v>6415.51</v>
@@ -6048,7 +6034,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B89" s="6">
         <v>1897.5</v>
@@ -6062,7 +6048,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B90" s="6">
         <v>1543.75</v>
@@ -6076,7 +6062,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B91" s="6">
         <v>626.5</v>
@@ -6090,7 +6076,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B92" s="6">
         <v>1233.75</v>
@@ -6104,7 +6090,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B93" s="6">
         <v>442.5</v>
@@ -6118,7 +6104,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B94" s="6">
         <v>2490.5</v>
@@ -6132,7 +6118,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B95" s="6">
         <v>3348</v>
@@ -6146,7 +6132,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B96" s="6">
         <v>848.25</v>
@@ -6160,7 +6146,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B97" s="6">
         <v>360</v>
@@ -6174,7 +6160,7 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B98" s="6">
         <v>320</v>
@@ -6188,7 +6174,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B99" s="6">
         <v>3060</v>
@@ -6202,7 +6188,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B100" s="6">
         <v>3325</v>
@@ -6216,7 +6202,7 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B101" s="6">
         <v>350</v>
@@ -6230,7 +6216,7 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B102" s="6">
         <v>2821.5</v>
@@ -6244,7 +6230,7 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B103" s="6">
         <v>3034.5</v>
@@ -6258,7 +6244,7 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B104" s="6">
         <v>365</v>
@@ -6272,7 +6258,7 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B105" s="6">
         <v>4080</v>
@@ -6286,7 +6272,7 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B106" s="6">
         <v>600</v>
@@ -6300,7 +6286,7 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B107" s="6">
         <v>648.45</v>
@@ -6314,7 +6300,7 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B108" s="6">
         <v>15504</v>
@@ -6328,7 +6314,7 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B109" s="6">
         <v>5510</v>
@@ -6342,7 +6328,7 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B110" s="6">
         <v>3377</v>
@@ -6356,7 +6342,7 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B111" s="6">
         <v>1406</v>
@@ -6370,7 +6356,7 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B112" s="6">
         <v>507.5</v>
@@ -6384,7 +6370,7 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B113" s="6">
         <v>318</v>
@@ -6398,7 +6384,7 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B114" s="6">
         <v>453</v>
@@ -6412,7 +6398,7 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B115" s="6">
         <v>660</v>
@@ -6426,7 +6412,7 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B116" s="6">
         <v>333</v>
@@ -6440,7 +6426,7 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B117" s="6">
         <v>1014</v>
@@ -6454,7 +6440,7 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B118" s="6">
         <v>1316</v>
@@ -6468,7 +6454,7 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B119" s="6">
         <v>658</v>
@@ -6482,7 +6468,7 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B120" s="6">
         <v>3633.5</v>
@@ -6496,7 +6482,7 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B121" s="6">
         <v>265.5</v>
@@ -6510,7 +6496,7 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B122" s="6">
         <v>10085.26</v>
@@ -6524,7 +6510,7 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B123" s="6">
         <v>2788</v>
@@ -6538,7 +6524,7 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B124" s="6">
         <v>410</v>
@@ -6552,7 +6538,7 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B125" s="6">
         <v>1225</v>
@@ -6566,7 +6552,7 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B126" s="6">
         <v>1264.5</v>
@@ -6580,7 +6566,7 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B127" s="6">
         <v>7947.51</v>
@@ -6594,7 +6580,7 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B128" s="6">
         <v>1334.75</v>
@@ -6608,7 +6594,7 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B129" s="6">
         <v>6884.13</v>
@@ -6622,7 +6608,7 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B130" s="6">
         <v>3969.13</v>
@@ -6636,7 +6622,7 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B131" s="6">
         <v>1444</v>
@@ -6650,7 +6636,7 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B132" s="6">
         <v>688</v>
@@ -6664,7 +6650,7 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B133" s="6">
         <v>907.5</v>
@@ -6678,7 +6664,7 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B134" s="6">
         <v>5510</v>
@@ -6692,7 +6678,7 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B135" s="6">
         <v>4981</v>
@@ -6706,7 +6692,7 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B136" s="6">
         <v>5379.38</v>
@@ -6720,7 +6706,7 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B137" s="6">
         <v>1001</v>
@@ -6734,7 +6720,7 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B138" s="6">
         <v>4812.52</v>
@@ -6748,7 +6734,7 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B139" s="6">
         <v>1287.25</v>
@@ -6762,7 +6748,7 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B140" s="6">
         <v>5946.89</v>
@@ -6776,7 +6762,7 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B141" s="6">
         <v>2431</v>
@@ -6790,7 +6776,7 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B142" s="6">
         <v>2608.5</v>
@@ -6804,7 +6790,7 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B143" s="6">
         <v>1480.5</v>
@@ -6818,7 +6804,7 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B144" s="6">
         <v>2439</v>
@@ -6832,7 +6818,7 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B145" s="6">
         <v>1642.5</v>
@@ -6846,7 +6832,7 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B146" s="6">
         <v>7172</v>
@@ -6860,7 +6846,7 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B147" s="6">
         <v>4590.63</v>
@@ -6874,7 +6860,7 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B148" s="6">
         <v>499.5</v>
@@ -6888,7 +6874,7 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B149" s="6">
         <v>3889.26</v>
@@ -6902,7 +6888,7 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B150" s="6">
         <v>783</v>
@@ -6916,7 +6902,7 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B151" s="6">
         <v>1412</v>
@@ -6930,7 +6916,7 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B152" s="6">
         <v>3278</v>
@@ -6944,7 +6930,7 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B153" s="6">
         <v>110</v>
@@ -6958,7 +6944,7 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B154" s="6">
         <v>385</v>
@@ -6972,7 +6958,7 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B155" s="6">
         <v>5310.52</v>
@@ -6986,7 +6972,7 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B156" s="6">
         <v>240</v>
@@ -7000,7 +6986,7 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B157" s="6">
         <v>535.5</v>
@@ -7014,7 +7000,7 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B158" s="6">
         <v>1539</v>
@@ -7028,7 +7014,7 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B159" s="6">
         <v>1787.5</v>
@@ -7042,7 +7028,7 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B160" s="6">
         <v>10601.51</v>
@@ -7056,7 +7042,7 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B161" s="6">
         <v>5130</v>
@@ -7070,7 +7056,7 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B162" s="6">
         <v>185</v>
@@ -7084,7 +7070,7 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B163" s="6">
         <v>3325</v>
@@ -7098,7 +7084,7 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B164" s="6">
         <v>5362.5</v>
@@ -7112,7 +7098,7 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B165" s="6">
         <v>5244</v>
@@ -7126,7 +7112,7 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B166" s="6">
         <v>2844</v>
@@ -7140,7 +7126,7 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B167" s="6">
         <v>5310.38</v>
@@ -7154,7 +7140,7 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B168" s="6">
         <v>1394.25</v>
@@ -7168,7 +7154,7 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B169" s="6">
         <v>5309.25</v>
@@ -7182,7 +7168,7 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B170" s="6">
         <v>1120</v>
@@ -7196,7 +7182,7 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B171" s="6">
         <v>2301</v>
@@ -7210,7 +7196,7 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B172" s="6">
         <v>1593</v>
@@ -7224,7 +7210,7 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B173" s="6">
         <v>885</v>
@@ -7238,7 +7224,7 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B174" s="6">
         <v>13022</v>
@@ -7252,7 +7238,7 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B175" s="6">
         <v>9369.39</v>
@@ -7266,7 +7252,7 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B176" s="6">
         <v>7012.5</v>
@@ -7280,7 +7266,7 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B177" s="6">
         <v>5293.77</v>
@@ -7294,7 +7280,7 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B178" s="6">
         <v>3387.5</v>
@@ -7308,7 +7294,7 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B179" s="6">
         <v>3184.25</v>
@@ -7322,7 +7308,7 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B180" s="6">
         <v>5843.75</v>
@@ -7336,7 +7322,7 @@
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B181" s="6">
         <v>7493.76</v>
@@ -7350,7 +7336,7 @@
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B182" s="6">
         <v>4878</v>
@@ -7364,7 +7350,7 @@
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B183" s="6">
         <v>1829.26</v>
@@ -7378,7 +7364,7 @@
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B184" s="6">
         <v>5024.26</v>
@@ -7392,7 +7378,7 @@
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B185" s="6">
         <v>4505.88</v>
@@ -7406,7 +7392,7 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B186" s="6">
         <v>510</v>
@@ -7420,7 +7406,7 @@
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B187" s="6">
         <v>736</v>
@@ -7434,7 +7420,7 @@
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B188" s="6">
         <v>2520</v>
@@ -7448,7 +7434,7 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B189" s="6">
         <v>8825.01</v>
@@ -7462,7 +7448,7 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B190" s="6">
         <v>3177</v>
@@ -7476,7 +7462,7 @@
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B191" s="6">
         <v>427.5</v>
@@ -7490,7 +7476,7 @@
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B192" s="6">
         <v>3429.5</v>
@@ -7504,7 +7490,7 @@
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B193" s="6">
         <v>7338.75</v>
@@ -7518,7 +7504,7 @@
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B194" s="6">
         <v>1629.25</v>
@@ -7532,7 +7518,7 @@
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B195" s="6">
         <v>5148</v>
@@ -7546,7 +7532,7 @@
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B196" s="6">
         <v>202.5</v>
@@ -7560,7 +7546,7 @@
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B197" s="6">
         <v>7475.02</v>
@@ -7574,7 +7560,7 @@
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B198" s="6">
         <v>972</v>
@@ -7588,7 +7574,7 @@
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B199" s="6">
         <v>11680</v>
@@ -7602,7 +7588,7 @@
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B200" s="6">
         <v>2992</v>
@@ -7616,7 +7602,7 @@
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B201" s="6">
         <v>8370.63</v>
@@ -7630,7 +7616,7 @@
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B202" s="6">
         <v>1567.5</v>
@@ -7644,7 +7630,7 @@
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B203" s="6">
         <v>1106</v>
@@ -7658,7 +7644,7 @@
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B204" s="6">
         <v>2472</v>
@@ -7672,7 +7658,7 @@
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B205" s="6">
         <v>2450.5</v>
@@ -7686,7 +7672,7 @@
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B206" s="6">
         <v>1560</v>
@@ -7700,7 +7686,7 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B207" s="6">
         <v>490.5</v>
@@ -7714,7 +7700,7 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B208" s="6">
         <v>16159</v>
@@ -7728,7 +7714,7 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B209" s="6">
         <v>4119.63</v>
@@ -7742,7 +7728,7 @@
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B210" s="6">
         <v>17004</v>
@@ -7756,7 +7742,7 @@
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B211" s="6">
         <v>4230</v>
@@ -7770,7 +7756,7 @@
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B212" s="6">
         <v>2860</v>
@@ -7784,7 +7770,7 @@
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B213" s="6">
         <v>5740.63</v>
@@ -7798,7 +7784,7 @@
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B214" s="6">
         <v>1548.5</v>
@@ -7812,7 +7798,7 @@
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B215" s="6">
         <v>652</v>
@@ -7826,7 +7812,7 @@
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B216" s="6">
         <v>9685</v>
@@ -7840,7 +7826,7 @@
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B217" s="6">
         <v>1608.75</v>
@@ -7854,7 +7840,7 @@
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B218" s="6">
         <v>990</v>
@@ -7868,7 +7854,7 @@
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B219" s="6">
         <v>328</v>
@@ -7882,7 +7868,7 @@
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B220" s="6">
         <v>504</v>
@@ -7896,7 +7882,7 @@
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B221" s="6">
         <v>960</v>
@@ -7910,7 +7896,7 @@
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B222" s="6">
         <v>5492.38</v>
@@ -7924,7 +7910,7 @@
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B223" s="6">
         <v>7567</v>
@@ -7938,7 +7924,7 @@
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B224" s="6">
         <v>1684.38</v>
@@ -7952,7 +7938,7 @@
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B225" s="6">
         <v>1358.5</v>
@@ -7966,7 +7952,7 @@
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B226" s="6">
         <v>15768</v>
@@ -7980,7 +7966,7 @@
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B227" s="6">
         <v>2231.25</v>
@@ -7994,7 +7980,7 @@
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B228" s="6">
         <v>370</v>
@@ -8008,7 +7994,7 @@
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B229" s="6">
         <v>1008</v>
@@ -8022,7 +8008,7 @@
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B230" s="6">
         <v>11304</v>
@@ -8036,7 +8022,7 @@
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B231" s="6">
         <v>3116</v>
@@ -8050,7 +8036,7 @@
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B232" s="6">
         <v>2335.5</v>
@@ -8064,7 +8050,7 @@
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B233" s="6">
         <v>2756.25</v>
@@ -8078,7 +8064,7 @@
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B234" s="6">
         <v>1197</v>
@@ -8092,7 +8078,7 @@
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B235" s="6">
         <v>3146</v>
@@ -8106,7 +8092,7 @@
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B236" s="6">
         <v>7053.75</v>
@@ -8120,7 +8106,7 @@
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B237" s="6">
         <v>510</v>
@@ -8134,7 +8120,7 @@
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B238" s="6">
         <v>716</v>
@@ -8148,7 +8134,7 @@
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B239" s="6">
         <v>4047</v>
@@ -8162,7 +8148,7 @@
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B240" s="6">
         <v>10792</v>
@@ -8176,7 +8162,7 @@
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B241" s="6">
         <v>340</v>
@@ -8190,7 +8176,7 @@
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B242" s="6">
         <v>680</v>
@@ -8204,7 +8190,7 @@
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B243" s="6">
         <v>2649</v>
@@ -8218,7 +8204,7 @@
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B244" s="6">
         <v>1656</v>
@@ -8232,7 +8218,7 @@
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B245" s="6">
         <v>1007.5</v>
@@ -8246,7 +8232,7 @@
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B246" s="6">
         <v>1306.25</v>
@@ -8260,7 +8246,7 @@
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B247" s="6">
         <v>2909.5</v>
@@ -8274,7 +8260,7 @@
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B248" s="6">
         <v>4778.13</v>
@@ -8288,7 +8274,7 @@
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B249" s="6">
         <v>2193.13</v>
@@ -8302,7 +8288,7 @@
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B250" s="6">
         <v>351</v>
@@ -8316,7 +8302,7 @@
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B251" s="6">
         <v>1620</v>
@@ -8330,7 +8316,7 @@
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B252" s="6">
         <v>6707</v>
@@ -8344,7 +8330,7 @@
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B253" s="6">
         <v>360</v>
@@ -8358,7 +8344,7 @@
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B254" s="6">
         <v>240</v>
@@ -8372,7 +8358,7 @@
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B255" s="6">
         <v>3267.01</v>
@@ -8386,7 +8372,7 @@
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B256" s="6">
         <v>4617</v>
@@ -8400,7 +8386,7 @@
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B257" s="6">
         <v>716</v>
@@ -8414,7 +8400,7 @@
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B258" s="6">
         <v>3078</v>
@@ -8428,7 +8414,7 @@
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B259" s="6">
         <v>1472</v>
@@ -8442,7 +8428,7 @@
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B260" s="6">
         <v>389.25</v>
@@ -8456,7 +8442,7 @@
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B261" s="6">
         <v>4635</v>
@@ -8470,7 +8456,7 @@
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B262" s="6">
         <v>4864</v>
@@ -8484,7 +8470,7 @@
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B263" s="6">
         <v>1444</v>
@@ -8498,7 +8484,7 @@
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B264" s="6">
         <v>708</v>
@@ -8512,7 +8498,7 @@
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B265" s="6">
         <v>2064</v>
@@ -8526,7 +8512,7 @@
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B266" s="6">
         <v>368</v>
@@ -8540,7 +8526,7 @@
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B267" s="6">
         <v>187.5</v>
@@ -8554,7 +8540,7 @@
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B268" s="6">
         <v>12780</v>
@@ -8568,7 +8554,7 @@
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B269" s="6">
         <v>3262</v>
@@ -8582,7 +8568,7 @@
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B270" s="6">
         <v>1440</v>
@@ -8596,7 +8582,7 @@
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B271" s="6">
         <v>5505.25</v>
@@ -8610,7 +8596,7 @@
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B272" s="6">
         <v>756</v>
@@ -8624,7 +8610,7 @@
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B273" s="6">
         <v>181.5</v>
@@ -8638,7 +8624,7 @@
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B274" s="6">
         <v>514.5</v>
@@ -8652,7 +8638,7 @@
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B275" s="6">
         <v>3078</v>
@@ -8666,7 +8652,7 @@
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B276" s="6">
         <v>178.5</v>
@@ -8680,7 +8666,7 @@
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B277" s="6">
         <v>306</v>
@@ -8694,7 +8680,7 @@
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B278" s="6">
         <v>1377.5</v>
@@ -8708,7 +8694,7 @@
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B279" s="6">
         <v>428.75</v>
@@ -8722,7 +8708,7 @@
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B280" s="6">
         <v>1020</v>
@@ -8736,7 +8722,7 @@
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B281" s="6">
         <v>1440</v>
@@ -8750,7 +8736,7 @@
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B282" s="6">
         <v>1593</v>
@@ -8764,7 +8750,7 @@
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B283" s="6">
         <v>1714.75</v>
@@ -8778,7 +8764,7 @@
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B284" s="6">
         <v>1358.5</v>
@@ -8792,7 +8778,7 @@
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B285" s="6">
         <v>606.13</v>
@@ -8806,7 +8792,7 @@
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B286" s="6">
         <v>852.5</v>
@@ -8820,7 +8806,7 @@
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B287" s="6">
         <v>11232</v>
@@ -8834,7 +8820,7 @@
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B288" s="6">
         <v>825</v>
@@ -8848,7 +8834,7 @@
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B289" s="6">
         <v>4716.25</v>
@@ -8862,7 +8848,7 @@
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B290" s="6">
         <v>2698</v>
@@ -8876,7 +8862,7 @@
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B291" s="6">
         <v>3755.5</v>
@@ -8890,7 +8876,7 @@
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B292" s="6">
         <v>7317</v>
@@ -8904,7 +8890,7 @@
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B293" s="6">
         <v>1980</v>
@@ -8918,7 +8904,7 @@
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B294" s="6">
         <v>4873.5</v>
@@ -8932,7 +8918,7 @@
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B295" s="6">
         <v>1790</v>
@@ -8946,7 +8932,7 @@
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B296" s="6">
         <v>1134</v>
@@ -8960,7 +8946,7 @@
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B297" s="6">
         <v>1358.5</v>
@@ -8974,7 +8960,7 @@
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B298" s="6">
         <v>7678.13</v>
@@ -8988,7 +8974,7 @@
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B299" s="6">
         <v>1335</v>
@@ -9002,7 +8988,7 @@
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B300" s="6">
         <v>660</v>
@@ -9016,7 +9002,7 @@
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B301" s="6">
         <v>328</v>
@@ -9030,7 +9016,7 @@
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B302" s="6">
         <v>6581.25</v>
@@ -9044,7 +9030,7 @@
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B303" s="6">
         <v>6320</v>
@@ -9058,7 +9044,7 @@
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B304" s="6">
         <v>574</v>
@@ -9072,7 +9058,7 @@
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B305" s="6">
         <v>1200</v>
@@ -9086,7 +9072,7 @@
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B306" s="6">
         <v>5492.38</v>
@@ -9100,7 +9086,7 @@
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B307" s="6">
         <v>3826.63</v>
@@ -9114,7 +9100,7 @@
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B308" s="6">
         <v>5415</v>
@@ -9128,7 +9114,7 @@
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B309" s="6">
         <v>3003</v>
@@ -9142,7 +9128,7 @@
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B310" s="6">
         <v>4800</v>
@@ -9156,7 +9142,7 @@
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B311" s="6">
         <v>2831</v>
@@ -9170,7 +9156,7 @@
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B312" s="6">
         <v>6006</v>
@@ -9184,7 +9170,7 @@
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B313" s="6">
         <v>1505.16</v>
@@ -9198,7 +9184,7 @@
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B314" s="6">
         <v>99</v>
@@ -9212,7 +9198,7 @@
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B315" s="6">
         <v>951.5</v>
@@ -9226,7 +9212,7 @@
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B316" s="6">
         <v>5643</v>
@@ -9240,7 +9226,7 @@
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B317" s="6">
         <v>3543.5</v>
@@ -9254,7 +9240,7 @@
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B318" s="6">
         <v>900</v>
@@ -9268,7 +9254,7 @@
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B319" s="6">
         <v>1452</v>
@@ -9282,7 +9268,7 @@
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B320" s="6">
         <v>358</v>
@@ -9296,7 +9282,7 @@
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B321" s="6">
         <v>706</v>
@@ -9310,7 +9296,7 @@
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B322" s="6">
         <v>4332</v>
@@ -9324,7 +9310,7 @@
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B323" s="6">
         <v>591.5</v>
@@ -9338,7 +9324,7 @@
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B324" s="6">
         <v>789.75</v>
@@ -9352,7 +9338,7 @@
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B325" s="6">
         <v>406.13</v>
@@ -9366,7 +9352,7 @@
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B326" s="6">
         <v>9135.03</v>
@@ -9380,7 +9366,7 @@
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B327" s="6">
         <v>441.25</v>
@@ -9394,7 +9380,7 @@
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B328" s="6">
         <v>1695.75</v>
@@ -9408,7 +9394,7 @@
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B329" s="6">
         <v>617.75</v>
@@ -9422,7 +9408,7 @@
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B330" s="6">
         <v>984</v>
@@ -9436,7 +9422,7 @@
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B331" s="6">
         <v>8287.5</v>
@@ -9450,7 +9436,7 @@
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B332" s="6">
         <v>1089</v>
@@ -9464,7 +9450,7 @@
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B333" s="6">
         <v>552</v>
@@ -9478,7 +9464,7 @@
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B334" s="6">
         <v>519</v>
@@ -9492,7 +9478,7 @@
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B335" s="6">
         <v>1342.5</v>
@@ -9506,7 +9492,7 @@
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B336" s="6">
         <v>725</v>
@@ -9520,7 +9506,7 @@
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B337" s="6">
         <v>1377.5</v>
@@ -9534,7 +9520,7 @@
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B338" s="6">
         <v>2850</v>
@@ -9548,7 +9534,7 @@
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B339" s="6">
         <v>15386.25</v>
@@ -9562,7 +9548,7 @@
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B340" s="6">
         <v>425</v>
@@ -9576,7 +9562,7 @@
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B341" s="6">
         <v>990</v>
@@ -9590,7 +9576,7 @@
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B342" s="6">
         <v>1248</v>
@@ -9604,7 +9590,7 @@
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B343" s="6">
         <v>1615</v>
@@ -9618,7 +9604,7 @@
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B344" s="6">
         <v>2033</v>
@@ -9632,7 +9618,7 @@
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B345" s="6">
         <v>10151</v>
@@ -9646,7 +9632,7 @@
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B346" s="6">
         <v>10660</v>
@@ -9660,7 +9646,7 @@
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B347" s="6">
         <v>5130</v>
@@ -9674,7 +9660,7 @@
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B348" s="6">
         <v>357</v>
@@ -9688,7 +9674,7 @@
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B349" s="6">
         <v>4323</v>
@@ -9702,7 +9688,7 @@
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B350" s="6">
         <v>182</v>
@@ -9716,7 +9702,7 @@
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B351" s="6">
         <v>1835</v>
@@ -9730,7 +9716,7 @@
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B352" s="6">
         <v>775</v>
@@ -9744,7 +9730,7 @@
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B353" s="6">
         <v>343</v>
@@ -9758,7 +9744,7 @@
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B354" s="6">
         <v>3442.75</v>
@@ -9772,7 +9758,7 @@
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B355" s="6">
         <v>2087.5</v>
@@ -9786,7 +9772,7 @@
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B356" s="6">
         <v>17242.5</v>
@@ -9800,7 +9786,7 @@
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B357" s="6">
         <v>7128</v>
@@ -9814,7 +9800,7 @@
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B358" s="6">
         <v>6127.5</v>
@@ -9828,7 +9814,7 @@
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B359" s="6">
         <v>3658.5</v>
@@ -9842,7 +9828,7 @@
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B360" s="6">
         <v>1581.75</v>
@@ -9856,7 +9842,7 @@
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B361" s="6">
         <v>1620</v>
@@ -9870,7 +9856,7 @@
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B362" s="6">
         <v>10656.26</v>
@@ -9884,7 +9870,7 @@
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B363" s="6">
         <v>892.5</v>
@@ -9898,7 +9884,7 @@
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B364" s="6">
         <v>27702</v>
@@ -9912,7 +9898,7 @@
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B365" s="6">
         <v>2112.5</v>
@@ -9926,7 +9912,7 @@
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B366" s="6">
         <v>29784</v>
@@ -9940,7 +9926,7 @@
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B367" s="6">
         <v>325</v>
@@ -9954,7 +9940,7 @@
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B368" s="6">
         <v>1629</v>
@@ -9968,7 +9954,7 @@
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B369" s="6">
         <v>734</v>
@@ -9982,7 +9968,7 @@
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B370" s="6">
         <v>1925</v>
@@ -9996,7 +9982,7 @@
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B371" s="6">
         <v>892.5</v>
@@ -10010,7 +9996,7 @@
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B372" s="6">
         <v>37100</v>
@@ -10024,7 +10010,7 @@
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B373" s="6">
         <v>8381.25</v>
@@ -10038,7 +10024,7 @@
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B374" s="6">
         <v>3285</v>
@@ -10052,7 +10038,7 @@
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B375" s="6">
         <v>577.5</v>
@@ -10066,7 +10052,7 @@
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B376" s="6">
         <v>365</v>
@@ -10080,7 +10066,7 @@
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B377" s="6">
         <v>4574.25</v>
@@ -10094,7 +10080,7 @@
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B378" s="6">
         <v>960</v>
@@ -10108,7 +10094,7 @@
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B379" s="6">
         <v>3362</v>
@@ -10122,7 +10108,7 @@
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B380" s="6">
         <v>3259.63</v>
@@ -10136,7 +10122,7 @@
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B381" s="6">
         <v>14085.5</v>
@@ -10150,7 +10136,7 @@
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B382" s="6">
         <v>5473.88</v>
@@ -10164,7 +10150,7 @@
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B383" s="6">
         <v>1520</v>
@@ -10178,7 +10164,7 @@
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B384" s="6">
         <v>168.5</v>
@@ -10192,7 +10178,7 @@
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B385" s="6">
         <v>1248.75</v>
@@ -10206,7 +10192,7 @@
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B386" s="6">
         <v>6139.5</v>
@@ -10220,7 +10206,7 @@
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B387" s="6">
         <v>4189.5</v>
@@ -10234,7 +10220,7 @@
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B388" s="6">
         <v>5771.26</v>
@@ -10248,7 +10234,7 @@
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B389" s="6">
         <v>444</v>
@@ -10262,7 +10248,7 @@
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B390" s="6">
         <v>5637.52</v>
@@ -10276,7 +10262,7 @@
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B391" s="6">
         <v>6662.25</v>
@@ -10290,7 +10276,7 @@
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B392" s="6">
         <v>4864.5</v>
@@ -10304,7 +10290,7 @@
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B393" s="6">
         <v>4171.5</v>
@@ -10318,7 +10304,7 @@
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B394" s="6">
         <v>11728.25</v>
@@ -10332,7 +10318,7 @@
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B395" s="6">
         <v>5005</v>
@@ -10346,7 +10332,7 @@
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B396" s="6">
         <v>770.04</v>
@@ -10360,7 +10346,7 @@
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B397" s="6">
         <v>39</v>
@@ -10374,7 +10360,7 @@
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B398" s="6">
         <v>320</v>
@@ -10388,7 +10374,7 @@
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B399" s="6">
         <v>1685.52</v>
@@ -10402,7 +10388,7 @@
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B400" s="6">
         <v>183.5</v>
@@ -10416,7 +10402,7 @@
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B401" s="6">
         <v>1092</v>
@@ -10430,7 +10416,7 @@
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B402" s="6">
         <v>8940</v>
@@ -10444,7 +10430,7 @@
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B403" s="6">
         <v>1440</v>
@@ -10458,7 +10444,7 @@
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B404" s="6">
         <v>1716</v>
@@ -10472,7 +10458,7 @@
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B405" s="6">
         <v>2458.5</v>
@@ -10486,7 +10472,7 @@
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B406" s="6">
         <v>4515</v>
@@ -10500,7 +10486,7 @@
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B407" s="6">
         <v>3087</v>
@@ -10514,7 +10500,7 @@
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B408" s="6">
         <v>1600</v>
@@ -10528,7 +10514,7 @@
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B409" s="6">
         <v>2502.5</v>
@@ -10542,7 +10528,7 @@
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B410" s="6">
         <v>2358.5</v>
@@ -10556,7 +10542,7 @@
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B411" s="6">
         <v>50</v>
@@ -10570,7 +10556,7 @@
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B412" s="6">
         <v>3415.51</v>
@@ -10584,7 +10570,7 @@
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B413" s="6">
         <v>814.5</v>
@@ -10598,7 +10584,7 @@
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B414" s="6">
         <v>1074</v>
@@ -10612,7 +10598,7 @@
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B415" s="6">
         <v>4688.25</v>
@@ -10626,7 +10612,7 @@
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B416" s="6">
         <v>1586.38</v>
@@ -10640,7 +10626,7 @@
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B417" s="6">
         <v>2331</v>
@@ -10654,7 +10640,7 @@
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B418" s="6">
         <v>1468</v>
@@ -10668,7 +10654,7 @@
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B419" s="6">
         <v>8378</v>
@@ -10682,7 +10668,7 @@
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B420" s="6">
         <v>2660</v>
@@ -10696,7 +10682,7 @@
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B421" s="6">
         <v>1445</v>
@@ -10710,7 +10696,7 @@
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B422" s="6">
         <v>7597</v>
@@ -10724,7 +10710,7 @@
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B423" s="6">
         <v>7150.03</v>
@@ -10738,7 +10724,7 @@
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B424" s="6">
         <v>2331</v>
@@ -10752,7 +10738,7 @@
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B425" s="6">
         <v>3583.5</v>
@@ -10766,7 +10752,7 @@
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B426" s="6">
         <v>182.5</v>
@@ -10780,7 +10766,7 @@
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B427" s="6">
         <v>2145</v>
@@ -10794,7 +10780,7 @@
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B428" s="6">
         <v>2032.5</v>
@@ -10808,7 +10794,7 @@
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B429" s="6">
         <v>2612.5</v>
@@ -10822,7 +10808,7 @@
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B430" s="6">
         <v>2890.5</v>
@@ -10836,7 +10822,7 @@
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B431" s="6">
         <v>2574</v>
@@ -10850,7 +10836,7 @@
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B432" s="6">
         <v>2345.5</v>
@@ -10864,7 +10850,7 @@
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B433" s="6">
         <v>609.75</v>
@@ -10878,7 +10864,7 @@
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B434" s="6">
         <v>8937.53</v>
@@ -10892,7 +10878,7 @@
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B435" s="6">
         <v>2160</v>
@@ -10906,7 +10892,7 @@
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B436" s="6">
         <v>325</v>
@@ -10920,7 +10906,7 @@
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B437" s="6">
         <v>40</v>
@@ -10934,7 +10920,7 @@
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B438" s="6">
         <v>724</v>
@@ -10948,7 +10934,7 @@
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B439" s="6">
         <v>13230</v>
@@ -10962,7 +10948,7 @@
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B440" s="6">
         <v>3427</v>
@@ -10976,7 +10962,7 @@
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B441" s="6">
         <v>612</v>
@@ -10990,7 +10976,7 @@
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B442" s="6">
         <v>2542.5</v>
@@ -11004,7 +10990,7 @@
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B443" s="6">
         <v>2728.5</v>
@@ -11018,7 +11004,7 @@
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B444" s="6">
         <v>862.5</v>
@@ -11032,7 +11018,7 @@
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B445" s="6">
         <v>3059</v>
@@ -11046,7 +11032,7 @@
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B446" s="6">
         <v>1600</v>
@@ -11060,7 +11046,7 @@
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B447" s="6">
         <v>5909</v>
@@ -11074,7 +11060,7 @@
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B448" s="6">
         <v>1183</v>
@@ -11088,7 +11074,7 @@
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B449" s="6">
         <v>2888</v>
@@ -11102,7 +11088,7 @@
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B450" s="6">
         <v>2483</v>
@@ -11116,7 +11102,7 @@
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B451" s="6">
         <v>328</v>
@@ -11130,7 +11116,7 @@
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B452" s="6">
         <v>325</v>
@@ -11144,7 +11130,7 @@
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B453" s="6">
         <v>1200.5</v>
@@ -11158,7 +11144,7 @@
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B454" s="6">
         <v>810</v>
@@ -11172,7 +11158,7 @@
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B455" s="6">
         <v>4087</v>
@@ -11186,7 +11172,7 @@
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B456" s="6">
         <v>11448</v>
@@ -11200,7 +11186,7 @@
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B457" s="6">
         <v>1275</v>
@@ -11214,7 +11200,7 @@
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B458" s="6">
         <v>1588.5</v>
@@ -11228,7 +11214,7 @@
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B459" s="6">
         <v>2463</v>
@@ -11242,7 +11228,7 @@
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B460" s="6">
         <v>592</v>
@@ -11256,7 +11242,7 @@
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B461" s="6">
         <v>1268</v>
@@ -11270,7 +11256,7 @@
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B462" s="6">
         <v>465</v>
@@ -11284,7 +11270,7 @@
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B463" s="6">
         <v>825</v>
@@ -11298,7 +11284,7 @@
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B464" s="6">
         <v>4037.5</v>
@@ -11312,7 +11298,7 @@
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B465" s="6">
         <v>6256.26</v>
@@ -11326,7 +11312,7 @@
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B466" s="6">
         <v>10381.27</v>
@@ -11340,7 +11326,7 @@
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B467" s="6">
         <v>1322.75</v>
@@ -11354,7 +11340,7 @@
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B468" s="6">
         <v>1800</v>
@@ -11368,7 +11354,7 @@
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B469" s="6">
         <v>1611</v>
@@ -11382,7 +11368,7 @@
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B470" s="6">
         <v>59349</v>
@@ -11396,7 +11382,7 @@
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B471" s="6">
         <v>3281.25</v>
@@ -11410,7 +11396,7 @@
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B472" s="6">
         <v>1800</v>
@@ -11424,7 +11410,7 @@
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B473" s="6">
         <v>6669</v>
@@ -11438,7 +11424,7 @@
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B474" s="6">
         <v>2463.75</v>
@@ -11452,7 +11438,7 @@
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B475" s="6">
         <v>676</v>
@@ -11466,7 +11452,7 @@
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B476" s="6">
         <v>5493.76</v>
@@ -11480,7 +11466,7 @@
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B477" s="6">
         <v>6372.39</v>
@@ -11494,7 +11480,7 @@
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B478" s="6">
         <v>11521.02</v>
@@ -11508,7 +11494,7 @@
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B479" s="6">
         <v>6744.01</v>
@@ -11522,7 +11508,7 @@
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B480" s="6">
         <v>3450</v>
@@ -11536,7 +11522,7 @@
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B481" s="6">
         <v>1026</v>
@@ -11550,7 +11536,7 @@
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B482" s="6">
         <v>2793.75</v>
@@ -11564,7 +11550,7 @@
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B483" s="6">
         <v>27.5</v>
@@ -11578,7 +11564,7 @@
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B484" s="6">
         <v>41.25</v>
@@ -11592,7 +11578,7 @@
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B485" s="6">
         <v>200</v>
@@ -11606,7 +11592,7 @@
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B486" s="6">
         <v>22</v>
@@ -11620,7 +11606,7 @@
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B487" s="6">
         <v>467.5</v>
@@ -11634,7 +11620,7 @@
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B488" s="6">
         <v>1903</v>
@@ -11648,7 +11634,7 @@
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B489" s="6">
         <v>3543.5</v>
@@ -11662,7 +11648,7 @@
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B490" s="6">
         <v>910</v>
@@ -11676,7 +11662,7 @@
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B491" s="6">
         <v>706</v>
@@ -11690,7 +11676,7 @@
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B492" s="6">
         <v>358</v>
@@ -11704,7 +11690,7 @@
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B493" s="6">
         <v>1328</v>
@@ -11718,7 +11704,7 @@
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B494" s="6">
         <v>1629.25</v>
@@ -11732,7 +11718,7 @@
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B495" s="6">
         <v>1080</v>
@@ -11746,7 +11732,7 @@
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B496" s="6">
         <v>368</v>
@@ -11760,7 +11746,7 @@
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B497" s="6">
         <v>255.75</v>
@@ -11774,7 +11760,7 @@
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B498" s="6">
         <v>4075.5</v>
@@ -11788,7 +11774,7 @@
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B499" s="6">
         <v>725</v>
@@ -11802,7 +11788,7 @@
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B500" s="6">
         <v>2940</v>
@@ -11816,7 +11802,7 @@
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B501" s="6">
         <v>1184</v>
@@ -11830,7 +11816,7 @@
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B502" s="6">
         <v>3429.5</v>
@@ -11844,7 +11830,7 @@
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B503" s="6">
         <v>3130</v>
@@ -11858,7 +11844,7 @@
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B504" s="6">
         <v>531.25</v>
@@ -11872,7 +11858,7 @@
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B505" s="6">
         <v>211.5</v>
@@ -11886,7 +11872,7 @@
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B506" s="6">
         <v>370</v>
@@ -11900,7 +11886,7 @@
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B507" s="6">
         <v>984.5</v>
@@ -11914,7 +11900,7 @@
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B508" s="6">
         <v>1151.5</v>
@@ -11928,7 +11914,7 @@
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B509" s="6">
         <v>740.25</v>
@@ -11942,7 +11928,7 @@
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B510" s="6">
         <v>182.5</v>
@@ -11956,7 +11942,7 @@
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B511" s="6">
         <v>1371.75</v>
@@ -11970,7 +11956,7 @@
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B512" s="6">
         <v>14726.25</v>
@@ -11984,7 +11970,7 @@
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B513" s="6">
         <v>3002</v>
@@ -11998,7 +11984,7 @@
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B514" s="6">
         <v>4601.5</v>
@@ -12012,7 +11998,7 @@
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B515" s="6">
         <v>2557</v>
@@ -12026,7 +12012,7 @@
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B516" s="6">
         <v>4392</v>
@@ -12040,7 +12026,7 @@
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B517" s="6">
         <v>7987.88</v>
@@ -12054,7 +12040,7 @@
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B518" s="6">
         <v>4809.75</v>
@@ -12068,7 +12054,7 @@
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B519" s="6">
         <v>540</v>
@@ -12082,7 +12068,7 @@
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B520" s="6">
         <v>2160</v>
@@ -12096,7 +12082,7 @@
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B521" s="6">
         <v>2073.5</v>
@@ -12110,7 +12096,7 @@
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B522" s="6">
         <v>5183</v>
@@ -12124,7 +12110,7 @@
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B523" s="6">
         <v>4788</v>
@@ -12138,7 +12124,7 @@
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B524" s="6">
         <v>318</v>
@@ -12152,7 +12138,7 @@
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B525" s="6">
         <v>5513</v>
@@ -12166,7 +12152,7 @@
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B526" s="6">
         <v>6615</v>
@@ -12180,7 +12166,7 @@
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B527" s="6">
         <v>990</v>
@@ -12194,7 +12180,7 @@
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B528" s="6">
         <v>5254.5</v>
@@ -12208,7 +12194,7 @@
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B529" s="6">
         <v>632</v>
@@ -12222,7 +12208,7 @@
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B530" s="6">
         <v>456.25</v>
@@ -12236,7 +12222,7 @@
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B531" s="6">
         <v>7583.63</v>
@@ -12250,7 +12236,7 @@
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B532" s="6">
         <v>1615.75</v>
@@ -12264,7 +12250,7 @@
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B533" s="6">
         <v>4004.25</v>
@@ -12278,7 +12264,7 @@
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B534" s="6">
         <v>9923.13</v>
@@ -12292,7 +12278,7 @@
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B535" s="6">
         <v>1950.75</v>
@@ -12306,7 +12292,7 @@
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B536" s="6">
         <v>9799.89</v>
@@ -12320,7 +12306,7 @@
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B537" s="6">
         <v>4175.25</v>
@@ -12334,7 +12320,7 @@
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B538" s="6">
         <v>491.75</v>
@@ -12348,7 +12334,7 @@
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B539" s="6">
         <v>2931.5</v>
@@ -12362,7 +12348,7 @@
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B540" s="6">
         <v>2322.75</v>
@@ -12376,7 +12362,7 @@
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B541" s="6">
         <v>1368</v>
@@ -12390,7 +12376,7 @@
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B542" s="6">
         <v>4608</v>
@@ -12404,7 +12390,7 @@
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B543" s="6">
         <v>1662.5</v>
@@ -12418,7 +12404,7 @@
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B544" s="6">
         <v>2216.5</v>
@@ -12432,7 +12418,7 @@
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B545" s="6">
         <v>4115.75</v>
@@ -12446,7 +12432,7 @@
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B546" s="6">
         <v>52</v>
@@ -12460,7 +12446,7 @@
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B547" s="6">
         <v>55</v>
@@ -12474,7 +12460,7 @@
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B548" s="6">
         <v>120</v>
@@ -12488,7 +12474,7 @@
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B549" s="6">
         <v>2021.5</v>
@@ -12502,7 +12488,7 @@
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B550" s="6">
         <v>693.75</v>
@@ -12516,7 +12502,7 @@
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B551" s="6">
         <v>1814.5</v>
@@ -12530,7 +12516,7 @@
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B552" s="6">
         <v>358</v>
@@ -12544,7 +12530,7 @@
     </row>
     <row r="553">
       <c r="A553" s="0" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B553" s="6">
         <v>210.63</v>
@@ -12558,7 +12544,7 @@
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B554" s="6">
         <v>351</v>
@@ -12572,7 +12558,7 @@
     </row>
     <row r="555">
       <c r="A555" s="0" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B555" s="6">
         <v>357</v>
@@ -12586,7 +12572,7 @@
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B556" s="6">
         <v>3154</v>
@@ -12600,7 +12586,7 @@
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B557" s="6">
         <v>11513</v>
@@ -12614,7 +12600,7 @@
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B558" s="6">
         <v>1665</v>
@@ -12628,7 +12614,7 @@
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B559" s="6">
         <v>4075.5</v>
@@ -12642,7 +12628,7 @@
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B560" s="6">
         <v>760</v>
@@ -12656,7 +12642,7 @@
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B561" s="6">
         <v>1377.5</v>
@@ -12670,7 +12656,7 @@
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B562" s="6">
         <v>1450</v>
@@ -12684,7 +12670,7 @@
     </row>
     <row r="563">
       <c r="A563" s="0" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B563" s="6">
         <v>1911</v>
@@ -12698,7 +12684,7 @@
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B564" s="6">
         <v>857.5</v>
@@ -12712,7 +12698,7 @@
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B565" s="6">
         <v>1327.5</v>
@@ -12726,7 +12712,7 @@
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B566" s="6">
         <v>1588.5</v>
@@ -12740,7 +12726,7 @@
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B567" s="6">
         <v>3040</v>
@@ -12754,7 +12740,7 @@
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B568" s="6">
         <v>870</v>
@@ -12768,7 +12754,7 @@
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B569" s="6">
         <v>7052</v>
@@ -12782,7 +12768,7 @@
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B570" s="6">
         <v>26279.5</v>
@@ -12796,7 +12782,7 @@
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B571" s="6">
         <v>5870</v>
@@ -12810,7 +12796,7 @@
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B572" s="6">
         <v>2331</v>
@@ -12824,7 +12810,7 @@
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B573" s="6">
         <v>3458</v>
@@ -12838,7 +12824,7 @@
     </row>
     <row r="574">
       <c r="A574" s="0" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B574" s="6">
         <v>3182</v>
@@ -12852,7 +12838,7 @@
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B575" s="6">
         <v>822.5</v>
@@ -12866,7 +12852,7 @@
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B576" s="6">
         <v>493.5</v>
@@ -12880,7 +12866,7 @@
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B577" s="6">
         <v>1482</v>
@@ -12894,7 +12880,7 @@
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B578" s="6">
         <v>357</v>
@@ -12908,7 +12894,7 @@
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B579" s="6">
         <v>10363.14</v>
@@ -12922,7 +12908,7 @@
     </row>
     <row r="580">
       <c r="A580" s="0" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B580" s="6">
         <v>3002</v>
@@ -12936,7 +12922,7 @@
     </row>
     <row r="581">
       <c r="A581" s="0" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B581" s="6">
         <v>3847.5</v>
@@ -12950,7 +12936,7 @@
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B582" s="6">
         <v>4899.5</v>
@@ -12964,7 +12950,7 @@
     </row>
     <row r="583">
       <c r="A583" s="0" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B583" s="6">
         <v>1358.5</v>
@@ -12978,7 +12964,7 @@
     </row>
     <row r="584">
       <c r="A584" s="0" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B584" s="6">
         <v>1144</v>
@@ -12992,7 +12978,7 @@
     </row>
     <row r="585">
       <c r="A585" s="0" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B585" s="6">
         <v>10518.75</v>
@@ -13006,7 +12992,7 @@
     </row>
     <row r="586">
       <c r="A586" s="0" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B586" s="6">
         <v>1400</v>
@@ -13020,7 +13006,7 @@
     </row>
     <row r="587">
       <c r="A587" s="0" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B587" s="6">
         <v>1440</v>
@@ -13034,7 +13020,7 @@
     </row>
     <row r="588">
       <c r="A588" s="0" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B588" s="6">
         <v>3401</v>
@@ -13048,7 +13034,7 @@
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B589" s="6">
         <v>751.5</v>
@@ -13062,7 +13048,7 @@
     </row>
     <row r="590">
       <c r="A590" s="0" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B590" s="6">
         <v>765</v>
@@ -13076,7 +13062,7 @@
     </row>
     <row r="591">
       <c r="A591" s="0" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B591" s="6">
         <v>3391.5</v>
@@ -13090,7 +13076,7 @@
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B592" s="6">
         <v>510</v>
@@ -13104,7 +13090,7 @@
     </row>
     <row r="593">
       <c r="A593" s="0" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B593" s="6">
         <v>532.5</v>
@@ -13118,7 +13104,7 @@
     </row>
     <row r="594">
       <c r="A594" s="0" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B594" s="6">
         <v>8493</v>
@@ -13132,7 +13118,7 @@
     </row>
     <row r="595">
       <c r="A595" s="0" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B595" s="6">
         <v>17185</v>
@@ -13146,7 +13132,7 @@
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B596" s="6">
         <v>492</v>
@@ -13160,7 +13146,7 @@
     </row>
     <row r="597">
       <c r="A597" s="0" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B597" s="6">
         <v>1738</v>
@@ -13174,7 +13160,7 @@
     </row>
     <row r="598">
       <c r="A598" s="0" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B598" s="6">
         <v>4068</v>
@@ -13188,7 +13174,7 @@
     </row>
     <row r="599">
       <c r="A599" s="0" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B599" s="6">
         <v>12008</v>
@@ -13202,7 +13188,7 @@
     </row>
     <row r="600">
       <c r="A600" s="0" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B600" s="6">
         <v>1467.75</v>
@@ -13216,7 +13202,7 @@
     </row>
     <row r="601">
       <c r="A601" s="0" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B601" s="6">
         <v>1078</v>
@@ -13230,7 +13216,7 @@
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B602" s="6">
         <v>5002</v>
@@ -13244,7 +13230,7 @@
     </row>
     <row r="603">
       <c r="A603" s="0" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B603" s="6">
         <v>2460</v>
@@ -13258,7 +13244,7 @@
     </row>
     <row r="604">
       <c r="A604" s="0" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B604" s="6">
         <v>3934.01</v>
@@ -13272,7 +13258,7 @@
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B605" s="6">
         <v>8200.38</v>
@@ -13286,7 +13272,7 @@
     </row>
     <row r="606">
       <c r="A606" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B606" s="6">
         <v>4468.25</v>
@@ -13300,7 +13286,7 @@
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B607" s="6">
         <v>2295</v>
@@ -13314,7 +13300,7 @@
     </row>
     <row r="608">
       <c r="A608" s="0" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B608" s="6">
         <v>1222.5</v>
@@ -13328,7 +13314,7 @@
     </row>
     <row r="609">
       <c r="A609" s="0" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B609" s="6">
         <v>3300</v>
@@ -13342,7 +13328,7 @@
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B610" s="6">
         <v>1425</v>
@@ -13356,7 +13342,7 @@
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B611" s="6">
         <v>2256</v>
@@ -13370,7 +13356,7 @@
     </row>
     <row r="612">
       <c r="A612" s="0" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B612" s="6">
         <v>1573</v>
@@ -13384,7 +13370,7 @@
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B613" s="6">
         <v>499.5</v>
@@ -13398,7 +13384,7 @@
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B614" s="6">
         <v>815</v>
@@ -13412,7 +13398,7 @@
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B615" s="6">
         <v>5710.5</v>
@@ -13426,7 +13412,7 @@
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B616" s="6">
         <v>855</v>
@@ -13440,7 +13426,7 @@
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B617" s="6">
         <v>3038.75</v>
@@ -13454,7 +13440,7 @@
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B618" s="6">
         <v>5511.5</v>
@@ -13468,7 +13454,7 @@
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B619" s="6">
         <v>6534</v>
@@ -13482,7 +13468,7 @@
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B620" s="6">
         <v>1724.25</v>
@@ -13496,7 +13482,7 @@
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B621" s="6">
         <v>907.5</v>
@@ -13510,7 +13496,7 @@
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B622" s="6">
         <v>3538.75</v>
@@ -13524,7 +13510,7 @@
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B623" s="6">
         <v>1062</v>
@@ -13538,7 +13524,7 @@
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B624" s="6">
         <v>2388.5</v>
@@ -13552,7 +13538,7 @@
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B625" s="6">
         <v>2739</v>
@@ -13566,7 +13552,7 @@
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B626" s="6">
         <v>3608</v>
@@ -13580,7 +13566,7 @@
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B627" s="6">
         <v>984</v>
@@ -13594,7 +13580,7 @@
     </row>
     <row r="628">
       <c r="A628" s="0" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B628" s="6">
         <v>2331</v>
@@ -13608,7 +13594,7 @@
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B629" s="6">
         <v>2331</v>
@@ -13622,7 +13608,7 @@
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B630" s="6">
         <v>2970</v>
@@ -13636,7 +13622,7 @@
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B631" s="6">
         <v>1292</v>
@@ -13650,7 +13636,7 @@
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B632" s="6">
         <v>16928</v>
@@ -13664,7 +13650,7 @@
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B633" s="6">
         <v>5510</v>
@@ -13678,7 +13664,7 @@
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B634" s="6">
         <v>652.5</v>
@@ -13692,7 +13678,7 @@
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B635" s="6">
         <v>830.5</v>
@@ -13706,7 +13692,7 @@
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B636" s="6">
         <v>620</v>
@@ -13720,7 +13706,7 @@
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B637" s="6">
         <v>882</v>
@@ -13734,7 +13720,7 @@
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B638" s="6">
         <v>882.5</v>
@@ -13748,7 +13734,7 @@
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B639" s="6">
         <v>1357.5</v>
@@ -13762,7 +13748,7 @@
     </row>
     <row r="640">
       <c r="A640" s="0" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B640" s="6">
         <v>6187.5</v>
@@ -13776,7 +13762,7 @@
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B641" s="6">
         <v>3074.5</v>
@@ -13790,7 +13776,7 @@
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B642" s="6">
         <v>495</v>
@@ -13804,7 +13790,7 @@
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B643" s="6">
         <v>2752.5</v>
@@ -13818,7 +13804,7 @@
     </row>
     <row r="644">
       <c r="A644" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B644" s="6">
         <v>540</v>
@@ -13832,7 +13818,7 @@
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B645" s="6">
         <v>1757.5</v>
@@ -13846,7 +13832,7 @@
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B646" s="6">
         <v>283.5</v>
@@ -13860,7 +13846,7 @@
     </row>
     <row r="647">
       <c r="A647" s="0" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B647" s="6">
         <v>358</v>
@@ -13874,7 +13860,7 @@
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B648" s="6">
         <v>149</v>
@@ -13888,7 +13874,7 @@
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B649" s="6">
         <v>499.5</v>
@@ -13902,7 +13888,7 @@
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B650" s="6">
         <v>1480.5</v>
@@ -13916,7 +13902,7 @@
     </row>
     <row r="651">
       <c r="A651" s="0" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B651" s="6">
         <v>3969.13</v>
@@ -13930,7 +13916,7 @@
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B652" s="6">
         <v>8753.38</v>
@@ -13944,7 +13930,7 @@
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B653" s="6">
         <v>1334.75</v>
@@ -13958,7 +13944,7 @@
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B654" s="6">
         <v>2962.5</v>
@@ -13972,7 +13958,7 @@
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B655" s="6">
         <v>2528</v>
@@ -13986,7 +13972,7 @@
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B656" s="6">
         <v>867.5</v>
@@ -14000,7 +13986,7 @@
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B657" s="6">
         <v>1358.5</v>
@@ -14014,7 +14000,7 @@
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B658" s="6">
         <v>1001</v>
@@ -14028,7 +14014,7 @@
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B659" s="6">
         <v>2002</v>
@@ -14042,7 +14028,7 @@
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B660" s="6">
         <v>4105.5</v>
@@ -14056,7 +14042,7 @@
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B661" s="6">
         <v>1620</v>
@@ -14070,7 +14056,7 @@
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B662" s="6">
         <v>3401</v>
@@ -14084,7 +14070,7 @@
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B663" s="6">
         <v>682</v>
@@ -14098,7 +14084,7 @@
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B664" s="6">
         <v>1695.75</v>
@@ -14112,7 +14098,7 @@
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B665" s="6">
         <v>1700.5</v>
@@ -14126,7 +14112,7 @@
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B666" s="6">
         <v>733.5</v>
@@ -14140,7 +14126,7 @@
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B667" s="6">
         <v>3905</v>
@@ -14154,7 +14140,7 @@
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B668" s="6">
         <v>800</v>
@@ -14168,7 +14154,7 @@
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B669" s="6">
         <v>169</v>
@@ -14182,7 +14168,7 @@
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B670" s="6">
         <v>82.5</v>
@@ -14196,7 +14182,7 @@
     </row>
     <row r="671">
       <c r="A671" s="0" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B671" s="6">
         <v>16501.5</v>
@@ -14210,7 +14196,7 @@
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B672" s="6">
         <v>2985</v>
@@ -14224,7 +14210,7 @@
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B673" s="6">
         <v>39985.76</v>
@@ -14238,7 +14224,7 @@
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B674" s="6">
         <v>2775</v>
@@ -14252,7 +14238,7 @@
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B675" s="6">
         <v>1197</v>
@@ -14266,7 +14252,7 @@
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B676" s="6">
         <v>612.5</v>
@@ -14280,7 +14266,7 @@
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B677" s="6">
         <v>9310</v>
@@ -14294,7 +14280,7 @@
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="B678" s="6">
         <v>8728.5</v>
@@ -14308,7 +14294,7 @@
     </row>
     <row r="679">
       <c r="A679" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B679" s="6">
         <v>918</v>
@@ -14322,7 +14308,7 @@
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B680" s="6">
         <v>2073.5</v>
@@ -14336,7 +14322,7 @@
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B681" s="6">
         <v>2970</v>
@@ -14350,7 +14336,7 @@
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B682" s="6">
         <v>9912</v>
@@ -14364,7 +14350,7 @@
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B683" s="6">
         <v>932.25</v>
@@ -14378,7 +14364,7 @@
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B684" s="6">
         <v>5056</v>
@@ -14392,7 +14378,7 @@
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B685" s="6">
         <v>1264</v>
@@ -14406,7 +14392,7 @@
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B686" s="6">
         <v>1733.75</v>
@@ -14420,7 +14406,7 @@
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B687" s="6">
         <v>4920</v>
@@ -14434,7 +14420,7 @@
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B688" s="6">
         <v>485</v>
@@ -14448,7 +14434,7 @@
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B689" s="6">
         <v>7938.26</v>
@@ -14462,7 +14448,7 @@
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B690" s="6">
         <v>2634.38</v>
@@ -14476,7 +14462,7 @@
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B691" s="6">
         <v>4156.25</v>
@@ -14490,7 +14476,7 @@
     </row>
     <row r="692">
       <c r="A692" s="0" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B692" s="6">
         <v>1172</v>
@@ -14504,7 +14490,7 @@
     </row>
     <row r="693">
       <c r="A693" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B693" s="6">
         <v>3936</v>
@@ -14518,7 +14504,7 @@
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B694" s="6">
         <v>5586</v>
@@ -14532,7 +14518,7 @@
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B695" s="6">
         <v>2309.5</v>
@@ -14546,7 +14532,7 @@
     </row>
     <row r="696">
       <c r="A696" s="0" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B696" s="6">
         <v>2011.5</v>
@@ -14560,7 +14546,7 @@
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B697" s="6">
         <v>1292</v>
@@ -14574,7 +14560,7 @@
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B698" s="6">
         <v>1277.5</v>
@@ -14588,7 +14574,7 @@
     </row>
     <row r="699">
       <c r="A699" s="0" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B699" s="6">
         <v>1284</v>
@@ -14602,7 +14588,7 @@
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B700" s="6">
         <v>1200</v>
@@ -14616,7 +14602,7 @@
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B701" s="6">
         <v>10094.76</v>
@@ -14630,7 +14616,7 @@
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B702" s="6">
         <v>3003</v>
@@ -14644,7 +14630,7 @@
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B703" s="6">
         <v>751.5</v>
@@ -14658,7 +14644,7 @@
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B704" s="6">
         <v>6475</v>
@@ -14672,7 +14658,7 @@
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B705" s="6">
         <v>771.75</v>
@@ -14686,7 +14672,7 @@
     </row>
     <row r="706">
       <c r="A706" s="0" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B706" s="6">
         <v>2764.5</v>
@@ -14700,7 +14686,7 @@
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B707" s="6">
         <v>4588.5</v>
@@ -14714,7 +14700,7 @@
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B708" s="6">
         <v>2475</v>
@@ -14728,7 +14714,7 @@
     </row>
     <row r="709">
       <c r="A709" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B709" s="6">
         <v>6568.39</v>
@@ -14742,7 +14728,7 @@
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B710" s="6">
         <v>936</v>
@@ -14756,7 +14742,7 @@
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B711" s="6">
         <v>220</v>
@@ -14770,7 +14756,7 @@
     </row>
     <row r="712">
       <c r="A712" s="0" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B712" s="6">
         <v>99</v>
@@ -14784,7 +14770,7 @@
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B713" s="6">
         <v>316.5</v>
@@ -14798,7 +14784,7 @@
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B714" s="6">
         <v>484.5</v>
@@ -14812,7 +14798,7 @@
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B715" s="6">
         <v>1331</v>
@@ -14826,7 +14812,7 @@
     </row>
     <row r="716">
       <c r="A716" s="0" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B716" s="6">
         <v>612.5</v>
@@ -14840,7 +14826,7 @@
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B717" s="6">
         <v>1437.5</v>
@@ -14854,7 +14840,7 @@
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B718" s="6">
         <v>3300</v>
@@ -14868,7 +14854,7 @@
     </row>
     <row r="719">
       <c r="A719" s="0" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B719" s="6">
         <v>475</v>

--- a/Projects/tbh-report-catalog/reports/202501 DispatchBilling Verification Pack.xlsx
+++ b/Projects/tbh-report-catalog/reports/202501 DispatchBilling Verification Pack.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="764">
   <si>
     <t>TBH Dispatch / Billing Verification Pack</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Generated</t>
   </si>
   <si>
-    <t>2026-02-17 17:44</t>
+    <t>2026-02-18 09:43</t>
   </si>
   <si>
     <t>Notes</t>
@@ -2289,6 +2289,24 @@
   </si>
   <si>
     <t>1483548</t>
+  </si>
+  <si>
+    <t>1483667</t>
+  </si>
+  <si>
+    <t>1483668</t>
+  </si>
+  <si>
+    <t>1484728</t>
+  </si>
+  <si>
+    <t>1484729</t>
+  </si>
+  <si>
+    <t>1484730</t>
+  </si>
+  <si>
+    <t>1484731</t>
   </si>
 </sst>
 </file>
@@ -2488,7 +2506,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="5">
-        <v>99.5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="6">
         <v>15109.51</v>
@@ -2511,7 +2529,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="5">
-        <v>71.5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="6">
         <v>11158.5</v>
@@ -2534,7 +2552,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="5">
-        <v>198.75</v>
+        <v>0</v>
       </c>
       <c r="E5" s="6">
         <v>30699.01</v>
@@ -2580,7 +2598,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="5">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6">
         <v>35391.27</v>
@@ -2603,7 +2621,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="5">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="E8" s="6">
         <v>18037.77</v>
@@ -2626,7 +2644,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="5">
-        <v>183.25</v>
+        <v>0</v>
       </c>
       <c r="E9" s="6">
         <v>27815.75</v>
@@ -2649,7 +2667,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="5">
-        <v>425.5</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6">
         <v>66194.56</v>
@@ -2741,7 +2759,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="5">
-        <v>409.25</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6">
         <v>60660.9</v>
@@ -2764,7 +2782,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="5">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E15" s="6">
         <v>10601.51</v>
@@ -2787,7 +2805,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E16" s="6">
         <v>1647</v>
@@ -2810,7 +2828,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="5">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E17" s="6">
         <v>7264</v>
@@ -2833,7 +2851,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="5">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E18" s="6">
         <v>6957.5</v>
@@ -2856,7 +2874,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="5">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="E19" s="6">
         <v>7837</v>
@@ -2879,7 +2897,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="E20" s="6">
         <v>15643</v>
@@ -2902,7 +2920,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="5">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="E21" s="6">
         <v>16074.5</v>
@@ -2948,7 +2966,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="5">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E23" s="6">
         <v>12519</v>
@@ -2971,7 +2989,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="5">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="E24" s="6">
         <v>16723.27</v>
@@ -2994,7 +3012,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="5">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="E25" s="6">
         <v>32755.52</v>
@@ -3017,7 +3035,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="5">
-        <v>352.75</v>
+        <v>0</v>
       </c>
       <c r="E26" s="6">
         <v>53269.53</v>
@@ -3040,7 +3058,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="5">
-        <v>325.75</v>
+        <v>0</v>
       </c>
       <c r="E27" s="6">
         <v>50489.91</v>
@@ -3063,7 +3081,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="5">
-        <v>112.5</v>
+        <v>0</v>
       </c>
       <c r="E28" s="6">
         <v>18138.25</v>
@@ -3086,7 +3104,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="5">
-        <v>414.75</v>
+        <v>0</v>
       </c>
       <c r="E29" s="6">
         <v>60074.13</v>
@@ -3109,7 +3127,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="5">
-        <v>657.25</v>
+        <v>0</v>
       </c>
       <c r="E30" s="6">
         <v>98735.64</v>
@@ -3155,7 +3173,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="5">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="E32" s="6">
         <v>42290.75</v>
@@ -3178,7 +3196,7 @@
         <v>19</v>
       </c>
       <c r="D33" s="5">
-        <v>54.5</v>
+        <v>0</v>
       </c>
       <c r="E33" s="6">
         <v>8279.75</v>
@@ -3201,7 +3219,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="5">
-        <v>110.5</v>
+        <v>0</v>
       </c>
       <c r="E34" s="6">
         <v>15859</v>
@@ -3224,7 +3242,7 @@
         <v>23</v>
       </c>
       <c r="D35" s="5">
-        <v>123.5</v>
+        <v>0</v>
       </c>
       <c r="E35" s="6">
         <v>18884.26</v>
@@ -3270,7 +3288,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="5">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E37" s="6">
         <v>25177.51</v>
@@ -3293,7 +3311,7 @@
         <v>19</v>
       </c>
       <c r="D38" s="5">
-        <v>111.25</v>
+        <v>0</v>
       </c>
       <c r="E38" s="6">
         <v>18174.26</v>
@@ -3316,7 +3334,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="5">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="E39" s="6">
         <v>7016</v>
@@ -3339,7 +3357,7 @@
         <v>23</v>
       </c>
       <c r="D40" s="5">
-        <v>280.75</v>
+        <v>0</v>
       </c>
       <c r="E40" s="6">
         <v>43232</v>
@@ -3408,7 +3426,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="5">
-        <v>155.5</v>
+        <v>0</v>
       </c>
       <c r="E43" s="6">
         <v>25606.75</v>
@@ -3431,7 +3449,7 @@
         <v>19</v>
       </c>
       <c r="D44" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E44" s="6">
         <v>3952.5</v>
@@ -3454,7 +3472,7 @@
         <v>21</v>
       </c>
       <c r="D45" s="5">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="E45" s="6">
         <v>7880</v>
@@ -3477,7 +3495,7 @@
         <v>23</v>
       </c>
       <c r="D46" s="5">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="E46" s="6">
         <v>48372.26</v>
@@ -3523,7 +3541,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="5">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="E48" s="6">
         <v>52175.01</v>
@@ -3546,7 +3564,7 @@
         <v>19</v>
       </c>
       <c r="D49" s="5">
-        <v>242.5</v>
+        <v>0</v>
       </c>
       <c r="E49" s="6">
         <v>39535.28</v>
@@ -3569,7 +3587,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="5">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="E50" s="6">
         <v>57749.63</v>
@@ -3592,7 +3610,7 @@
         <v>23</v>
       </c>
       <c r="D51" s="5">
-        <v>1161.25</v>
+        <v>0</v>
       </c>
       <c r="E51" s="6">
         <v>170265.41</v>
@@ -3661,7 +3679,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="5">
-        <v>595.75</v>
+        <v>0</v>
       </c>
       <c r="E54" s="6">
         <v>95708.39</v>
@@ -3730,7 +3748,7 @@
         <v>23</v>
       </c>
       <c r="D57" s="5">
-        <v>106.75</v>
+        <v>0</v>
       </c>
       <c r="E57" s="6">
         <v>16521.5</v>
@@ -3776,7 +3794,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="5">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E59" s="6">
         <v>13371.5</v>
@@ -3799,7 +3817,7 @@
         <v>19</v>
       </c>
       <c r="D60" s="5">
-        <v>110.75</v>
+        <v>0</v>
       </c>
       <c r="E60" s="6">
         <v>17618.9</v>
@@ -3822,7 +3840,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="5">
-        <v>205.5</v>
+        <v>0</v>
       </c>
       <c r="E61" s="6">
         <v>29863.53</v>
@@ -3845,7 +3863,7 @@
         <v>23</v>
       </c>
       <c r="D62" s="5">
-        <v>191.5</v>
+        <v>0</v>
       </c>
       <c r="E62" s="6">
         <v>28785.5</v>
@@ -3891,7 +3909,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="5">
-        <v>187.5</v>
+        <v>0</v>
       </c>
       <c r="E64" s="6">
         <v>27854.52</v>
@@ -3914,7 +3932,7 @@
         <v>19</v>
       </c>
       <c r="D65" s="5">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E65" s="6">
         <v>13116</v>
@@ -3937,7 +3955,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="5">
-        <v>144.5</v>
+        <v>0</v>
       </c>
       <c r="E66" s="6">
         <v>22872</v>
@@ -3960,7 +3978,7 @@
         <v>23</v>
       </c>
       <c r="D67" s="5">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="E67" s="6">
         <v>111639.93</v>
@@ -4029,7 +4047,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="5">
-        <v>197.75</v>
+        <v>0</v>
       </c>
       <c r="E70" s="6">
         <v>28558.78</v>
@@ -4052,7 +4070,7 @@
         <v>19</v>
       </c>
       <c r="D71" s="5">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E71" s="6">
         <v>8748.5</v>
@@ -4075,7 +4093,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="5">
-        <v>126.5</v>
+        <v>0</v>
       </c>
       <c r="E72" s="6">
         <v>19559.75</v>
@@ -4098,7 +4116,7 @@
         <v>23</v>
       </c>
       <c r="D73" s="5">
-        <v>546.75</v>
+        <v>0</v>
       </c>
       <c r="E73" s="6">
         <v>81670.4</v>
@@ -4167,7 +4185,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="5">
-        <v>368.5</v>
+        <v>0</v>
       </c>
       <c r="E76" s="6">
         <v>58499.13</v>
@@ -4190,7 +4208,7 @@
         <v>19</v>
       </c>
       <c r="D77" s="5">
-        <v>110.5</v>
+        <v>0</v>
       </c>
       <c r="E77" s="6">
         <v>20473.38</v>
@@ -4213,7 +4231,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="5">
-        <v>413.5</v>
+        <v>0</v>
       </c>
       <c r="E78" s="6">
         <v>60455</v>
@@ -4236,7 +4254,7 @@
         <v>23</v>
       </c>
       <c r="D79" s="5">
-        <v>722.75</v>
+        <v>0</v>
       </c>
       <c r="E79" s="6">
         <v>111327.65</v>
@@ -4259,7 +4277,7 @@
         <v>25</v>
       </c>
       <c r="D80" s="5">
-        <v>297.75</v>
+        <v>0</v>
       </c>
       <c r="E80" s="6">
         <v>44888.38</v>
@@ -4282,7 +4300,7 @@
         <v>19</v>
       </c>
       <c r="D81" s="5">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="E81" s="6">
         <v>28148</v>
@@ -4305,7 +4323,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="5">
-        <v>315.25</v>
+        <v>0</v>
       </c>
       <c r="E82" s="6">
         <v>44434.5</v>
@@ -4328,7 +4346,7 @@
         <v>23</v>
       </c>
       <c r="D83" s="5">
-        <v>928</v>
+        <v>0</v>
       </c>
       <c r="E83" s="6">
         <v>142324.9</v>
@@ -4397,7 +4415,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="5">
-        <v>310.25</v>
+        <v>0</v>
       </c>
       <c r="E86" s="6">
         <v>47466.76</v>
@@ -4443,7 +4461,7 @@
         <v>21</v>
       </c>
       <c r="D88" s="5">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="E88" s="6">
         <v>7153.5</v>
@@ -4466,7 +4484,7 @@
         <v>23</v>
       </c>
       <c r="D89" s="5">
-        <v>161.25</v>
+        <v>0</v>
       </c>
       <c r="E89" s="6">
         <v>25805.64</v>
@@ -4512,7 +4530,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="5">
-        <v>103.5</v>
+        <v>0</v>
       </c>
       <c r="E91" s="6">
         <v>15735.26</v>
@@ -4590,7 +4608,7 @@
         <v>1471.5</v>
       </c>
       <c r="F2" s="5">
-        <v>1443</v>
+        <v>0</v>
       </c>
       <c r="G2" s="6">
         <v>236151.87</v>
@@ -4616,7 +4634,7 @@
         <v>2969.75</v>
       </c>
       <c r="F3" s="5">
-        <v>2831.75</v>
+        <v>0</v>
       </c>
       <c r="G3" s="6">
         <v>427553.81</v>
@@ -4642,7 +4660,7 @@
         <v>7108.75</v>
       </c>
       <c r="F4" s="5">
-        <v>7076.75</v>
+        <v>0</v>
       </c>
       <c r="G4" s="6">
         <v>1074404.2</v>
@@ -4772,7 +4790,7 @@
         <v>4259</v>
       </c>
       <c r="F9" s="5">
-        <v>4165.5</v>
+        <v>0</v>
       </c>
       <c r="G9" s="6">
         <v>643351.32</v>
@@ -4788,7 +4806,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D719"/>
+  <dimension ref="A1:D725"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13611,13 +13629,13 @@
         <v>668</v>
       </c>
       <c r="B630" s="6">
-        <v>2970</v>
+        <v>3858.75</v>
       </c>
       <c r="C630" s="6">
         <v>4169.93</v>
       </c>
       <c r="D630" s="6">
-        <v>-1199.93</v>
+        <v>-311.18</v>
       </c>
     </row>
     <row r="631">
@@ -14864,6 +14882,90 @@
       </c>
       <c r="D719" s="6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="B720" s="6">
+        <v>2970</v>
+      </c>
+      <c r="C720" s="6">
+        <v>0</v>
+      </c>
+      <c r="D720" s="6">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="B721" s="6">
+        <v>-3858.75</v>
+      </c>
+      <c r="C721" s="6">
+        <v>0</v>
+      </c>
+      <c r="D721" s="6">
+        <v>-3858.75</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="B722" s="6">
+        <v>535.5</v>
+      </c>
+      <c r="C722" s="6">
+        <v>0</v>
+      </c>
+      <c r="D722" s="6">
+        <v>535.5</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="B723" s="6">
+        <v>-535.5</v>
+      </c>
+      <c r="C723" s="6">
+        <v>0</v>
+      </c>
+      <c r="D723" s="6">
+        <v>-535.5</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="B724" s="6">
+        <v>1695.75</v>
+      </c>
+      <c r="C724" s="6">
+        <v>0</v>
+      </c>
+      <c r="D724" s="6">
+        <v>1695.75</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="B725" s="6">
+        <v>-1695.75</v>
+      </c>
+      <c r="C725" s="6">
+        <v>0</v>
+      </c>
+      <c r="D725" s="6">
+        <v>-1695.75</v>
       </c>
     </row>
   </sheetData>
